--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9914897135978946</v>
+        <v>0.9914897135978943</v>
       </c>
       <c r="D2">
-        <v>1.012360433446233</v>
+        <v>1.012360433446232</v>
       </c>
       <c r="E2">
-        <v>0.9804960573420212</v>
+        <v>0.9804960573420211</v>
       </c>
       <c r="F2">
         <v>1.005439215611694</v>
@@ -445,7 +445,7 @@
         <v>1.023650212273536</v>
       </c>
       <c r="L2">
-        <v>0.9922339708592427</v>
+        <v>0.9922339708592426</v>
       </c>
       <c r="M2">
         <v>1.016823290084712</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.999101040902842</v>
+        <v>0.9991010409028422</v>
       </c>
       <c r="D3">
         <v>1.018275369351127</v>
       </c>
       <c r="E3">
-        <v>0.9860597682702975</v>
+        <v>0.9860597682702982</v>
       </c>
       <c r="F3">
         <v>1.012214149281434</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045716283753065</v>
+        <v>1.045716283753064</v>
       </c>
       <c r="J3">
         <v>1.019616242485475</v>
@@ -483,7 +483,7 @@
         <v>1.028679633831988</v>
       </c>
       <c r="L3">
-        <v>0.9968741800693531</v>
+        <v>0.9968741800693537</v>
       </c>
       <c r="M3">
         <v>1.022693097191093</v>
@@ -503,10 +503,10 @@
         <v>1.021983916970523</v>
       </c>
       <c r="E4">
-        <v>0.9895672602628258</v>
+        <v>0.9895672602628263</v>
       </c>
       <c r="F4">
-        <v>1.016470767957831</v>
+        <v>1.016470767957832</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>1.023175621038946</v>
       </c>
       <c r="K4">
-        <v>1.031824062671276</v>
+        <v>1.031824062671275</v>
       </c>
       <c r="L4">
-        <v>0.9997932517580053</v>
+        <v>0.9997932517580057</v>
       </c>
       <c r="M4">
         <v>1.02637438792757</v>
@@ -541,10 +541,10 @@
         <v>1.023516069518483</v>
       </c>
       <c r="E5">
-        <v>0.9910208162032834</v>
+        <v>0.9910208162032833</v>
       </c>
       <c r="F5">
-        <v>1.018231473917037</v>
+        <v>1.018231473917036</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00616907274811</v>
+        <v>1.006169072748109</v>
       </c>
       <c r="D6">
         <v>1.023771787885042</v>
       </c>
       <c r="E6">
-        <v>0.9912636759974781</v>
+        <v>0.9912636759974778</v>
       </c>
       <c r="F6">
-        <v>1.018525462927563</v>
+        <v>1.018525462927562</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.04817389163384</v>
       </c>
       <c r="J6">
-        <v>1.024889563294542</v>
+        <v>1.024889563294541</v>
       </c>
       <c r="K6">
-        <v>1.033337366002631</v>
+        <v>1.03333736600263</v>
       </c>
       <c r="L6">
-        <v>1.00120326270435</v>
+        <v>1.001203262704349</v>
       </c>
       <c r="M6">
         <v>1.028149410951959</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003896862511323</v>
+        <v>1.003896862511324</v>
       </c>
       <c r="D7">
         <v>1.022004493531096</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.994095580434186</v>
+        <v>0.9940955804341848</v>
       </c>
       <c r="D8">
-        <v>1.014384973973398</v>
+        <v>1.014384973973397</v>
       </c>
       <c r="E8">
-        <v>0.9823962513326898</v>
+        <v>0.9823962513326888</v>
       </c>
       <c r="F8">
-        <v>1.007756234726131</v>
+        <v>1.00775623472613</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043959972057432</v>
       </c>
       <c r="J8">
-        <v>1.01587645482564</v>
+        <v>1.015876454825639</v>
       </c>
       <c r="K8">
-        <v>1.025373554342567</v>
+        <v>1.025373554342566</v>
       </c>
       <c r="L8">
-        <v>0.9938200773434542</v>
+        <v>0.9938200773434536</v>
       </c>
       <c r="M8">
-        <v>1.018832157959746</v>
+        <v>1.018832157959745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9755248561024448</v>
+        <v>0.9755248561024449</v>
       </c>
       <c r="D9">
-        <v>0.9999722987858199</v>
+        <v>0.9999722987858201</v>
       </c>
       <c r="E9">
-        <v>0.9689581349982346</v>
+        <v>0.9689581349982348</v>
       </c>
       <c r="F9">
-        <v>0.991300276723905</v>
+        <v>0.9913002767239054</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>1.013065825438827</v>
       </c>
       <c r="L9">
-        <v>0.9825757572725597</v>
+        <v>0.9825757572725601</v>
       </c>
       <c r="M9">
-        <v>1.004536095663041</v>
+        <v>1.004536095663042</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620998498485559</v>
+        <v>0.9620998498485553</v>
       </c>
       <c r="D10">
-        <v>0.9895801762563577</v>
+        <v>0.9895801762563574</v>
       </c>
       <c r="E10">
-        <v>0.9593918432194299</v>
+        <v>0.9593918432194297</v>
       </c>
       <c r="F10">
-        <v>0.9794855207130049</v>
+        <v>0.9794855207130042</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032493634989062</v>
       </c>
       <c r="J10">
-        <v>0.9919022750941258</v>
+        <v>0.9919022750941252</v>
       </c>
       <c r="K10">
         <v>1.004140147367501</v>
       </c>
       <c r="L10">
-        <v>0.9745351526031062</v>
+        <v>0.9745351526031061</v>
       </c>
       <c r="M10">
-        <v>0.9942353194185788</v>
+        <v>0.9942353194185782</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9559934675283017</v>
+        <v>0.9559934675283018</v>
       </c>
       <c r="D11">
         <v>0.9848624376491996</v>
       </c>
       <c r="E11">
-        <v>0.9550814975853251</v>
+        <v>0.9550814975853255</v>
       </c>
       <c r="F11">
         <v>0.9741343318274309</v>
@@ -781,13 +781,13 @@
         <v>1.030269305030493</v>
       </c>
       <c r="J11">
-        <v>0.9873189084894639</v>
+        <v>0.987318908489464</v>
       </c>
       <c r="K11">
         <v>1.000075586048666</v>
       </c>
       <c r="L11">
-        <v>0.970903316279123</v>
+        <v>0.9709033162791234</v>
       </c>
       <c r="M11">
         <v>0.9895610968541225</v>
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9536766748531792</v>
+        <v>0.9536766748531783</v>
       </c>
       <c r="D12">
-        <v>0.9830741407889465</v>
+        <v>0.9830741407889459</v>
       </c>
       <c r="E12">
-        <v>0.9534528314344222</v>
+        <v>0.9534528314344221</v>
       </c>
       <c r="F12">
-        <v>0.9721078207061207</v>
+        <v>0.9721078207061197</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029423099835575</v>
       </c>
       <c r="J12">
-        <v>0.9855796753859442</v>
+        <v>0.9855796753859434</v>
       </c>
       <c r="K12">
-        <v>0.9985329600424563</v>
+        <v>0.9985329600424556</v>
       </c>
       <c r="L12">
-        <v>0.9695296461347888</v>
+        <v>0.9695296461347885</v>
       </c>
       <c r="M12">
-        <v>0.9877896370013093</v>
+        <v>0.9877896370013086</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.954175914797872</v>
+        <v>0.9541759147978714</v>
       </c>
       <c r="D13">
-        <v>0.9834594180058875</v>
+        <v>0.9834594180058868</v>
       </c>
       <c r="E13">
-        <v>0.9538034766684589</v>
+        <v>0.9538034766684592</v>
       </c>
       <c r="F13">
-        <v>0.9725443332114344</v>
+        <v>0.9725443332114342</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029605546865658</v>
+        <v>1.029605546865657</v>
       </c>
       <c r="J13">
-        <v>0.9859544683823824</v>
+        <v>0.9859544683823818</v>
       </c>
       <c r="K13">
-        <v>0.9988653963547858</v>
+        <v>0.998865396354785</v>
       </c>
       <c r="L13">
-        <v>0.9698254546762235</v>
+        <v>0.9698254546762236</v>
       </c>
       <c r="M13">
-        <v>0.9881712707430838</v>
+        <v>0.9881712707430836</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9558029810375411</v>
+        <v>0.9558029810375407</v>
       </c>
       <c r="D14">
-        <v>0.9847153692252718</v>
+        <v>0.9847153692252713</v>
       </c>
       <c r="E14">
-        <v>0.9549474495677197</v>
+        <v>0.9549474495677196</v>
       </c>
       <c r="F14">
-        <v>0.9739676340409116</v>
+        <v>0.9739676340409118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030199775430748</v>
+        <v>1.030199775430747</v>
       </c>
       <c r="J14">
-        <v>0.9871759136125351</v>
+        <v>0.9871759136125345</v>
       </c>
       <c r="K14">
-        <v>0.9999487606085047</v>
+        <v>0.9999487606085045</v>
       </c>
       <c r="L14">
-        <v>0.970790284024603</v>
+        <v>0.9707902840246029</v>
       </c>
       <c r="M14">
-        <v>0.9894154059449053</v>
+        <v>0.9894154059449055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9567988815519489</v>
+        <v>0.9567988815519479</v>
       </c>
       <c r="D15">
-        <v>0.9854843397530079</v>
+        <v>0.9854843397530071</v>
       </c>
       <c r="E15">
-        <v>0.9556485542969525</v>
+        <v>0.9556485542969515</v>
       </c>
       <c r="F15">
-        <v>0.9748393172313284</v>
+        <v>0.9748393172313274</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030563197995006</v>
       </c>
       <c r="J15">
-        <v>0.9879235083015172</v>
+        <v>0.9879235083015163</v>
       </c>
       <c r="K15">
         <v>1.000611809230638</v>
       </c>
       <c r="L15">
-        <v>0.9713814147233746</v>
+        <v>0.9713814147233739</v>
       </c>
       <c r="M15">
-        <v>0.9901771880266533</v>
+        <v>0.9901771880266523</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9624985578009565</v>
+        <v>0.9624985578009554</v>
       </c>
       <c r="D16">
-        <v>0.9898884246866418</v>
+        <v>0.9898884246866406</v>
       </c>
       <c r="E16">
-        <v>0.9596741709343344</v>
+        <v>0.9596741709343335</v>
       </c>
       <c r="F16">
-        <v>0.9798354167210434</v>
+        <v>0.9798354167210421</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03263854720457</v>
+        <v>1.032638547204569</v>
       </c>
       <c r="J16">
-        <v>0.992201492467874</v>
+        <v>0.9922014924678729</v>
       </c>
       <c r="K16">
-        <v>1.00440545613811</v>
+        <v>1.004405456138109</v>
       </c>
       <c r="L16">
-        <v>0.974772849808027</v>
+        <v>0.9747728498080261</v>
       </c>
       <c r="M16">
-        <v>0.9945407696345563</v>
+        <v>0.9945407696345553</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9659922842800058</v>
+        <v>0.9659922842800053</v>
       </c>
       <c r="D17">
-        <v>0.9925905447324168</v>
+        <v>0.9925905447324164</v>
       </c>
       <c r="E17">
-        <v>0.9621527623205937</v>
+        <v>0.9621527623205932</v>
       </c>
       <c r="F17">
-        <v>0.9829040203243901</v>
+        <v>0.9829040203243897</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033906550134361</v>
       </c>
       <c r="J17">
-        <v>0.9948231107330062</v>
+        <v>0.9948231107330057</v>
       </c>
       <c r="K17">
         <v>1.006729747876085</v>
       </c>
       <c r="L17">
-        <v>0.9768586104355468</v>
+        <v>0.9768586104355466</v>
       </c>
       <c r="M17">
-        <v>0.9972185944055462</v>
+        <v>0.9972185944055458</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.968002159523877</v>
+        <v>0.9680021595238768</v>
       </c>
       <c r="D18">
-        <v>0.9941458603712435</v>
+        <v>0.9941458603712432</v>
       </c>
       <c r="E18">
-        <v>0.963582440350004</v>
+        <v>0.9635824403500035</v>
       </c>
       <c r="F18">
-        <v>0.984671439124344</v>
+        <v>0.9846714391243435</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034634479173671</v>
       </c>
       <c r="J18">
-        <v>0.9963309956104393</v>
+        <v>0.9963309956104391</v>
       </c>
       <c r="K18">
         <v>1.008066414846641</v>
       </c>
       <c r="L18">
-        <v>0.9780608610532162</v>
+        <v>0.978060861053216</v>
       </c>
       <c r="M18">
-        <v>0.9987601153629688</v>
+        <v>0.9987601153629684</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.968682860990453</v>
+        <v>0.9686828609904532</v>
       </c>
       <c r="D19">
-        <v>0.9946727469172769</v>
+        <v>0.9946727469172773</v>
       </c>
       <c r="E19">
         <v>0.9640672693068519</v>
       </c>
       <c r="F19">
-        <v>0.98527037431086</v>
+        <v>0.9852703743108603</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034880749435825</v>
       </c>
       <c r="J19">
-        <v>0.9968416314816959</v>
+        <v>0.9968416314816965</v>
       </c>
       <c r="K19">
         <v>1.008519032681287</v>
       </c>
       <c r="L19">
-        <v>0.9784684241779832</v>
+        <v>0.9784684241779834</v>
       </c>
       <c r="M19">
-        <v>0.9992823599814674</v>
+        <v>0.9992823599814679</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9656203629627883</v>
+        <v>0.9656203629627885</v>
       </c>
       <c r="D20">
-        <v>0.9923028043489724</v>
+        <v>0.9923028043489727</v>
       </c>
       <c r="E20">
-        <v>0.9618885083406147</v>
+        <v>0.9618885083406151</v>
       </c>
       <c r="F20">
-        <v>0.9825771335444987</v>
+        <v>0.9825771335444993</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033771724088789</v>
       </c>
       <c r="J20">
-        <v>0.9945440572422378</v>
+        <v>0.994544057242238</v>
       </c>
       <c r="K20">
         <v>1.006482363563528</v>
       </c>
       <c r="L20">
-        <v>0.9766363252851694</v>
+        <v>0.9766363252851697</v>
       </c>
       <c r="M20">
-        <v>0.996933421232258</v>
+        <v>0.9969334212322585</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9553252323395652</v>
+        <v>0.9553252323395647</v>
       </c>
       <c r="D21">
-        <v>0.9843465422641102</v>
+        <v>0.98434654226411</v>
       </c>
       <c r="E21">
         <v>0.9546113608068366</v>
       </c>
       <c r="F21">
-        <v>0.9735496100858213</v>
+        <v>0.973549610085821</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030025355926513</v>
       </c>
       <c r="J21">
-        <v>0.9868172720797924</v>
+        <v>0.9868172720797918</v>
       </c>
       <c r="K21">
-        <v>0.9996306691958509</v>
+        <v>0.9996306691958504</v>
       </c>
       <c r="L21">
-        <v>0.9705068642234091</v>
+        <v>0.970506864223409</v>
       </c>
       <c r="M21">
-        <v>0.9890500392213483</v>
+        <v>0.989050039221348</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9485682650629703</v>
+        <v>0.9485682650629692</v>
       </c>
       <c r="D22">
-        <v>0.9791343853404924</v>
+        <v>0.979134385340491</v>
       </c>
       <c r="E22">
-        <v>0.9498747664010261</v>
+        <v>0.9498747664010259</v>
       </c>
       <c r="F22">
-        <v>0.9676468207518387</v>
+        <v>0.9676468207518375</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027553229612668</v>
+        <v>1.027553229612667</v>
       </c>
       <c r="J22">
-        <v>0.9817444280252494</v>
+        <v>0.9817444280252484</v>
       </c>
       <c r="K22">
-        <v>0.9951308447705023</v>
+        <v>0.9951308447705012</v>
       </c>
       <c r="L22">
-        <v>0.9665092004649465</v>
+        <v>0.966509200464946</v>
       </c>
       <c r="M22">
-        <v>0.9838876502164768</v>
+        <v>0.9838876502164756</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9521788825092192</v>
+        <v>0.9521788825092182</v>
       </c>
       <c r="D23">
-        <v>0.9819185154976908</v>
+        <v>0.9819185154976902</v>
       </c>
       <c r="E23">
         <v>0.9524018742350865</v>
       </c>
       <c r="F23">
-        <v>0.9707987990915902</v>
+        <v>0.9707987990915898</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028875410338311</v>
+        <v>1.02887541033831</v>
       </c>
       <c r="J23">
-        <v>0.9844552139842482</v>
+        <v>0.9844552139842473</v>
       </c>
       <c r="K23">
-        <v>0.9975355444445331</v>
+        <v>0.9975355444445323</v>
       </c>
       <c r="L23">
-        <v>0.9686428406432328</v>
+        <v>0.9686428406432327</v>
       </c>
       <c r="M23">
-        <v>0.9866449933356698</v>
+        <v>0.9866449933356694</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9657885042536232</v>
+        <v>0.9657885042536218</v>
       </c>
       <c r="D24">
-        <v>0.9924328858398119</v>
+        <v>0.9924328858398109</v>
       </c>
       <c r="E24">
-        <v>0.9620079627409742</v>
+        <v>0.9620079627409738</v>
       </c>
       <c r="F24">
-        <v>0.9827249087159802</v>
+        <v>0.9827249087159795</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033832682136295</v>
       </c>
       <c r="J24">
-        <v>0.994670214962211</v>
+        <v>0.9946702149622099</v>
       </c>
       <c r="K24">
-        <v>1.006594204553433</v>
+        <v>1.006594204553432</v>
       </c>
       <c r="L24">
-        <v>0.9767368105324233</v>
+        <v>0.9767368105324228</v>
       </c>
       <c r="M24">
-        <v>0.9970623415540582</v>
+        <v>0.9970623415540574</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,22 +1295,22 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9804961407688019</v>
+        <v>0.9804961407688024</v>
       </c>
       <c r="D25">
-        <v>1.003826721650855</v>
+        <v>1.003826721650856</v>
       </c>
       <c r="E25">
-        <v>0.9725319622684863</v>
+        <v>0.9725319622684864</v>
       </c>
       <c r="F25">
-        <v>0.9956926361311279</v>
+        <v>0.995692636131128</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039131312228509</v>
+        <v>1.03913131222851</v>
       </c>
       <c r="J25">
         <v>1.005698199988432</v>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9914897135978943</v>
+        <v>0.9914897135978946</v>
       </c>
       <c r="D2">
-        <v>1.012360433446232</v>
+        <v>1.012360433446233</v>
       </c>
       <c r="E2">
-        <v>0.9804960573420211</v>
+        <v>0.9804960573420212</v>
       </c>
       <c r="F2">
         <v>1.005439215611694</v>
@@ -445,7 +445,7 @@
         <v>1.023650212273536</v>
       </c>
       <c r="L2">
-        <v>0.9922339708592426</v>
+        <v>0.9922339708592427</v>
       </c>
       <c r="M2">
         <v>1.016823290084712</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9991010409028422</v>
+        <v>0.999101040902842</v>
       </c>
       <c r="D3">
         <v>1.018275369351127</v>
       </c>
       <c r="E3">
-        <v>0.9860597682702982</v>
+        <v>0.9860597682702975</v>
       </c>
       <c r="F3">
         <v>1.012214149281434</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045716283753064</v>
+        <v>1.045716283753065</v>
       </c>
       <c r="J3">
         <v>1.019616242485475</v>
@@ -483,7 +483,7 @@
         <v>1.028679633831988</v>
       </c>
       <c r="L3">
-        <v>0.9968741800693537</v>
+        <v>0.9968741800693531</v>
       </c>
       <c r="M3">
         <v>1.022693097191093</v>
@@ -503,10 +503,10 @@
         <v>1.021983916970523</v>
       </c>
       <c r="E4">
-        <v>0.9895672602628263</v>
+        <v>0.9895672602628258</v>
       </c>
       <c r="F4">
-        <v>1.016470767957832</v>
+        <v>1.016470767957831</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>1.023175621038946</v>
       </c>
       <c r="K4">
-        <v>1.031824062671275</v>
+        <v>1.031824062671276</v>
       </c>
       <c r="L4">
-        <v>0.9997932517580057</v>
+        <v>0.9997932517580053</v>
       </c>
       <c r="M4">
         <v>1.02637438792757</v>
@@ -541,10 +541,10 @@
         <v>1.023516069518483</v>
       </c>
       <c r="E5">
-        <v>0.9910208162032833</v>
+        <v>0.9910208162032834</v>
       </c>
       <c r="F5">
-        <v>1.018231473917036</v>
+        <v>1.018231473917037</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006169072748109</v>
+        <v>1.00616907274811</v>
       </c>
       <c r="D6">
         <v>1.023771787885042</v>
       </c>
       <c r="E6">
-        <v>0.9912636759974778</v>
+        <v>0.9912636759974781</v>
       </c>
       <c r="F6">
-        <v>1.018525462927562</v>
+        <v>1.018525462927563</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.04817389163384</v>
       </c>
       <c r="J6">
-        <v>1.024889563294541</v>
+        <v>1.024889563294542</v>
       </c>
       <c r="K6">
-        <v>1.03333736600263</v>
+        <v>1.033337366002631</v>
       </c>
       <c r="L6">
-        <v>1.001203262704349</v>
+        <v>1.00120326270435</v>
       </c>
       <c r="M6">
         <v>1.028149410951959</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003896862511324</v>
+        <v>1.003896862511323</v>
       </c>
       <c r="D7">
         <v>1.022004493531096</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9940955804341848</v>
+        <v>0.994095580434186</v>
       </c>
       <c r="D8">
-        <v>1.014384973973397</v>
+        <v>1.014384973973398</v>
       </c>
       <c r="E8">
-        <v>0.9823962513326888</v>
+        <v>0.9823962513326898</v>
       </c>
       <c r="F8">
-        <v>1.00775623472613</v>
+        <v>1.007756234726131</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043959972057432</v>
       </c>
       <c r="J8">
-        <v>1.015876454825639</v>
+        <v>1.01587645482564</v>
       </c>
       <c r="K8">
-        <v>1.025373554342566</v>
+        <v>1.025373554342567</v>
       </c>
       <c r="L8">
-        <v>0.9938200773434536</v>
+        <v>0.9938200773434542</v>
       </c>
       <c r="M8">
-        <v>1.018832157959745</v>
+        <v>1.018832157959746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9755248561024449</v>
+        <v>0.9755248561024448</v>
       </c>
       <c r="D9">
-        <v>0.9999722987858201</v>
+        <v>0.9999722987858199</v>
       </c>
       <c r="E9">
-        <v>0.9689581349982348</v>
+        <v>0.9689581349982346</v>
       </c>
       <c r="F9">
-        <v>0.9913002767239054</v>
+        <v>0.991300276723905</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>1.013065825438827</v>
       </c>
       <c r="L9">
-        <v>0.9825757572725601</v>
+        <v>0.9825757572725597</v>
       </c>
       <c r="M9">
-        <v>1.004536095663042</v>
+        <v>1.004536095663041</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620998498485553</v>
+        <v>0.9620998498485559</v>
       </c>
       <c r="D10">
-        <v>0.9895801762563574</v>
+        <v>0.9895801762563577</v>
       </c>
       <c r="E10">
-        <v>0.9593918432194297</v>
+        <v>0.9593918432194299</v>
       </c>
       <c r="F10">
-        <v>0.9794855207130042</v>
+        <v>0.9794855207130049</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032493634989062</v>
       </c>
       <c r="J10">
-        <v>0.9919022750941252</v>
+        <v>0.9919022750941258</v>
       </c>
       <c r="K10">
         <v>1.004140147367501</v>
       </c>
       <c r="L10">
-        <v>0.9745351526031061</v>
+        <v>0.9745351526031062</v>
       </c>
       <c r="M10">
-        <v>0.9942353194185782</v>
+        <v>0.9942353194185788</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9559934675283018</v>
+        <v>0.9559934675283017</v>
       </c>
       <c r="D11">
         <v>0.9848624376491996</v>
       </c>
       <c r="E11">
-        <v>0.9550814975853255</v>
+        <v>0.9550814975853251</v>
       </c>
       <c r="F11">
         <v>0.9741343318274309</v>
@@ -781,13 +781,13 @@
         <v>1.030269305030493</v>
       </c>
       <c r="J11">
-        <v>0.987318908489464</v>
+        <v>0.9873189084894639</v>
       </c>
       <c r="K11">
         <v>1.000075586048666</v>
       </c>
       <c r="L11">
-        <v>0.9709033162791234</v>
+        <v>0.970903316279123</v>
       </c>
       <c r="M11">
         <v>0.9895610968541225</v>
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9536766748531783</v>
+        <v>0.9536766748531792</v>
       </c>
       <c r="D12">
-        <v>0.9830741407889459</v>
+        <v>0.9830741407889465</v>
       </c>
       <c r="E12">
-        <v>0.9534528314344221</v>
+        <v>0.9534528314344222</v>
       </c>
       <c r="F12">
-        <v>0.9721078207061197</v>
+        <v>0.9721078207061207</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029423099835575</v>
       </c>
       <c r="J12">
-        <v>0.9855796753859434</v>
+        <v>0.9855796753859442</v>
       </c>
       <c r="K12">
-        <v>0.9985329600424556</v>
+        <v>0.9985329600424563</v>
       </c>
       <c r="L12">
-        <v>0.9695296461347885</v>
+        <v>0.9695296461347888</v>
       </c>
       <c r="M12">
-        <v>0.9877896370013086</v>
+        <v>0.9877896370013093</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9541759147978714</v>
+        <v>0.954175914797872</v>
       </c>
       <c r="D13">
-        <v>0.9834594180058868</v>
+        <v>0.9834594180058875</v>
       </c>
       <c r="E13">
-        <v>0.9538034766684592</v>
+        <v>0.9538034766684589</v>
       </c>
       <c r="F13">
-        <v>0.9725443332114342</v>
+        <v>0.9725443332114344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029605546865657</v>
+        <v>1.029605546865658</v>
       </c>
       <c r="J13">
-        <v>0.9859544683823818</v>
+        <v>0.9859544683823824</v>
       </c>
       <c r="K13">
-        <v>0.998865396354785</v>
+        <v>0.9988653963547858</v>
       </c>
       <c r="L13">
-        <v>0.9698254546762236</v>
+        <v>0.9698254546762235</v>
       </c>
       <c r="M13">
-        <v>0.9881712707430836</v>
+        <v>0.9881712707430838</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9558029810375407</v>
+        <v>0.9558029810375411</v>
       </c>
       <c r="D14">
-        <v>0.9847153692252713</v>
+        <v>0.9847153692252718</v>
       </c>
       <c r="E14">
-        <v>0.9549474495677196</v>
+        <v>0.9549474495677197</v>
       </c>
       <c r="F14">
-        <v>0.9739676340409118</v>
+        <v>0.9739676340409116</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030199775430747</v>
+        <v>1.030199775430748</v>
       </c>
       <c r="J14">
-        <v>0.9871759136125345</v>
+        <v>0.9871759136125351</v>
       </c>
       <c r="K14">
-        <v>0.9999487606085045</v>
+        <v>0.9999487606085047</v>
       </c>
       <c r="L14">
-        <v>0.9707902840246029</v>
+        <v>0.970790284024603</v>
       </c>
       <c r="M14">
-        <v>0.9894154059449055</v>
+        <v>0.9894154059449053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9567988815519479</v>
+        <v>0.9567988815519489</v>
       </c>
       <c r="D15">
-        <v>0.9854843397530071</v>
+        <v>0.9854843397530079</v>
       </c>
       <c r="E15">
-        <v>0.9556485542969515</v>
+        <v>0.9556485542969525</v>
       </c>
       <c r="F15">
-        <v>0.9748393172313274</v>
+        <v>0.9748393172313284</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030563197995006</v>
       </c>
       <c r="J15">
-        <v>0.9879235083015163</v>
+        <v>0.9879235083015172</v>
       </c>
       <c r="K15">
         <v>1.000611809230638</v>
       </c>
       <c r="L15">
-        <v>0.9713814147233739</v>
+        <v>0.9713814147233746</v>
       </c>
       <c r="M15">
-        <v>0.9901771880266523</v>
+        <v>0.9901771880266533</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9624985578009554</v>
+        <v>0.9624985578009565</v>
       </c>
       <c r="D16">
-        <v>0.9898884246866406</v>
+        <v>0.9898884246866418</v>
       </c>
       <c r="E16">
-        <v>0.9596741709343335</v>
+        <v>0.9596741709343344</v>
       </c>
       <c r="F16">
-        <v>0.9798354167210421</v>
+        <v>0.9798354167210434</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032638547204569</v>
+        <v>1.03263854720457</v>
       </c>
       <c r="J16">
-        <v>0.9922014924678729</v>
+        <v>0.992201492467874</v>
       </c>
       <c r="K16">
-        <v>1.004405456138109</v>
+        <v>1.00440545613811</v>
       </c>
       <c r="L16">
-        <v>0.9747728498080261</v>
+        <v>0.974772849808027</v>
       </c>
       <c r="M16">
-        <v>0.9945407696345553</v>
+        <v>0.9945407696345563</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9659922842800053</v>
+        <v>0.9659922842800058</v>
       </c>
       <c r="D17">
-        <v>0.9925905447324164</v>
+        <v>0.9925905447324168</v>
       </c>
       <c r="E17">
-        <v>0.9621527623205932</v>
+        <v>0.9621527623205937</v>
       </c>
       <c r="F17">
-        <v>0.9829040203243897</v>
+        <v>0.9829040203243901</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033906550134361</v>
       </c>
       <c r="J17">
-        <v>0.9948231107330057</v>
+        <v>0.9948231107330062</v>
       </c>
       <c r="K17">
         <v>1.006729747876085</v>
       </c>
       <c r="L17">
-        <v>0.9768586104355466</v>
+        <v>0.9768586104355468</v>
       </c>
       <c r="M17">
-        <v>0.9972185944055458</v>
+        <v>0.9972185944055462</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9680021595238768</v>
+        <v>0.968002159523877</v>
       </c>
       <c r="D18">
-        <v>0.9941458603712432</v>
+        <v>0.9941458603712435</v>
       </c>
       <c r="E18">
-        <v>0.9635824403500035</v>
+        <v>0.963582440350004</v>
       </c>
       <c r="F18">
-        <v>0.9846714391243435</v>
+        <v>0.984671439124344</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034634479173671</v>
       </c>
       <c r="J18">
-        <v>0.9963309956104391</v>
+        <v>0.9963309956104393</v>
       </c>
       <c r="K18">
         <v>1.008066414846641</v>
       </c>
       <c r="L18">
-        <v>0.978060861053216</v>
+        <v>0.9780608610532162</v>
       </c>
       <c r="M18">
-        <v>0.9987601153629684</v>
+        <v>0.9987601153629688</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9686828609904532</v>
+        <v>0.968682860990453</v>
       </c>
       <c r="D19">
-        <v>0.9946727469172773</v>
+        <v>0.9946727469172769</v>
       </c>
       <c r="E19">
         <v>0.9640672693068519</v>
       </c>
       <c r="F19">
-        <v>0.9852703743108603</v>
+        <v>0.98527037431086</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034880749435825</v>
       </c>
       <c r="J19">
-        <v>0.9968416314816965</v>
+        <v>0.9968416314816959</v>
       </c>
       <c r="K19">
         <v>1.008519032681287</v>
       </c>
       <c r="L19">
-        <v>0.9784684241779834</v>
+        <v>0.9784684241779832</v>
       </c>
       <c r="M19">
-        <v>0.9992823599814679</v>
+        <v>0.9992823599814674</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9656203629627885</v>
+        <v>0.9656203629627883</v>
       </c>
       <c r="D20">
-        <v>0.9923028043489727</v>
+        <v>0.9923028043489724</v>
       </c>
       <c r="E20">
-        <v>0.9618885083406151</v>
+        <v>0.9618885083406147</v>
       </c>
       <c r="F20">
-        <v>0.9825771335444993</v>
+        <v>0.9825771335444987</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033771724088789</v>
       </c>
       <c r="J20">
-        <v>0.994544057242238</v>
+        <v>0.9945440572422378</v>
       </c>
       <c r="K20">
         <v>1.006482363563528</v>
       </c>
       <c r="L20">
-        <v>0.9766363252851697</v>
+        <v>0.9766363252851694</v>
       </c>
       <c r="M20">
-        <v>0.9969334212322585</v>
+        <v>0.996933421232258</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9553252323395647</v>
+        <v>0.9553252323395652</v>
       </c>
       <c r="D21">
-        <v>0.98434654226411</v>
+        <v>0.9843465422641102</v>
       </c>
       <c r="E21">
         <v>0.9546113608068366</v>
       </c>
       <c r="F21">
-        <v>0.973549610085821</v>
+        <v>0.9735496100858213</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030025355926513</v>
       </c>
       <c r="J21">
-        <v>0.9868172720797918</v>
+        <v>0.9868172720797924</v>
       </c>
       <c r="K21">
-        <v>0.9996306691958504</v>
+        <v>0.9996306691958509</v>
       </c>
       <c r="L21">
-        <v>0.970506864223409</v>
+        <v>0.9705068642234091</v>
       </c>
       <c r="M21">
-        <v>0.989050039221348</v>
+        <v>0.9890500392213483</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9485682650629692</v>
+        <v>0.9485682650629703</v>
       </c>
       <c r="D22">
-        <v>0.979134385340491</v>
+        <v>0.9791343853404924</v>
       </c>
       <c r="E22">
-        <v>0.9498747664010259</v>
+        <v>0.9498747664010261</v>
       </c>
       <c r="F22">
-        <v>0.9676468207518375</v>
+        <v>0.9676468207518387</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027553229612667</v>
+        <v>1.027553229612668</v>
       </c>
       <c r="J22">
-        <v>0.9817444280252484</v>
+        <v>0.9817444280252494</v>
       </c>
       <c r="K22">
-        <v>0.9951308447705012</v>
+        <v>0.9951308447705023</v>
       </c>
       <c r="L22">
-        <v>0.966509200464946</v>
+        <v>0.9665092004649465</v>
       </c>
       <c r="M22">
-        <v>0.9838876502164756</v>
+        <v>0.9838876502164768</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9521788825092182</v>
+        <v>0.9521788825092192</v>
       </c>
       <c r="D23">
-        <v>0.9819185154976902</v>
+        <v>0.9819185154976908</v>
       </c>
       <c r="E23">
         <v>0.9524018742350865</v>
       </c>
       <c r="F23">
-        <v>0.9707987990915898</v>
+        <v>0.9707987990915902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02887541033831</v>
+        <v>1.028875410338311</v>
       </c>
       <c r="J23">
-        <v>0.9844552139842473</v>
+        <v>0.9844552139842482</v>
       </c>
       <c r="K23">
-        <v>0.9975355444445323</v>
+        <v>0.9975355444445331</v>
       </c>
       <c r="L23">
-        <v>0.9686428406432327</v>
+        <v>0.9686428406432328</v>
       </c>
       <c r="M23">
-        <v>0.9866449933356694</v>
+        <v>0.9866449933356698</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9657885042536218</v>
+        <v>0.9657885042536232</v>
       </c>
       <c r="D24">
-        <v>0.9924328858398109</v>
+        <v>0.9924328858398119</v>
       </c>
       <c r="E24">
-        <v>0.9620079627409738</v>
+        <v>0.9620079627409742</v>
       </c>
       <c r="F24">
-        <v>0.9827249087159795</v>
+        <v>0.9827249087159802</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033832682136295</v>
       </c>
       <c r="J24">
-        <v>0.9946702149622099</v>
+        <v>0.994670214962211</v>
       </c>
       <c r="K24">
-        <v>1.006594204553432</v>
+        <v>1.006594204553433</v>
       </c>
       <c r="L24">
-        <v>0.9767368105324228</v>
+        <v>0.9767368105324233</v>
       </c>
       <c r="M24">
-        <v>0.9970623415540574</v>
+        <v>0.9970623415540582</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,22 +1295,22 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9804961407688024</v>
+        <v>0.9804961407688019</v>
       </c>
       <c r="D25">
-        <v>1.003826721650856</v>
+        <v>1.003826721650855</v>
       </c>
       <c r="E25">
-        <v>0.9725319622684864</v>
+        <v>0.9725319622684863</v>
       </c>
       <c r="F25">
-        <v>0.995692636131128</v>
+        <v>0.9956926361311279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03913131222851</v>
+        <v>1.039131312228509</v>
       </c>
       <c r="J25">
         <v>1.005698199988432</v>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9914897135978946</v>
+        <v>0.9915044345348472</v>
       </c>
       <c r="D2">
-        <v>1.012360433446233</v>
+        <v>1.012372324295008</v>
       </c>
       <c r="E2">
-        <v>0.9804960573420212</v>
+        <v>0.9805073052772182</v>
       </c>
       <c r="F2">
-        <v>1.005439215611694</v>
+        <v>1.005451126110359</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043040867638769</v>
+        <v>1.043047165973571</v>
       </c>
       <c r="J2">
-        <v>1.013927979917022</v>
+        <v>1.013942250074752</v>
       </c>
       <c r="K2">
-        <v>1.023650212273536</v>
+        <v>1.023661942514933</v>
       </c>
       <c r="L2">
-        <v>0.9922339708592427</v>
+        <v>0.9922450540849682</v>
       </c>
       <c r="M2">
-        <v>1.016823290084712</v>
+        <v>1.016835036908171</v>
+      </c>
+      <c r="N2">
+        <v>1.010537455755588</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.999101040902842</v>
+        <v>0.9991099942935326</v>
       </c>
       <c r="D3">
-        <v>1.018275369351127</v>
+        <v>1.018282654876546</v>
       </c>
       <c r="E3">
-        <v>0.9860597682702975</v>
+        <v>0.9860683692215328</v>
       </c>
       <c r="F3">
-        <v>1.012214149281434</v>
+        <v>1.012221828423451</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045716283753065</v>
+        <v>1.045720154780426</v>
       </c>
       <c r="J3">
-        <v>1.019616242485475</v>
+        <v>1.019624951202038</v>
       </c>
       <c r="K3">
-        <v>1.028679633831988</v>
+        <v>1.028686830253906</v>
       </c>
       <c r="L3">
-        <v>0.9968741800693531</v>
+        <v>0.9968826670329459</v>
       </c>
       <c r="M3">
-        <v>1.022693097191093</v>
+        <v>1.022700681009721</v>
+      </c>
+      <c r="N3">
+        <v>1.014535452112917</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003870405109245</v>
+        <v>1.0038758110181</v>
       </c>
       <c r="D4">
-        <v>1.021983916970523</v>
+        <v>1.021988363488178</v>
       </c>
       <c r="E4">
-        <v>0.9895672602628258</v>
+        <v>0.9895742489286157</v>
       </c>
       <c r="F4">
-        <v>1.016470767957831</v>
+        <v>1.01647584940336</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047377683366282</v>
+        <v>1.047380055713507</v>
       </c>
       <c r="J4">
-        <v>1.023175621038946</v>
+        <v>1.023180890101451</v>
       </c>
       <c r="K4">
-        <v>1.031824062671276</v>
+        <v>1.031828458336145</v>
       </c>
       <c r="L4">
-        <v>0.9997932517580053</v>
+        <v>0.9998001538488945</v>
       </c>
       <c r="M4">
-        <v>1.02637438792757</v>
+        <v>1.026379410477382</v>
+      </c>
+      <c r="N4">
+        <v>1.017034208011743</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005840317084664</v>
+        <v>1.005844271796531</v>
       </c>
       <c r="D5">
-        <v>1.023516069518483</v>
+        <v>1.023519353297482</v>
       </c>
       <c r="E5">
-        <v>0.9910208162032834</v>
+        <v>0.9910271491870757</v>
       </c>
       <c r="F5">
-        <v>1.018231473917037</v>
+        <v>1.018235493882129</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048060205950021</v>
+        <v>1.048061963957123</v>
       </c>
       <c r="J5">
-        <v>1.024644500737498</v>
+        <v>1.024648358582375</v>
       </c>
       <c r="K5">
-        <v>1.033121025968257</v>
+        <v>1.033124273264057</v>
       </c>
       <c r="L5">
-        <v>1.001001478943495</v>
+        <v>1.001007735728299</v>
       </c>
       <c r="M5">
-        <v>1.0278955184</v>
+        <v>1.027899493130026</v>
+      </c>
+      <c r="N5">
+        <v>1.01806466330059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00616907274811</v>
+        <v>1.006172786045279</v>
       </c>
       <c r="D6">
-        <v>1.023771787885042</v>
+        <v>1.02377487816032</v>
       </c>
       <c r="E6">
-        <v>0.9912636759974781</v>
+        <v>0.9912699001345229</v>
       </c>
       <c r="F6">
-        <v>1.018525462927563</v>
+        <v>1.018529306378868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04817389163384</v>
+        <v>1.048175547370538</v>
       </c>
       <c r="J6">
-        <v>1.024889563294542</v>
+        <v>1.024893186143784</v>
       </c>
       <c r="K6">
-        <v>1.033337366002631</v>
+        <v>1.033340422112659</v>
       </c>
       <c r="L6">
-        <v>1.00120326270435</v>
+        <v>1.001209412321138</v>
       </c>
       <c r="M6">
-        <v>1.028149410951959</v>
+        <v>1.028153211370607</v>
+      </c>
+      <c r="N6">
+        <v>1.018236537351985</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003896862511323</v>
+        <v>1.003902248876331</v>
       </c>
       <c r="D7">
-        <v>1.022004493531096</v>
+        <v>1.022008924394892</v>
       </c>
       <c r="E7">
-        <v>0.9895867637542279</v>
+        <v>0.9895937435742259</v>
       </c>
       <c r="F7">
-        <v>1.016494405553431</v>
+        <v>1.016499472698893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047386864885149</v>
+        <v>1.047389228963699</v>
       </c>
       <c r="J7">
-        <v>1.023195354310184</v>
+        <v>1.023200604383149</v>
       </c>
       <c r="K7">
-        <v>1.031841489093376</v>
+        <v>1.031845869302861</v>
       </c>
       <c r="L7">
-        <v>0.9998094693124686</v>
+        <v>0.9998163627005425</v>
       </c>
       <c r="M7">
-        <v>1.026394815529966</v>
+        <v>1.026399823968481</v>
+      </c>
+      <c r="N7">
+        <v>1.017048054296121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.994095580434186</v>
+        <v>0.9941083114264225</v>
       </c>
       <c r="D8">
-        <v>1.014384973973398</v>
+        <v>1.014395277350369</v>
       </c>
       <c r="E8">
-        <v>0.9823962513326898</v>
+        <v>0.9824065826617191</v>
       </c>
       <c r="F8">
-        <v>1.007756234726131</v>
+        <v>1.007766684255621</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043959972057432</v>
+        <v>1.043965434201147</v>
       </c>
       <c r="J8">
-        <v>1.01587645482564</v>
+        <v>1.015888810474906</v>
       </c>
       <c r="K8">
-        <v>1.025373554342567</v>
+        <v>1.025383723071408</v>
       </c>
       <c r="L8">
-        <v>0.9938200773434542</v>
+        <v>0.9938302623184627</v>
       </c>
       <c r="M8">
-        <v>1.018832157959746</v>
+        <v>1.018842468667312</v>
+      </c>
+      <c r="N8">
+        <v>1.011907554337842</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9755248561024448</v>
+        <v>0.9755521528157588</v>
       </c>
       <c r="D9">
-        <v>0.9999722987858199</v>
+        <v>0.9999941845044887</v>
       </c>
       <c r="E9">
-        <v>0.9689581349982346</v>
+        <v>0.968975242573594</v>
       </c>
       <c r="F9">
-        <v>0.991300276723905</v>
+        <v>0.9913214416235727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037348225195466</v>
+        <v>1.037359776912368</v>
       </c>
       <c r="J9">
-        <v>1.001972517714648</v>
+        <v>1.001998781070917</v>
       </c>
       <c r="K9">
-        <v>1.013065825438827</v>
+        <v>1.013087356061694</v>
       </c>
       <c r="L9">
-        <v>0.9825757572725597</v>
+        <v>0.9825925637667055</v>
       </c>
       <c r="M9">
-        <v>1.004536095663041</v>
+        <v>1.004556909382974</v>
+      </c>
+      <c r="N9">
+        <v>1.002118819039862</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620998498485559</v>
+        <v>0.9621383028987247</v>
       </c>
       <c r="D10">
-        <v>0.9895801762563577</v>
+        <v>0.9896108722076171</v>
       </c>
       <c r="E10">
-        <v>0.9593918432194299</v>
+        <v>0.9594142216041767</v>
       </c>
       <c r="F10">
-        <v>0.9794855207130049</v>
+        <v>0.979514919348569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032493634989062</v>
+        <v>1.032509802808183</v>
       </c>
       <c r="J10">
-        <v>0.9919022750941258</v>
+        <v>0.9919390252116937</v>
       </c>
       <c r="K10">
-        <v>1.004140147367501</v>
+        <v>1.004170273790773</v>
       </c>
       <c r="L10">
-        <v>0.9745351526031062</v>
+        <v>0.9745570806644038</v>
       </c>
       <c r="M10">
-        <v>0.9942353194185788</v>
+        <v>0.994264157788337</v>
+      </c>
+      <c r="N10">
+        <v>0.9950148029860377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9559934675283017</v>
+        <v>0.9560371961796493</v>
       </c>
       <c r="D11">
-        <v>0.9848624376491996</v>
+        <v>0.9848972805397359</v>
       </c>
       <c r="E11">
-        <v>0.9550814975853251</v>
+        <v>0.9551063846428369</v>
       </c>
       <c r="F11">
-        <v>0.9741343318274309</v>
+        <v>0.9741676294055117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030269305030493</v>
+        <v>1.030287641376359</v>
       </c>
       <c r="J11">
-        <v>0.9873189084894639</v>
+        <v>0.9873605680326617</v>
       </c>
       <c r="K11">
-        <v>1.000075586048666</v>
+        <v>1.000109745102929</v>
       </c>
       <c r="L11">
-        <v>0.970903316279123</v>
+        <v>0.9709276736921103</v>
       </c>
       <c r="M11">
-        <v>0.9895610968541225</v>
+        <v>0.9895937218294478</v>
+      </c>
+      <c r="N11">
+        <v>0.9917784781042411</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9536766748531792</v>
+        <v>0.9537224408102821</v>
       </c>
       <c r="D12">
-        <v>0.9830741407889465</v>
+        <v>0.9831105817541589</v>
       </c>
       <c r="E12">
-        <v>0.9534528314344222</v>
+        <v>0.9534786893724605</v>
       </c>
       <c r="F12">
-        <v>0.9721078207061207</v>
+        <v>0.9721426246407981</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029423099835575</v>
+        <v>1.029442271167773</v>
       </c>
       <c r="J12">
-        <v>0.9855796753859442</v>
+        <v>0.9856232223978155</v>
       </c>
       <c r="K12">
-        <v>0.9985329600424563</v>
+        <v>0.9985686709010847</v>
       </c>
       <c r="L12">
-        <v>0.9695296461347888</v>
+        <v>0.9695549423541643</v>
       </c>
       <c r="M12">
-        <v>0.9877896370013093</v>
+        <v>0.9878237227016161</v>
+      </c>
+      <c r="N12">
+        <v>0.9905499886921729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.954175914797872</v>
+        <v>0.9542212400302189</v>
       </c>
       <c r="D13">
-        <v>0.9834594180058875</v>
+        <v>0.9834955134241126</v>
       </c>
       <c r="E13">
-        <v>0.9538034766684589</v>
+        <v>0.9538291244907378</v>
       </c>
       <c r="F13">
-        <v>0.9725443332114344</v>
+        <v>0.9725788112519355</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029605546865658</v>
+        <v>1.029624537682686</v>
       </c>
       <c r="J13">
-        <v>0.9859544683823824</v>
+        <v>0.9859976074796317</v>
       </c>
       <c r="K13">
-        <v>0.9988653963547858</v>
+        <v>0.9989007717748135</v>
       </c>
       <c r="L13">
-        <v>0.9698254546762235</v>
+        <v>0.9698505477853548</v>
       </c>
       <c r="M13">
-        <v>0.9881712707430838</v>
+        <v>0.9882050405256597</v>
+      </c>
+      <c r="N13">
+        <v>0.9908147378468962</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9558029810375411</v>
+        <v>0.955846876437027</v>
       </c>
       <c r="D14">
-        <v>0.9847153692252718</v>
+        <v>0.9847503429849254</v>
       </c>
       <c r="E14">
-        <v>0.9549474495677197</v>
+        <v>0.9549724160493318</v>
       </c>
       <c r="F14">
-        <v>0.9739676340409116</v>
+        <v>0.9740010548974707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030199775430748</v>
+        <v>1.030218180169122</v>
       </c>
       <c r="J14">
-        <v>0.9871759136125351</v>
+        <v>0.9872177278159392</v>
       </c>
       <c r="K14">
-        <v>0.9999487606085047</v>
+        <v>0.9999830467887512</v>
       </c>
       <c r="L14">
-        <v>0.970790284024603</v>
+        <v>0.9708147182663118</v>
       </c>
       <c r="M14">
-        <v>0.9894154059449053</v>
+        <v>0.9894481505105716</v>
+      </c>
+      <c r="N14">
+        <v>0.9916774832792349</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9567988815519489</v>
+        <v>0.9568419066450629</v>
       </c>
       <c r="D15">
-        <v>0.9854843397530079</v>
+        <v>0.9855186303303473</v>
       </c>
       <c r="E15">
-        <v>0.9556485542969525</v>
+        <v>0.9556731063235453</v>
       </c>
       <c r="F15">
-        <v>0.9748393172313284</v>
+        <v>0.9748720946887723</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030563197995006</v>
+        <v>1.030581245672896</v>
       </c>
       <c r="J15">
-        <v>0.9879235083015172</v>
+        <v>0.9879645149430962</v>
       </c>
       <c r="K15">
-        <v>1.000611809230638</v>
+        <v>1.000645431678181</v>
       </c>
       <c r="L15">
-        <v>0.9713814147233746</v>
+        <v>0.9714054479971909</v>
       </c>
       <c r="M15">
-        <v>0.9901771880266533</v>
+        <v>0.9902093083505824</v>
+      </c>
+      <c r="N15">
+        <v>0.9922054800280153</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9624985578009565</v>
+        <v>0.9625366709790056</v>
       </c>
       <c r="D16">
-        <v>0.9898884246866418</v>
+        <v>0.9899188530493881</v>
       </c>
       <c r="E16">
-        <v>0.9596741709343344</v>
+        <v>0.9596963880047142</v>
       </c>
       <c r="F16">
-        <v>0.9798354167210434</v>
+        <v>0.9798645642733158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03263854720457</v>
+        <v>1.032654575005687</v>
       </c>
       <c r="J16">
-        <v>0.992201492467874</v>
+        <v>0.9922379252186506</v>
       </c>
       <c r="K16">
-        <v>1.00440545613811</v>
+        <v>1.004435322059623</v>
       </c>
       <c r="L16">
-        <v>0.974772849808027</v>
+        <v>0.9747946214770041</v>
       </c>
       <c r="M16">
-        <v>0.9945407696345563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.994569363866435</v>
+      </c>
+      <c r="N16">
+        <v>0.9952260220592601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9659922842800058</v>
+        <v>0.9660274424644202</v>
       </c>
       <c r="D17">
-        <v>0.9925905447324168</v>
+        <v>0.9926186443988296</v>
       </c>
       <c r="E17">
-        <v>0.9621527623205937</v>
+        <v>0.9621735786093353</v>
       </c>
       <c r="F17">
-        <v>0.9829040203243901</v>
+        <v>0.9829309854336686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033906550134361</v>
+        <v>1.0339213589508</v>
       </c>
       <c r="J17">
-        <v>0.9948231107330062</v>
+        <v>0.9948567786000229</v>
       </c>
       <c r="K17">
-        <v>1.006729747876085</v>
+        <v>1.006757345273879</v>
       </c>
       <c r="L17">
-        <v>0.9768586104355468</v>
+        <v>0.9768790231391854</v>
       </c>
       <c r="M17">
-        <v>0.9972185944055462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9972450650731446</v>
+      </c>
+      <c r="N17">
+        <v>0.997076301787067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.968002159523877</v>
+        <v>0.9680356361910748</v>
       </c>
       <c r="D18">
-        <v>0.9941458603712435</v>
+        <v>0.9941726331845152</v>
       </c>
       <c r="E18">
-        <v>0.963582440350004</v>
+        <v>0.963602461042208</v>
       </c>
       <c r="F18">
-        <v>0.984671439124344</v>
+        <v>0.9846971628323375</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034634479173671</v>
+        <v>1.0346485930455</v>
       </c>
       <c r="J18">
-        <v>0.9963309956104393</v>
+        <v>0.9963630856770248</v>
       </c>
       <c r="K18">
-        <v>1.008066414846641</v>
+        <v>1.008092718464082</v>
       </c>
       <c r="L18">
-        <v>0.9780608610532162</v>
+        <v>0.9780805011639548</v>
       </c>
       <c r="M18">
-        <v>0.9987601153629688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9987853769176842</v>
+      </c>
+      <c r="N18">
+        <v>0.998140249205642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.968682860990453</v>
+        <v>0.9687157711451769</v>
       </c>
       <c r="D19">
-        <v>0.9946727469172769</v>
+        <v>0.9946990724261987</v>
       </c>
       <c r="E19">
-        <v>0.9640672693068519</v>
+        <v>0.9640870222226061</v>
       </c>
       <c r="F19">
-        <v>0.98527037431086</v>
+        <v>0.9852956798719543</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034880749435825</v>
+        <v>1.034894628965726</v>
       </c>
       <c r="J19">
-        <v>0.9968416314816959</v>
+        <v>0.9968731892477072</v>
       </c>
       <c r="K19">
-        <v>1.008519032681287</v>
+        <v>1.00854489994382</v>
       </c>
       <c r="L19">
-        <v>0.9784684241779832</v>
+        <v>0.978487804131599</v>
       </c>
       <c r="M19">
-        <v>0.9992823599814674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9993072140672947</v>
+      </c>
+      <c r="N19">
+        <v>0.9985004991586039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9656203629627883</v>
+        <v>0.9656558337657005</v>
       </c>
       <c r="D20">
-        <v>0.9923028043489724</v>
+        <v>0.9923311505591044</v>
       </c>
       <c r="E20">
-        <v>0.9618885083406147</v>
+        <v>0.9619094726673331</v>
       </c>
       <c r="F20">
-        <v>0.9825771335444987</v>
+        <v>0.9826043294899527</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033771724088789</v>
+        <v>1.03378666200224</v>
       </c>
       <c r="J20">
-        <v>0.9945440572422378</v>
+        <v>0.9945780180879247</v>
       </c>
       <c r="K20">
-        <v>1.006482363563528</v>
+        <v>1.006510201262393</v>
       </c>
       <c r="L20">
-        <v>0.9766363252851694</v>
+        <v>0.9766568816864212</v>
       </c>
       <c r="M20">
-        <v>0.996933421232258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9969601166355374</v>
+      </c>
+      <c r="N20">
+        <v>0.9968793813446263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9553252323395652</v>
+        <v>0.9553695465453973</v>
       </c>
       <c r="D21">
-        <v>0.9843465422641102</v>
+        <v>0.9843818446603201</v>
       </c>
       <c r="E21">
-        <v>0.9546113608068366</v>
+        <v>0.9546365268030236</v>
       </c>
       <c r="F21">
-        <v>0.9735496100858213</v>
+        <v>0.9735833405802852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030025355926513</v>
+        <v>1.030043932400045</v>
       </c>
       <c r="J21">
-        <v>0.9868172720797924</v>
+        <v>0.9868594745909778</v>
       </c>
       <c r="K21">
-        <v>0.9996306691958509</v>
+        <v>0.9996652745766712</v>
       </c>
       <c r="L21">
-        <v>0.9705068642234091</v>
+        <v>0.9705314914375961</v>
       </c>
       <c r="M21">
-        <v>0.9890500392213483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.989083084124958</v>
+      </c>
+      <c r="N21">
+        <v>0.9914241744243671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9485682650629703</v>
+        <v>0.9486185962259296</v>
       </c>
       <c r="D22">
-        <v>0.9791343853404924</v>
+        <v>0.9791744003948418</v>
       </c>
       <c r="E22">
-        <v>0.9498747664010261</v>
+        <v>0.9499028033331769</v>
       </c>
       <c r="F22">
-        <v>0.9676468207518387</v>
+        <v>0.9676850012253988</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027553229612668</v>
+        <v>1.027574267065621</v>
       </c>
       <c r="J22">
-        <v>0.9817444280252494</v>
+        <v>0.9817921875738699</v>
       </c>
       <c r="K22">
-        <v>0.9951308447705023</v>
+        <v>0.9951700218512592</v>
       </c>
       <c r="L22">
-        <v>0.9665092004649465</v>
+        <v>0.9665366009716975</v>
       </c>
       <c r="M22">
-        <v>0.9838876502164768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9839250057402824</v>
+      </c>
+      <c r="N22">
+        <v>0.9878402848000162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9521788825092192</v>
+        <v>0.9522259764255606</v>
       </c>
       <c r="D23">
-        <v>0.9819185154976908</v>
+        <v>0.9819559971036351</v>
       </c>
       <c r="E23">
-        <v>0.9524018742350865</v>
+        <v>0.9524283655543917</v>
       </c>
       <c r="F23">
-        <v>0.9707987990915902</v>
+        <v>0.9708345850742089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028875410338311</v>
+        <v>1.028895125201717</v>
       </c>
       <c r="J23">
-        <v>0.9844552139842482</v>
+        <v>0.9844999887746898</v>
       </c>
       <c r="K23">
-        <v>0.9975355444445331</v>
+        <v>0.9975722651587128</v>
       </c>
       <c r="L23">
-        <v>0.9686428406432328</v>
+        <v>0.9686687489135639</v>
       </c>
       <c r="M23">
-        <v>0.9866449933356698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9866800306748265</v>
+      </c>
+      <c r="N23">
+        <v>0.9897556256571614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9657885042536232</v>
+        <v>0.9658238336684567</v>
       </c>
       <c r="D24">
-        <v>0.9924328858398119</v>
+        <v>0.9924611205508838</v>
       </c>
       <c r="E24">
-        <v>0.9620079627409742</v>
+        <v>0.9620288601097737</v>
       </c>
       <c r="F24">
-        <v>0.9827249087159802</v>
+        <v>0.9827520002595008</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033832682136295</v>
+        <v>1.033847561667003</v>
       </c>
       <c r="J24">
-        <v>0.994670214962211</v>
+        <v>0.9947040433161991</v>
       </c>
       <c r="K24">
-        <v>1.006594204553433</v>
+        <v>1.006621933580236</v>
       </c>
       <c r="L24">
-        <v>0.9767368105324233</v>
+        <v>0.9767573019412359</v>
       </c>
       <c r="M24">
-        <v>0.9970623415540582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9970889353182578</v>
+      </c>
+      <c r="N24">
+        <v>0.9969684082949642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9804961407688019</v>
+        <v>0.9805194467162627</v>
       </c>
       <c r="D25">
-        <v>1.003826721650855</v>
+        <v>1.003845442760777</v>
       </c>
       <c r="E25">
-        <v>0.9725319622684863</v>
+        <v>0.9725471992328648</v>
       </c>
       <c r="F25">
-        <v>0.9956926361311279</v>
+        <v>0.9957108606340415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039131312228509</v>
+        <v>1.039141202626281</v>
       </c>
       <c r="J25">
-        <v>1.005698199988432</v>
+        <v>1.005720677266882</v>
       </c>
       <c r="K25">
-        <v>1.016365921732016</v>
+        <v>1.016384355048821</v>
       </c>
       <c r="L25">
-        <v>0.9855721957616853</v>
+        <v>0.9855871786738352</v>
       </c>
       <c r="M25">
-        <v>1.00835818842279</v>
+        <v>1.00837612688042</v>
+      </c>
+      <c r="N25">
+        <v>1.004744334042303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9915044345348472</v>
+        <v>1.006874305736794</v>
       </c>
       <c r="D2">
-        <v>1.012372324295008</v>
+        <v>1.026451116359673</v>
       </c>
       <c r="E2">
-        <v>0.9805073052772182</v>
+        <v>1.022375491072858</v>
       </c>
       <c r="F2">
-        <v>1.005451126110359</v>
+        <v>1.030636194659181</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043047165973571</v>
+        <v>1.045226010595175</v>
       </c>
       <c r="J2">
-        <v>1.013942250074752</v>
+        <v>1.028851333704311</v>
       </c>
       <c r="K2">
-        <v>1.023661942514933</v>
+        <v>1.037553845648186</v>
       </c>
       <c r="L2">
-        <v>0.9922450540849682</v>
+        <v>1.033531658438623</v>
       </c>
       <c r="M2">
-        <v>1.016835036908171</v>
+        <v>1.041684601079017</v>
       </c>
       <c r="N2">
-        <v>1.010537455755588</v>
+        <v>1.030312420609085</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9991099942935326</v>
+        <v>1.013924566443908</v>
       </c>
       <c r="D3">
-        <v>1.018282654876546</v>
+        <v>1.031879761852674</v>
       </c>
       <c r="E3">
-        <v>0.9860683692215328</v>
+        <v>1.028044450025581</v>
       </c>
       <c r="F3">
-        <v>1.012221828423451</v>
+        <v>1.036695738575804</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045720154780426</v>
+        <v>1.047075671436993</v>
       </c>
       <c r="J3">
-        <v>1.019624951202038</v>
+        <v>1.03404269956145</v>
       </c>
       <c r="K3">
-        <v>1.028686830253906</v>
+        <v>1.042120358610936</v>
       </c>
       <c r="L3">
-        <v>0.9968826670329459</v>
+        <v>1.038330643780654</v>
       </c>
       <c r="M3">
-        <v>1.022700681009721</v>
+        <v>1.046879670688911</v>
       </c>
       <c r="N3">
-        <v>1.014535452112917</v>
+        <v>1.035511158801183</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0038758110181</v>
+        <v>1.018358722306215</v>
       </c>
       <c r="D4">
-        <v>1.021988363488178</v>
+        <v>1.035297068767146</v>
       </c>
       <c r="E4">
-        <v>0.9895742489286157</v>
+        <v>1.031623031772015</v>
       </c>
       <c r="F4">
-        <v>1.01647584940336</v>
+        <v>1.040516534325446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047380055713507</v>
+        <v>1.048226862675654</v>
       </c>
       <c r="J4">
-        <v>1.023180890101451</v>
+        <v>1.037304189743006</v>
       </c>
       <c r="K4">
-        <v>1.031828458336145</v>
+        <v>1.044987365591641</v>
       </c>
       <c r="L4">
-        <v>0.9998001538488945</v>
+        <v>1.041354206848717</v>
       </c>
       <c r="M4">
-        <v>1.026379410477382</v>
+        <v>1.050149367681141</v>
       </c>
       <c r="N4">
-        <v>1.017034208011743</v>
+        <v>1.038777280672895</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005844271796531</v>
+        <v>1.020193835891777</v>
       </c>
       <c r="D5">
-        <v>1.023519353297482</v>
+        <v>1.03671196743773</v>
       </c>
       <c r="E5">
-        <v>0.9910271491870757</v>
+        <v>1.033107083686001</v>
       </c>
       <c r="F5">
-        <v>1.018235493882129</v>
+        <v>1.042100020249165</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048061963957123</v>
+        <v>1.048700317273896</v>
       </c>
       <c r="J5">
-        <v>1.024648358582375</v>
+        <v>1.038653067597452</v>
       </c>
       <c r="K5">
-        <v>1.033124273264057</v>
+        <v>1.046172603402176</v>
       </c>
       <c r="L5">
-        <v>1.001007735728299</v>
+        <v>1.042606696343766</v>
       </c>
       <c r="M5">
-        <v>1.027899493130026</v>
+        <v>1.051503015012399</v>
       </c>
       <c r="N5">
-        <v>1.01806466330059</v>
+        <v>1.040128074088612</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006172786045279</v>
+        <v>1.020500302821316</v>
       </c>
       <c r="D6">
-        <v>1.02377487816032</v>
+        <v>1.036948290914365</v>
       </c>
       <c r="E6">
-        <v>0.9912699001345229</v>
+        <v>1.03335509687013</v>
       </c>
       <c r="F6">
-        <v>1.018529306378868</v>
+        <v>1.042364591996253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048175547370538</v>
+        <v>1.048779208073176</v>
       </c>
       <c r="J6">
-        <v>1.024893186143784</v>
+        <v>1.038878276483555</v>
       </c>
       <c r="K6">
-        <v>1.033340422112659</v>
+        <v>1.046370461185945</v>
       </c>
       <c r="L6">
-        <v>1.001209412321138</v>
+        <v>1.042815929295297</v>
       </c>
       <c r="M6">
-        <v>1.028153211370607</v>
+        <v>1.051729100125298</v>
       </c>
       <c r="N6">
-        <v>1.018236537351985</v>
+        <v>1.040353602797166</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003902248876331</v>
+        <v>1.018383355133408</v>
       </c>
       <c r="D7">
-        <v>1.022008924394892</v>
+        <v>1.035316058731022</v>
       </c>
       <c r="E7">
-        <v>0.9895937435742259</v>
+        <v>1.031642940483502</v>
       </c>
       <c r="F7">
-        <v>1.016499472698893</v>
+        <v>1.040537780922175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047389228963699</v>
+        <v>1.048233229741809</v>
       </c>
       <c r="J7">
-        <v>1.023200604383149</v>
+        <v>1.037322299521284</v>
       </c>
       <c r="K7">
-        <v>1.031845869302861</v>
+        <v>1.045003280351704</v>
       </c>
       <c r="L7">
-        <v>0.9998163627005425</v>
+        <v>1.041371014628314</v>
       </c>
       <c r="M7">
-        <v>1.026399823968481</v>
+        <v>1.05016753609489</v>
       </c>
       <c r="N7">
-        <v>1.017048054296121</v>
+        <v>1.038795416169135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9941083114264225</v>
+        <v>1.009284445863075</v>
       </c>
       <c r="D8">
-        <v>1.014395277350369</v>
+        <v>1.0283061922952</v>
       </c>
       <c r="E8">
-        <v>0.9824065826617191</v>
+        <v>1.024310567100515</v>
       </c>
       <c r="F8">
-        <v>1.007766684255621</v>
+        <v>1.032705528257497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043965434201147</v>
+        <v>1.045860833738579</v>
       </c>
       <c r="J8">
-        <v>1.015888810474906</v>
+        <v>1.030626711783954</v>
       </c>
       <c r="K8">
-        <v>1.025383723071408</v>
+        <v>1.039115917538347</v>
       </c>
       <c r="L8">
-        <v>0.9938302623184627</v>
+        <v>1.035171005309897</v>
       </c>
       <c r="M8">
-        <v>1.018842468667312</v>
+        <v>1.043459982421008</v>
       </c>
       <c r="N8">
-        <v>1.011907554337842</v>
+        <v>1.032090319929223</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9755521528157588</v>
+        <v>0.9921929573859442</v>
       </c>
       <c r="D9">
-        <v>0.9999941845044887</v>
+        <v>1.015169195449252</v>
       </c>
       <c r="E9">
-        <v>0.968975242573594</v>
+        <v>1.010651069694528</v>
       </c>
       <c r="F9">
-        <v>0.9913214416235727</v>
+        <v>1.018078338178868</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037359776912368</v>
+        <v>1.041309657834777</v>
       </c>
       <c r="J9">
-        <v>1.001998781070917</v>
+        <v>1.018024446909583</v>
       </c>
       <c r="K9">
-        <v>1.013087356061694</v>
+        <v>1.028020865461068</v>
       </c>
       <c r="L9">
-        <v>0.9825925637667055</v>
+        <v>1.023573672407366</v>
       </c>
       <c r="M9">
-        <v>1.004556909382974</v>
+        <v>1.030884761521433</v>
       </c>
       <c r="N9">
-        <v>1.002118819039862</v>
+        <v>1.019470158393231</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9621383028987247</v>
+        <v>0.9799639641425025</v>
       </c>
       <c r="D10">
-        <v>0.9896108722076171</v>
+        <v>1.005799439491217</v>
       </c>
       <c r="E10">
-        <v>0.9594142216041767</v>
+        <v>1.000966393053832</v>
       </c>
       <c r="F10">
-        <v>0.979514919348569</v>
+        <v>1.007680285045406</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032509802808183</v>
+        <v>1.037993643306252</v>
       </c>
       <c r="J10">
-        <v>0.9919390252116937</v>
+        <v>1.008995709132277</v>
       </c>
       <c r="K10">
-        <v>1.004170273790773</v>
+        <v>1.020064766849225</v>
       </c>
       <c r="L10">
-        <v>0.9745570806644038</v>
+        <v>1.015318220870196</v>
       </c>
       <c r="M10">
-        <v>0.994264157788337</v>
+        <v>1.021912240501921</v>
       </c>
       <c r="N10">
-        <v>0.9950148029860377</v>
+        <v>1.01042859877267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9560371961796493</v>
+        <v>0.9744387474685503</v>
       </c>
       <c r="D11">
-        <v>0.9848972805397359</v>
+        <v>1.001575445949415</v>
       </c>
       <c r="E11">
-        <v>0.9551063846428369</v>
+        <v>0.9966147017682226</v>
       </c>
       <c r="F11">
-        <v>0.9741676294055117</v>
+        <v>1.003000923708409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030287641376359</v>
+        <v>1.036482489580157</v>
       </c>
       <c r="J11">
-        <v>0.9873605680326617</v>
+        <v>1.00491497050425</v>
       </c>
       <c r="K11">
-        <v>1.000109745102929</v>
+        <v>1.016467712699705</v>
       </c>
       <c r="L11">
-        <v>0.9709276736921103</v>
+        <v>1.011600743487929</v>
       </c>
       <c r="M11">
-        <v>0.9895937218294478</v>
+        <v>1.017866468036568</v>
       </c>
       <c r="N11">
-        <v>0.9917784781042411</v>
+        <v>1.006342065027725</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9537224408102821</v>
+        <v>0.972348761524336</v>
       </c>
       <c r="D12">
-        <v>0.9831105817541589</v>
+        <v>0.9999792944399394</v>
       </c>
       <c r="E12">
-        <v>0.9534786893724605</v>
+        <v>0.9949724967859102</v>
       </c>
       <c r="F12">
-        <v>0.9721426246407981</v>
+        <v>1.001233932523468</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029442271167773</v>
+        <v>1.035909048092749</v>
       </c>
       <c r="J12">
-        <v>0.9856232223978155</v>
+        <v>1.003371291308828</v>
       </c>
       <c r="K12">
-        <v>0.9985686709010847</v>
+        <v>1.015106891146362</v>
       </c>
       <c r="L12">
-        <v>0.9695549423541643</v>
+        <v>1.010196653852736</v>
       </c>
       <c r="M12">
-        <v>0.9878237227016161</v>
+        <v>1.016337530454641</v>
       </c>
       <c r="N12">
-        <v>0.9905499886921729</v>
+        <v>1.004796193630782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9542212400302189</v>
+        <v>0.9727988298118474</v>
       </c>
       <c r="D13">
-        <v>0.9834955134241126</v>
+        <v>1.000322940562577</v>
       </c>
       <c r="E13">
-        <v>0.9538291244907378</v>
+        <v>0.9953259577344421</v>
       </c>
       <c r="F13">
-        <v>0.9725788112519355</v>
+        <v>1.001614304134284</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029624537682686</v>
+        <v>1.036032616445414</v>
       </c>
       <c r="J13">
-        <v>0.9859976074796317</v>
+        <v>1.003703716755248</v>
       </c>
       <c r="K13">
-        <v>0.9989007717748135</v>
+        <v>1.015399943029572</v>
       </c>
       <c r="L13">
-        <v>0.9698505477853548</v>
+        <v>1.010498919266581</v>
       </c>
       <c r="M13">
-        <v>0.9882050405256597</v>
+        <v>1.01666671163607</v>
       </c>
       <c r="N13">
-        <v>0.9908147378468962</v>
+        <v>1.005129091159466</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.955846876437027</v>
+        <v>0.9742667765534814</v>
       </c>
       <c r="D14">
-        <v>0.9847503429849254</v>
+        <v>1.001444074957984</v>
       </c>
       <c r="E14">
-        <v>0.9549724160493318</v>
+        <v>0.9964794953522071</v>
       </c>
       <c r="F14">
-        <v>0.9740010548974707</v>
+        <v>1.002855466743986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030218180169122</v>
+        <v>1.036435341294813</v>
       </c>
       <c r="J14">
-        <v>0.9872177278159392</v>
+        <v>1.004787952455036</v>
       </c>
       <c r="K14">
-        <v>0.9999830467887512</v>
+        <v>1.016355742611543</v>
       </c>
       <c r="L14">
-        <v>0.9708147182663118</v>
+        <v>1.011485166499118</v>
       </c>
       <c r="M14">
-        <v>0.9894481505105716</v>
+        <v>1.017740631766593</v>
       </c>
       <c r="N14">
-        <v>0.9916774832792349</v>
+        <v>1.006214866598311</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9568419066450629</v>
+        <v>0.9751661348302868</v>
       </c>
       <c r="D15">
-        <v>0.9855186303303473</v>
+        <v>1.002131174958584</v>
       </c>
       <c r="E15">
-        <v>0.9556731063235453</v>
+        <v>0.997186745343193</v>
       </c>
       <c r="F15">
-        <v>0.9748720946887723</v>
+        <v>1.003616289748029</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030581245672896</v>
+        <v>1.036681839642792</v>
       </c>
       <c r="J15">
-        <v>0.9879645149430962</v>
+        <v>1.005452217518778</v>
       </c>
       <c r="K15">
-        <v>1.000645431678181</v>
+        <v>1.01694130726537</v>
       </c>
       <c r="L15">
-        <v>0.9714054479971909</v>
+        <v>1.012089687383086</v>
       </c>
       <c r="M15">
-        <v>0.9902093083505824</v>
+        <v>1.018398778545511</v>
       </c>
       <c r="N15">
-        <v>0.9922054800280153</v>
+        <v>1.006880074994636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9625366709790056</v>
+        <v>0.9803255511827734</v>
       </c>
       <c r="D16">
-        <v>0.9899188530493881</v>
+        <v>1.006076082795219</v>
       </c>
       <c r="E16">
-        <v>0.9596963880047142</v>
+        <v>1.001251700098054</v>
       </c>
       <c r="F16">
-        <v>0.9798645642733158</v>
+        <v>1.007986921955847</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032654575005687</v>
+        <v>1.038092279423345</v>
       </c>
       <c r="J16">
-        <v>0.9922379252186506</v>
+        <v>1.009262745951474</v>
       </c>
       <c r="K16">
-        <v>1.004435322059623</v>
+        <v>1.02030013353002</v>
       </c>
       <c r="L16">
-        <v>0.9747946214770041</v>
+        <v>1.015561780018954</v>
       </c>
       <c r="M16">
-        <v>0.994569363866435</v>
+        <v>1.022177193493802</v>
       </c>
       <c r="N16">
-        <v>0.9952260220592601</v>
+        <v>1.01069601481478</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9660274424644202</v>
+        <v>0.9834982560834907</v>
       </c>
       <c r="D17">
-        <v>0.9926186443988296</v>
+        <v>1.008504542218286</v>
       </c>
       <c r="E17">
-        <v>0.9621735786093353</v>
+        <v>1.003757832169644</v>
       </c>
       <c r="F17">
-        <v>0.9829309854336686</v>
+        <v>1.010679601616728</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0339213589508</v>
+        <v>1.038956302938326</v>
       </c>
       <c r="J17">
-        <v>0.9948567786000229</v>
+        <v>1.011605682341629</v>
       </c>
       <c r="K17">
-        <v>1.006757345273879</v>
+        <v>1.022365081249218</v>
       </c>
       <c r="L17">
-        <v>0.9768790231391854</v>
+        <v>1.017700292235906</v>
       </c>
       <c r="M17">
-        <v>0.9972450650731446</v>
+        <v>1.024502934475273</v>
       </c>
       <c r="N17">
-        <v>0.997076301787067</v>
+        <v>1.013042278443347</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9680356361910748</v>
+        <v>0.9853268812396402</v>
       </c>
       <c r="D18">
-        <v>0.9941726331845152</v>
+        <v>1.009905079952622</v>
       </c>
       <c r="E18">
-        <v>0.963602461042208</v>
+        <v>1.005204505200295</v>
       </c>
       <c r="F18">
-        <v>0.9846971628323375</v>
+        <v>1.012233292177146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0346485930455</v>
+        <v>1.039453068287114</v>
       </c>
       <c r="J18">
-        <v>0.9963630856770248</v>
+        <v>1.012955916430915</v>
       </c>
       <c r="K18">
-        <v>1.008092718464082</v>
+        <v>1.023555001443987</v>
       </c>
       <c r="L18">
-        <v>0.9780805011639548</v>
+        <v>1.018934002785584</v>
       </c>
       <c r="M18">
-        <v>0.9987853769176842</v>
+        <v>1.025844152046899</v>
       </c>
       <c r="N18">
-        <v>0.998140249205642</v>
+        <v>1.014394430019914</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9687157711451769</v>
+        <v>0.9859467591159128</v>
       </c>
       <c r="D19">
-        <v>0.9946990724261987</v>
+        <v>1.010379983223889</v>
       </c>
       <c r="E19">
-        <v>0.9640870222226061</v>
+        <v>1.005695278088236</v>
       </c>
       <c r="F19">
-        <v>0.9852956798719543</v>
+        <v>1.012760258439256</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034894628965726</v>
+        <v>1.039621253683046</v>
       </c>
       <c r="J19">
-        <v>0.9968731892477072</v>
+        <v>1.013413598425882</v>
       </c>
       <c r="K19">
-        <v>1.00854489994382</v>
+        <v>1.023958322599052</v>
       </c>
       <c r="L19">
-        <v>0.978487804131599</v>
+        <v>1.019352402592463</v>
       </c>
       <c r="M19">
-        <v>0.9993072140672947</v>
+        <v>1.026298927093213</v>
       </c>
       <c r="N19">
-        <v>0.9985004991586039</v>
+        <v>1.014852761975811</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9656558337657005</v>
+        <v>0.9831601476488651</v>
       </c>
       <c r="D20">
-        <v>0.9923311505591044</v>
+        <v>1.008245654864681</v>
       </c>
       <c r="E20">
-        <v>0.9619094726673331</v>
+        <v>1.003490524892698</v>
       </c>
       <c r="F20">
-        <v>0.9826043294899527</v>
+        <v>1.010392466693002</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03378666200224</v>
+        <v>1.038864352247707</v>
       </c>
       <c r="J20">
-        <v>0.9945780180879247</v>
+        <v>1.011356014704513</v>
       </c>
       <c r="K20">
-        <v>1.006510201262393</v>
+        <v>1.022145047554777</v>
       </c>
       <c r="L20">
-        <v>0.9766568816864212</v>
+        <v>1.017472274057257</v>
       </c>
       <c r="M20">
-        <v>0.9969601166355374</v>
+        <v>1.024255005869741</v>
       </c>
       <c r="N20">
-        <v>0.9968793813446263</v>
+        <v>1.01279225624955</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9553695465453973</v>
+        <v>0.9738355698357519</v>
       </c>
       <c r="D21">
-        <v>0.9843818446603201</v>
+        <v>1.001114697101081</v>
       </c>
       <c r="E21">
-        <v>0.9546365268030236</v>
+        <v>0.9961405367931537</v>
       </c>
       <c r="F21">
-        <v>0.9735833405802852</v>
+        <v>1.00249079190307</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030043932400045</v>
+        <v>1.036317090826928</v>
       </c>
       <c r="J21">
-        <v>0.9868594745909778</v>
+        <v>1.004469461424244</v>
       </c>
       <c r="K21">
-        <v>0.9996652745766712</v>
+        <v>1.016074981933524</v>
       </c>
       <c r="L21">
-        <v>0.9705314914375961</v>
+        <v>1.01119539866152</v>
       </c>
       <c r="M21">
-        <v>0.989083084124958</v>
+        <v>1.017425128623609</v>
       </c>
       <c r="N21">
-        <v>0.9914241744243671</v>
+        <v>1.005895923273724</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9486185962259296</v>
+        <v>0.9677530237717179</v>
       </c>
       <c r="D22">
-        <v>0.9791744003948418</v>
+        <v>0.9964727349428197</v>
       </c>
       <c r="E22">
-        <v>0.9499028033331769</v>
+        <v>0.9913688897425609</v>
       </c>
       <c r="F22">
-        <v>0.9676850012253988</v>
+        <v>0.9973543353166472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027574267065621</v>
+        <v>1.03464485602243</v>
       </c>
       <c r="J22">
-        <v>0.9817921875738699</v>
+        <v>0.9999768426742766</v>
       </c>
       <c r="K22">
-        <v>0.9951700218512592</v>
+        <v>1.01211439299295</v>
       </c>
       <c r="L22">
-        <v>0.9665366009716975</v>
+        <v>1.007113291861801</v>
       </c>
       <c r="M22">
-        <v>0.9839250057402824</v>
+        <v>1.012978386168353</v>
       </c>
       <c r="N22">
-        <v>0.9878402848000162</v>
+        <v>1.001396924489821</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9522259764255606</v>
+        <v>0.9709994794459503</v>
       </c>
       <c r="D23">
-        <v>0.9819559971036351</v>
+        <v>0.9989493177517057</v>
       </c>
       <c r="E23">
-        <v>0.9524283655543917</v>
+        <v>0.9939134304493452</v>
       </c>
       <c r="F23">
-        <v>0.9708345850742089</v>
+        <v>1.000094063165642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028895125201717</v>
+        <v>1.035538338001246</v>
       </c>
       <c r="J23">
-        <v>0.9844999887746898</v>
+        <v>1.002374694710378</v>
       </c>
       <c r="K23">
-        <v>0.9975722651587128</v>
+        <v>1.014228322795719</v>
       </c>
       <c r="L23">
-        <v>0.9686687489135639</v>
+        <v>1.009290803219216</v>
       </c>
       <c r="M23">
-        <v>0.9866800306748265</v>
+        <v>1.015350888580616</v>
       </c>
       <c r="N23">
-        <v>0.9897556256571614</v>
+        <v>1.003798181750851</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9658238336684567</v>
+        <v>0.9833129919281829</v>
       </c>
       <c r="D24">
-        <v>0.9924611205508838</v>
+        <v>1.008362684024287</v>
       </c>
       <c r="E24">
-        <v>0.9620288601097737</v>
+        <v>1.00361135609369</v>
       </c>
       <c r="F24">
-        <v>0.9827520002595008</v>
+        <v>1.010522262674609</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033847561667003</v>
+        <v>1.038905923011527</v>
       </c>
       <c r="J24">
-        <v>0.9947040433161991</v>
+        <v>1.011468879161655</v>
       </c>
       <c r="K24">
-        <v>1.006621933580236</v>
+        <v>1.022244516069568</v>
       </c>
       <c r="L24">
-        <v>0.9767573019412359</v>
+        <v>1.017575347699024</v>
       </c>
       <c r="M24">
-        <v>0.9970889353182578</v>
+        <v>1.024367081413849</v>
       </c>
       <c r="N24">
-        <v>0.9969684082949642</v>
+        <v>1.012905280987167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9805194467162627</v>
+        <v>0.9967487920810787</v>
       </c>
       <c r="D25">
-        <v>1.003845442760777</v>
+        <v>1.018666552390687</v>
       </c>
       <c r="E25">
-        <v>0.9725471992328648</v>
+        <v>1.014277834792138</v>
       </c>
       <c r="F25">
-        <v>0.9957108606340415</v>
+        <v>1.021966513142127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039141202626281</v>
+        <v>1.042533332231949</v>
       </c>
       <c r="J25">
-        <v>1.005720677266882</v>
+        <v>1.021386069930245</v>
       </c>
       <c r="K25">
-        <v>1.016384355048821</v>
+        <v>1.030981843720502</v>
       </c>
       <c r="L25">
-        <v>0.9855871786738352</v>
+        <v>1.026658476464013</v>
       </c>
       <c r="M25">
-        <v>1.00837612688042</v>
+        <v>1.034233135694546</v>
       </c>
       <c r="N25">
-        <v>1.004744334042303</v>
+        <v>1.022836555304165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006874305736794</v>
+        <v>0.9971078212063734</v>
       </c>
       <c r="D2">
-        <v>1.026451116359673</v>
+        <v>1.019818454575244</v>
       </c>
       <c r="E2">
-        <v>1.022375491072858</v>
+        <v>1.018391423306064</v>
       </c>
       <c r="F2">
-        <v>1.030636194659181</v>
+        <v>1.024470265346643</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045226010595175</v>
+        <v>1.046574395056996</v>
       </c>
       <c r="J2">
-        <v>1.028851333704311</v>
+        <v>1.019375382304139</v>
       </c>
       <c r="K2">
-        <v>1.037553845648186</v>
+        <v>1.031008422443538</v>
       </c>
       <c r="L2">
-        <v>1.033531658438623</v>
+        <v>1.029600347197635</v>
       </c>
       <c r="M2">
-        <v>1.041684601079017</v>
+        <v>1.035598900260562</v>
       </c>
       <c r="N2">
-        <v>1.030312420609085</v>
+        <v>1.010484729838822</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013924566443908</v>
+        <v>1.001071692350262</v>
       </c>
       <c r="D3">
-        <v>1.031879761852674</v>
+        <v>1.022824152339186</v>
       </c>
       <c r="E3">
-        <v>1.028044450025581</v>
+        <v>1.022197321209917</v>
       </c>
       <c r="F3">
-        <v>1.036695738575804</v>
+        <v>1.028239149442793</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047075671436993</v>
+        <v>1.047604462826102</v>
       </c>
       <c r="J3">
-        <v>1.03404269956145</v>
+        <v>1.021533184526053</v>
       </c>
       <c r="K3">
-        <v>1.042120358610936</v>
+        <v>1.033173091034949</v>
       </c>
       <c r="L3">
-        <v>1.038330643780654</v>
+        <v>1.032553847573553</v>
       </c>
       <c r="M3">
-        <v>1.046879670688911</v>
+        <v>1.038523018306701</v>
       </c>
       <c r="N3">
-        <v>1.035511158801183</v>
+        <v>1.011200195085783</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018358722306215</v>
+        <v>1.003586439382445</v>
       </c>
       <c r="D4">
-        <v>1.035297068767146</v>
+        <v>1.024731228464085</v>
       </c>
       <c r="E4">
-        <v>1.031623031772015</v>
+        <v>1.024620636648457</v>
       </c>
       <c r="F4">
-        <v>1.040516534325446</v>
+        <v>1.030635640502621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048226862675654</v>
+        <v>1.048242957071559</v>
       </c>
       <c r="J4">
-        <v>1.037304189743006</v>
+        <v>1.022898846482013</v>
       </c>
       <c r="K4">
-        <v>1.044987365591641</v>
+        <v>1.034540058132004</v>
       </c>
       <c r="L4">
-        <v>1.041354206848717</v>
+        <v>1.034430722929124</v>
       </c>
       <c r="M4">
-        <v>1.050149367681141</v>
+        <v>1.040377862707894</v>
       </c>
       <c r="N4">
-        <v>1.038777280672895</v>
+        <v>1.01165298594818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020193835891777</v>
+        <v>1.004632009846409</v>
       </c>
       <c r="D5">
-        <v>1.03671196743773</v>
+        <v>1.02552414426861</v>
       </c>
       <c r="E5">
-        <v>1.033107083686001</v>
+        <v>1.025630273763297</v>
       </c>
       <c r="F5">
-        <v>1.042100020249165</v>
+        <v>1.03163331617659</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048700317273896</v>
+        <v>1.048504774839467</v>
       </c>
       <c r="J5">
-        <v>1.038653067597452</v>
+        <v>1.023465837942199</v>
       </c>
       <c r="K5">
-        <v>1.046172603402176</v>
+        <v>1.035106844373565</v>
       </c>
       <c r="L5">
-        <v>1.042606696343766</v>
+        <v>1.035211800570844</v>
       </c>
       <c r="M5">
-        <v>1.051503015012399</v>
+        <v>1.041148959759346</v>
       </c>
       <c r="N5">
-        <v>1.040128074088612</v>
+        <v>1.011840967287525</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020500302821316</v>
+        <v>1.004806894374366</v>
       </c>
       <c r="D6">
-        <v>1.036948290914365</v>
+        <v>1.025656767756514</v>
       </c>
       <c r="E6">
-        <v>1.03335509687013</v>
+        <v>1.025799269602173</v>
       </c>
       <c r="F6">
-        <v>1.042364591996253</v>
+        <v>1.031800263594988</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048779208073176</v>
+        <v>1.04854835081166</v>
       </c>
       <c r="J6">
-        <v>1.038878276483555</v>
+        <v>1.02356062534221</v>
       </c>
       <c r="K6">
-        <v>1.046370461185945</v>
+        <v>1.035201553030025</v>
       </c>
       <c r="L6">
-        <v>1.042815929295297</v>
+        <v>1.035342486783086</v>
       </c>
       <c r="M6">
-        <v>1.051729100125298</v>
+        <v>1.041277928142681</v>
       </c>
       <c r="N6">
-        <v>1.040353602797166</v>
+        <v>1.011872392814222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018383355133408</v>
+        <v>1.003600455555979</v>
       </c>
       <c r="D7">
-        <v>1.035316058731022</v>
+        <v>1.024741857794364</v>
       </c>
       <c r="E7">
-        <v>1.031642940483502</v>
+        <v>1.024634162937894</v>
       </c>
       <c r="F7">
-        <v>1.040537780922175</v>
+        <v>1.030649009647697</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048233229741809</v>
+        <v>1.048246481311536</v>
       </c>
       <c r="J7">
-        <v>1.037322299521284</v>
+        <v>1.022906450433177</v>
       </c>
       <c r="K7">
-        <v>1.045003280351704</v>
+        <v>1.034547662306689</v>
       </c>
       <c r="L7">
-        <v>1.041371014628314</v>
+        <v>1.034441190701758</v>
       </c>
       <c r="M7">
-        <v>1.05016753609489</v>
+        <v>1.040388199938739</v>
       </c>
       <c r="N7">
-        <v>1.038795416169135</v>
+        <v>1.011655507005029</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009284445863075</v>
+        <v>0.9984580437428944</v>
       </c>
       <c r="D8">
-        <v>1.0283061922952</v>
+        <v>1.02084221698584</v>
       </c>
       <c r="E8">
-        <v>1.024310567100515</v>
+        <v>1.019685975908998</v>
       </c>
       <c r="F8">
-        <v>1.032705528257497</v>
+        <v>1.02575290631098</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045860833738579</v>
+        <v>1.046928379620366</v>
       </c>
       <c r="J8">
-        <v>1.030626711783954</v>
+        <v>1.020111069620029</v>
       </c>
       <c r="K8">
-        <v>1.039115917538347</v>
+        <v>1.031747078359635</v>
       </c>
       <c r="L8">
-        <v>1.035171005309897</v>
+        <v>1.030605730608589</v>
       </c>
       <c r="M8">
-        <v>1.043459982421008</v>
+        <v>1.036594981269545</v>
       </c>
       <c r="N8">
-        <v>1.032090319929223</v>
+        <v>1.010728666682693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9921929573859442</v>
+        <v>0.9889946764206357</v>
       </c>
       <c r="D9">
-        <v>1.015169195449252</v>
+        <v>1.013669951304228</v>
       </c>
       <c r="E9">
-        <v>1.010651069694528</v>
+        <v>1.01065123208819</v>
       </c>
       <c r="F9">
-        <v>1.018078338178868</v>
+        <v>1.016787746574452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041309657834777</v>
+        <v>1.044386059638551</v>
       </c>
       <c r="J9">
-        <v>1.018024446909583</v>
+        <v>1.014942137570283</v>
       </c>
       <c r="K9">
-        <v>1.028020865461068</v>
+        <v>1.026545069165069</v>
       </c>
       <c r="L9">
-        <v>1.023573672407366</v>
+        <v>1.023573832237072</v>
       </c>
       <c r="M9">
-        <v>1.030884761521433</v>
+        <v>1.02961420199787</v>
       </c>
       <c r="N9">
-        <v>1.019470158393231</v>
+        <v>1.009014726798237</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9799639641425025</v>
+        <v>0.9823893783849914</v>
       </c>
       <c r="D10">
-        <v>1.005799439491217</v>
+        <v>1.008670086242927</v>
       </c>
       <c r="E10">
-        <v>1.000966393053832</v>
+        <v>1.004395406688618</v>
       </c>
       <c r="F10">
-        <v>1.007680285045406</v>
+        <v>1.010563096786982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037993643306252</v>
+        <v>1.042536072721666</v>
       </c>
       <c r="J10">
-        <v>1.008995709132277</v>
+        <v>1.011319559084875</v>
       </c>
       <c r="K10">
-        <v>1.020064766849225</v>
+        <v>1.022884544438292</v>
       </c>
       <c r="L10">
-        <v>1.015318220870196</v>
+        <v>1.018685751628707</v>
       </c>
       <c r="M10">
-        <v>1.021912240501921</v>
+        <v>1.024744214911353</v>
       </c>
       <c r="N10">
-        <v>1.01042859877267</v>
+        <v>1.007813544110737</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9744387474685503</v>
+        <v>0.9794526103853008</v>
       </c>
       <c r="D11">
-        <v>1.001575445949415</v>
+        <v>1.006449412864713</v>
       </c>
       <c r="E11">
-        <v>0.9966147017682226</v>
+        <v>1.001626466246101</v>
       </c>
       <c r="F11">
-        <v>1.003000923708409</v>
+        <v>1.007803971196649</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036482489580157</v>
+        <v>1.04169642818284</v>
       </c>
       <c r="J11">
-        <v>1.00491497050425</v>
+        <v>1.009705891601801</v>
       </c>
       <c r="K11">
-        <v>1.016467712699705</v>
+        <v>1.021250719059767</v>
       </c>
       <c r="L11">
-        <v>1.011600743487929</v>
+        <v>1.016517774841028</v>
       </c>
       <c r="M11">
-        <v>1.017866468036568</v>
+        <v>1.022580201561503</v>
       </c>
       <c r="N11">
-        <v>1.006342065027725</v>
+        <v>1.007278503399448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.972348761524336</v>
+        <v>0.9783496753583358</v>
       </c>
       <c r="D12">
-        <v>0.9999792944399394</v>
+        <v>1.005615833902411</v>
       </c>
       <c r="E12">
-        <v>0.9949724967859102</v>
+        <v>1.000588478410724</v>
       </c>
       <c r="F12">
-        <v>1.001233932523468</v>
+        <v>1.006769068136219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035909048092749</v>
+        <v>1.041378585262381</v>
       </c>
       <c r="J12">
-        <v>1.003371291308828</v>
+        <v>1.009099444535639</v>
       </c>
       <c r="K12">
-        <v>1.015106891146362</v>
+        <v>1.020636228513081</v>
       </c>
       <c r="L12">
-        <v>1.010196653852736</v>
+        <v>1.015704412780827</v>
       </c>
       <c r="M12">
-        <v>1.016337530454641</v>
+        <v>1.021767722457342</v>
       </c>
       <c r="N12">
-        <v>1.004796193630782</v>
+        <v>1.007077430047796</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9727988298118474</v>
+        <v>0.9785868153519537</v>
       </c>
       <c r="D13">
-        <v>1.000322940562577</v>
+        <v>1.005795040025894</v>
       </c>
       <c r="E13">
-        <v>0.9953259577344421</v>
+        <v>1.00081156678398</v>
       </c>
       <c r="F13">
-        <v>1.001614304134284</v>
+        <v>1.006991520322688</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036032616445414</v>
+        <v>1.041447036171482</v>
       </c>
       <c r="J13">
-        <v>1.003703716755248</v>
+        <v>1.009229853757132</v>
       </c>
       <c r="K13">
-        <v>1.015399943029572</v>
+        <v>1.020768388177455</v>
       </c>
       <c r="L13">
-        <v>1.010498919266581</v>
+        <v>1.015879253242375</v>
       </c>
       <c r="M13">
-        <v>1.01666671163607</v>
+        <v>1.02194240031661</v>
       </c>
       <c r="N13">
-        <v>1.005129091159466</v>
+        <v>1.007120668216356</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9742667765534814</v>
+        <v>0.9793616914951878</v>
       </c>
       <c r="D14">
-        <v>1.001444074957984</v>
+        <v>1.006380689015033</v>
       </c>
       <c r="E14">
-        <v>0.9964794953522071</v>
+        <v>1.001540861914809</v>
       </c>
       <c r="F14">
-        <v>1.002855466743986</v>
+        <v>1.007718633341081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036435341294813</v>
+        <v>1.041670277787668</v>
       </c>
       <c r="J14">
-        <v>1.004787952455036</v>
+        <v>1.009655908232228</v>
       </c>
       <c r="K14">
-        <v>1.016355742611543</v>
+        <v>1.021200082130084</v>
       </c>
       <c r="L14">
-        <v>1.011485166499118</v>
+        <v>1.01645070902017</v>
       </c>
       <c r="M14">
-        <v>1.017740631766593</v>
+        <v>1.02251322079307</v>
       </c>
       <c r="N14">
-        <v>1.006214866598311</v>
+        <v>1.00726193081781</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9751661348302868</v>
+        <v>0.9798374985591919</v>
       </c>
       <c r="D15">
-        <v>1.002131174958584</v>
+        <v>1.00674035999329</v>
       </c>
       <c r="E15">
-        <v>0.997186745343193</v>
+        <v>1.00198893470545</v>
       </c>
       <c r="F15">
-        <v>1.003616289748029</v>
+        <v>1.008165287103431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036681839642792</v>
+        <v>1.041807029266067</v>
       </c>
       <c r="J15">
-        <v>1.005452217518778</v>
+        <v>1.009917470129049</v>
       </c>
       <c r="K15">
-        <v>1.01694130726537</v>
+        <v>1.021465045153815</v>
       </c>
       <c r="L15">
-        <v>1.012089687383086</v>
+        <v>1.016801720243617</v>
       </c>
       <c r="M15">
-        <v>1.018398778545511</v>
+        <v>1.022863762265818</v>
       </c>
       <c r="N15">
-        <v>1.006880074994636</v>
+        <v>1.00734865500183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9803255511827734</v>
+        <v>0.9825826191704401</v>
       </c>
       <c r="D16">
-        <v>1.006076082795219</v>
+        <v>1.008816261786299</v>
       </c>
       <c r="E16">
-        <v>1.001251700098054</v>
+        <v>1.004577867813722</v>
       </c>
       <c r="F16">
-        <v>1.007986921955847</v>
+        <v>1.010744828294848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038092279423345</v>
+        <v>1.042590970384407</v>
       </c>
       <c r="J16">
-        <v>1.009262745951474</v>
+        <v>1.011425679166237</v>
       </c>
       <c r="K16">
-        <v>1.02030013353002</v>
+        <v>1.022991924142119</v>
       </c>
       <c r="L16">
-        <v>1.015561780018954</v>
+        <v>1.018828520157324</v>
       </c>
       <c r="M16">
-        <v>1.022177193493802</v>
+        <v>1.024886638202067</v>
       </c>
       <c r="N16">
-        <v>1.01069601481478</v>
+        <v>1.007848730769181</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9834982560834907</v>
+        <v>0.9842836495080688</v>
       </c>
       <c r="D17">
-        <v>1.008504542218286</v>
+        <v>1.010103264742789</v>
       </c>
       <c r="E17">
-        <v>1.003757832169644</v>
+        <v>1.006185432347387</v>
       </c>
       <c r="F17">
-        <v>1.010679601616728</v>
+        <v>1.012345510138453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038956302938326</v>
+        <v>1.043072272182493</v>
       </c>
       <c r="J17">
-        <v>1.011605682341629</v>
+        <v>1.01235947512555</v>
       </c>
       <c r="K17">
-        <v>1.022365081249218</v>
+        <v>1.023936436157996</v>
       </c>
       <c r="L17">
-        <v>1.017700292235906</v>
+        <v>1.020085870814706</v>
       </c>
       <c r="M17">
-        <v>1.024502934475273</v>
+        <v>1.026140485851342</v>
       </c>
       <c r="N17">
-        <v>1.013042278443347</v>
+        <v>1.008158356022515</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9853268812396402</v>
+        <v>0.9852684787754828</v>
       </c>
       <c r="D18">
-        <v>1.009905079952622</v>
+        <v>1.010848602662294</v>
       </c>
       <c r="E18">
-        <v>1.005204505200295</v>
+        <v>1.007117327710036</v>
       </c>
       <c r="F18">
-        <v>1.012233292177146</v>
+        <v>1.013273035989858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039453068287114</v>
+        <v>1.04334929582524</v>
       </c>
       <c r="J18">
-        <v>1.012955916430915</v>
+        <v>1.012899814583637</v>
       </c>
       <c r="K18">
-        <v>1.023555001443987</v>
+        <v>1.024482666228296</v>
       </c>
       <c r="L18">
-        <v>1.018934002785584</v>
+        <v>1.020814327407973</v>
       </c>
       <c r="M18">
-        <v>1.025844152046899</v>
+        <v>1.026866526240602</v>
       </c>
       <c r="N18">
-        <v>1.014394430019914</v>
+        <v>1.008337522197742</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859467591159128</v>
+        <v>0.9856030498091483</v>
       </c>
       <c r="D19">
-        <v>1.010379983223889</v>
+        <v>1.011101846726355</v>
       </c>
       <c r="E19">
-        <v>1.005695278088236</v>
+        <v>1.007434114417548</v>
       </c>
       <c r="F19">
-        <v>1.012760258439256</v>
+        <v>1.013588272812241</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039621253683046</v>
+        <v>1.043443128999431</v>
       </c>
       <c r="J19">
-        <v>1.013413598425882</v>
+        <v>1.013083330747377</v>
       </c>
       <c r="K19">
-        <v>1.023958322599052</v>
+        <v>1.024668129781468</v>
       </c>
       <c r="L19">
-        <v>1.019352402592463</v>
+        <v>1.021061885718631</v>
       </c>
       <c r="M19">
-        <v>1.026298927093213</v>
+        <v>1.027113197648478</v>
       </c>
       <c r="N19">
-        <v>1.014852761975811</v>
+        <v>1.008398372924191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9831601476488651</v>
+        <v>0.9841019096467054</v>
       </c>
       <c r="D20">
-        <v>1.008245654864681</v>
+        <v>1.009965737281744</v>
       </c>
       <c r="E20">
-        <v>1.003490524892698</v>
+        <v>1.006013555832264</v>
       </c>
       <c r="F20">
-        <v>1.010392466693002</v>
+        <v>1.01217440883639</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038864352247707</v>
+        <v>1.043021018111485</v>
       </c>
       <c r="J20">
-        <v>1.011356014704513</v>
+        <v>1.012259737341178</v>
       </c>
       <c r="K20">
-        <v>1.022145047554777</v>
+        <v>1.023835585839029</v>
       </c>
       <c r="L20">
-        <v>1.017472274057257</v>
+        <v>1.01995148191988</v>
       </c>
       <c r="M20">
-        <v>1.024255005869741</v>
+        <v>1.026006511426034</v>
       </c>
       <c r="N20">
-        <v>1.01279225624955</v>
+        <v>1.008125285043733</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9738355698357519</v>
+        <v>0.9791338482986482</v>
       </c>
       <c r="D21">
-        <v>1.001114697101081</v>
+        <v>1.006208473703816</v>
       </c>
       <c r="E21">
-        <v>0.9961405367931537</v>
+        <v>1.001326368093469</v>
       </c>
       <c r="F21">
-        <v>1.00249079190307</v>
+        <v>1.007504797643733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036317090826928</v>
+        <v>1.041604704634721</v>
       </c>
       <c r="J21">
-        <v>1.004469461424244</v>
+        <v>1.009530643080291</v>
       </c>
       <c r="K21">
-        <v>1.016074981933524</v>
+        <v>1.021073171605186</v>
       </c>
       <c r="L21">
-        <v>1.01119539866152</v>
+        <v>1.016282655520443</v>
       </c>
       <c r="M21">
-        <v>1.017425128623609</v>
+        <v>1.02234537070458</v>
       </c>
       <c r="N21">
-        <v>1.005895923273724</v>
+        <v>1.007220397753635</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9677530237717179</v>
+        <v>0.9759399774645394</v>
       </c>
       <c r="D22">
-        <v>0.9964727349428197</v>
+        <v>1.003795479161921</v>
       </c>
       <c r="E22">
-        <v>0.9913688897425609</v>
+        <v>0.9983242574952196</v>
       </c>
       <c r="F22">
-        <v>0.9973543353166472</v>
+        <v>1.004510488755145</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03464485602243</v>
+        <v>1.040679631424749</v>
       </c>
       <c r="J22">
-        <v>0.9999768426742766</v>
+        <v>1.007773755263083</v>
       </c>
       <c r="K22">
-        <v>1.01211439299295</v>
+        <v>1.019292119986992</v>
       </c>
       <c r="L22">
-        <v>1.007113291861801</v>
+        <v>1.013928984426082</v>
       </c>
       <c r="M22">
-        <v>1.012978386168353</v>
+        <v>1.019993118430815</v>
       </c>
       <c r="N22">
-        <v>1.001396924489821</v>
+        <v>1.006637896480295</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9709994794459503</v>
+        <v>0.9776399700466205</v>
       </c>
       <c r="D23">
-        <v>0.9989493177517057</v>
+        <v>1.005079578433324</v>
       </c>
       <c r="E23">
-        <v>0.9939134304493452</v>
+        <v>0.999921111181184</v>
       </c>
       <c r="F23">
-        <v>1.000094063165642</v>
+        <v>1.006103517257986</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035538338001246</v>
+        <v>1.041173365660337</v>
       </c>
       <c r="J23">
-        <v>1.002374694710378</v>
+        <v>1.008709101893563</v>
       </c>
       <c r="K23">
-        <v>1.014228322795719</v>
+        <v>1.020240579532742</v>
       </c>
       <c r="L23">
-        <v>1.009290803219216</v>
+        <v>1.015181283301278</v>
       </c>
       <c r="M23">
-        <v>1.015350888580616</v>
+        <v>1.021244991456853</v>
       </c>
       <c r="N23">
-        <v>1.003798181750851</v>
+        <v>1.006948009870808</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9833129919281829</v>
+        <v>0.984184052748268</v>
       </c>
       <c r="D24">
-        <v>1.008362684024287</v>
+        <v>1.010027896526692</v>
       </c>
       <c r="E24">
-        <v>1.00361135609369</v>
+        <v>1.006091237229657</v>
       </c>
       <c r="F24">
-        <v>1.010522262674609</v>
+        <v>1.012251741044709</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038905923011527</v>
+        <v>1.043044189077848</v>
       </c>
       <c r="J24">
-        <v>1.011468879161655</v>
+        <v>1.012304817906581</v>
       </c>
       <c r="K24">
-        <v>1.022244516069568</v>
+        <v>1.023881170223381</v>
       </c>
       <c r="L24">
-        <v>1.017575347699024</v>
+        <v>1.020012221701174</v>
       </c>
       <c r="M24">
-        <v>1.024367081413849</v>
+        <v>1.026067065078354</v>
       </c>
       <c r="N24">
-        <v>1.012905280987167</v>
+        <v>1.008140232817161</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9967487920810787</v>
+        <v>0.9914914039170588</v>
       </c>
       <c r="D25">
-        <v>1.018666552390687</v>
+        <v>1.015561392609065</v>
       </c>
       <c r="E25">
-        <v>1.014277834792138</v>
+        <v>1.013026358275096</v>
       </c>
       <c r="F25">
-        <v>1.021966513142127</v>
+        <v>1.019147541698986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042533332231949</v>
+        <v>1.045070076423702</v>
       </c>
       <c r="J25">
-        <v>1.021386069930245</v>
+        <v>1.016308548839053</v>
       </c>
       <c r="K25">
-        <v>1.030981843720502</v>
+        <v>1.027922847091177</v>
       </c>
       <c r="L25">
-        <v>1.026658476464013</v>
+        <v>1.02542576715901</v>
       </c>
       <c r="M25">
-        <v>1.034233135694546</v>
+        <v>1.031455714327817</v>
       </c>
       <c r="N25">
-        <v>1.022836555304165</v>
+        <v>1.009467813126094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9971078212063734</v>
+        <v>1.024813526207424</v>
       </c>
       <c r="D2">
-        <v>1.019818454575244</v>
+        <v>1.034954486447669</v>
       </c>
       <c r="E2">
-        <v>1.018391423306064</v>
+        <v>1.045577046498844</v>
       </c>
       <c r="F2">
-        <v>1.024470265346643</v>
+        <v>1.048882581683446</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046574395056996</v>
+        <v>1.032431564161194</v>
       </c>
       <c r="J2">
-        <v>1.019375382304139</v>
+        <v>1.029986039473223</v>
       </c>
       <c r="K2">
-        <v>1.031008422443538</v>
+        <v>1.037752478194803</v>
       </c>
       <c r="L2">
-        <v>1.029600347197635</v>
+        <v>1.048344896668772</v>
       </c>
       <c r="M2">
-        <v>1.035598900260562</v>
+        <v>1.051641187459325</v>
       </c>
       <c r="N2">
-        <v>1.010484729838822</v>
+        <v>1.014048805542006</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001071692350262</v>
+        <v>1.02564705675749</v>
       </c>
       <c r="D3">
-        <v>1.022824152339186</v>
+        <v>1.035599000728249</v>
       </c>
       <c r="E3">
-        <v>1.022197321209917</v>
+        <v>1.046461160054676</v>
       </c>
       <c r="F3">
-        <v>1.028239149442793</v>
+        <v>1.049738042079583</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047604462826102</v>
+        <v>1.032561389820101</v>
       </c>
       <c r="J3">
-        <v>1.021533184526053</v>
+        <v>1.030459236348806</v>
       </c>
       <c r="K3">
-        <v>1.033173091034949</v>
+        <v>1.038206725891144</v>
       </c>
       <c r="L3">
-        <v>1.032553847573553</v>
+        <v>1.049040289677001</v>
       </c>
       <c r="M3">
-        <v>1.038523018306701</v>
+        <v>1.052308670455548</v>
       </c>
       <c r="N3">
-        <v>1.011200195085783</v>
+        <v>1.014205319681051</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003586439382445</v>
+        <v>1.02618672696388</v>
       </c>
       <c r="D4">
-        <v>1.024731228464085</v>
+        <v>1.036015951258566</v>
       </c>
       <c r="E4">
-        <v>1.024620636648457</v>
+        <v>1.04703433821752</v>
       </c>
       <c r="F4">
-        <v>1.030635640502621</v>
+        <v>1.050292253851797</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048242957071559</v>
+        <v>1.032643570670792</v>
       </c>
       <c r="J4">
-        <v>1.022898846482013</v>
+        <v>1.030765101555332</v>
       </c>
       <c r="K4">
-        <v>1.034540058132004</v>
+        <v>1.038499875618053</v>
       </c>
       <c r="L4">
-        <v>1.034430722929124</v>
+        <v>1.049490714784494</v>
       </c>
       <c r="M4">
-        <v>1.040377862707894</v>
+        <v>1.052740604221164</v>
       </c>
       <c r="N4">
-        <v>1.01165298594818</v>
+        <v>1.014306471700703</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004632009846409</v>
+        <v>1.026413679451179</v>
       </c>
       <c r="D5">
-        <v>1.02552414426861</v>
+        <v>1.036191213091241</v>
       </c>
       <c r="E5">
-        <v>1.025630273763297</v>
+        <v>1.047275563276359</v>
       </c>
       <c r="F5">
-        <v>1.03163331617659</v>
+        <v>1.050525403403729</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048504774839467</v>
+        <v>1.032677681673764</v>
       </c>
       <c r="J5">
-        <v>1.023465837942199</v>
+        <v>1.030893608301211</v>
       </c>
       <c r="K5">
-        <v>1.035106844373565</v>
+        <v>1.038622927877364</v>
       </c>
       <c r="L5">
-        <v>1.035211800570844</v>
+        <v>1.049680181925941</v>
       </c>
       <c r="M5">
-        <v>1.041148959759346</v>
+        <v>1.052922194170008</v>
       </c>
       <c r="N5">
-        <v>1.011840967287525</v>
+        <v>1.014348966111216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004806894374366</v>
+        <v>1.026451790133882</v>
       </c>
       <c r="D6">
-        <v>1.025656767756514</v>
+        <v>1.036220638853349</v>
       </c>
       <c r="E6">
-        <v>1.025799269602173</v>
+        <v>1.04731608127551</v>
       </c>
       <c r="F6">
-        <v>1.031800263594988</v>
+        <v>1.050564559503928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04854835081166</v>
+        <v>1.032683383360328</v>
       </c>
       <c r="J6">
-        <v>1.02356062534221</v>
+        <v>1.03091518048175</v>
       </c>
       <c r="K6">
-        <v>1.035201553030025</v>
+        <v>1.038643577834213</v>
       </c>
       <c r="L6">
-        <v>1.035342486783086</v>
+        <v>1.049712000606064</v>
       </c>
       <c r="M6">
-        <v>1.041277928142681</v>
+        <v>1.052952684167054</v>
       </c>
       <c r="N6">
-        <v>1.011872392814222</v>
+        <v>1.014356099343942</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003600455555979</v>
+        <v>1.026189759220818</v>
       </c>
       <c r="D7">
-        <v>1.024741857794364</v>
+        <v>1.036018293213043</v>
       </c>
       <c r="E7">
-        <v>1.024634162937894</v>
+        <v>1.04703756045544</v>
       </c>
       <c r="F7">
-        <v>1.030649009647697</v>
+        <v>1.050295368585435</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048246481311536</v>
+        <v>1.032644028185193</v>
       </c>
       <c r="J7">
-        <v>1.022906450433177</v>
+        <v>1.030766818980671</v>
       </c>
       <c r="K7">
-        <v>1.034547662306689</v>
+        <v>1.038501520588415</v>
       </c>
       <c r="L7">
-        <v>1.034441190701758</v>
+        <v>1.049493246029609</v>
       </c>
       <c r="M7">
-        <v>1.040388199938739</v>
+        <v>1.052743030617371</v>
       </c>
       <c r="N7">
-        <v>1.011655507005029</v>
+        <v>1.014307039631119</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9984580437428944</v>
+        <v>1.025095154542803</v>
       </c>
       <c r="D8">
-        <v>1.02084221698584</v>
+        <v>1.035172321286735</v>
       </c>
       <c r="E8">
-        <v>1.019685975908998</v>
+        <v>1.045875608471968</v>
       </c>
       <c r="F8">
-        <v>1.02575290631098</v>
+        <v>1.049171548321055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046928379620366</v>
+        <v>1.032475816689571</v>
       </c>
       <c r="J8">
-        <v>1.020111069620029</v>
+        <v>1.030146025091863</v>
       </c>
       <c r="K8">
-        <v>1.031747078359635</v>
+        <v>1.037906153760223</v>
       </c>
       <c r="L8">
-        <v>1.030605730608589</v>
+        <v>1.048579811959865</v>
       </c>
       <c r="M8">
-        <v>1.036594981269545</v>
+        <v>1.051866759767541</v>
       </c>
       <c r="N8">
-        <v>1.010728666682693</v>
+        <v>1.014101725457729</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9889946764206357</v>
+        <v>1.02316884084701</v>
       </c>
       <c r="D9">
-        <v>1.013669951304228</v>
+        <v>1.033680976691155</v>
       </c>
       <c r="E9">
-        <v>1.01065123208819</v>
+        <v>1.04383658624417</v>
       </c>
       <c r="F9">
-        <v>1.016787746574452</v>
+        <v>1.047196460750341</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044386059638551</v>
+        <v>1.032165468939527</v>
       </c>
       <c r="J9">
-        <v>1.014942137570283</v>
+        <v>1.029049673219147</v>
       </c>
       <c r="K9">
-        <v>1.026545069165069</v>
+        <v>1.036851138025292</v>
       </c>
       <c r="L9">
-        <v>1.023573832237072</v>
+        <v>1.046973810215493</v>
       </c>
       <c r="M9">
-        <v>1.02961420199787</v>
+        <v>1.050322941670483</v>
       </c>
       <c r="N9">
-        <v>1.009014726798237</v>
+        <v>1.013739011807179</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9823893783849914</v>
+        <v>1.021886415571814</v>
       </c>
       <c r="D10">
-        <v>1.008670086242927</v>
+        <v>1.032686428945423</v>
       </c>
       <c r="E10">
-        <v>1.004395406688618</v>
+        <v>1.042483050172753</v>
       </c>
       <c r="F10">
-        <v>1.010563096786982</v>
+        <v>1.045883361586555</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042536072721666</v>
+        <v>1.031949252993863</v>
       </c>
       <c r="J10">
-        <v>1.011319559084875</v>
+        <v>1.028317207943732</v>
       </c>
       <c r="K10">
-        <v>1.022884544438292</v>
+        <v>1.036143908444685</v>
       </c>
       <c r="L10">
-        <v>1.018685751628707</v>
+        <v>1.045905644370269</v>
       </c>
       <c r="M10">
-        <v>1.024744214911353</v>
+        <v>1.049294015785099</v>
       </c>
       <c r="N10">
-        <v>1.007813544110737</v>
+        <v>1.013496606909629</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9794526103853008</v>
+        <v>1.021331553063862</v>
       </c>
       <c r="D11">
-        <v>1.006449412864713</v>
+        <v>1.032255726048248</v>
       </c>
       <c r="E11">
-        <v>1.001626466246101</v>
+        <v>1.041898355078425</v>
       </c>
       <c r="F11">
-        <v>1.007803971196649</v>
+        <v>1.045315658492637</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04169642818284</v>
+        <v>1.031853430235042</v>
       </c>
       <c r="J11">
-        <v>1.009705891601801</v>
+        <v>1.027999686519722</v>
       </c>
       <c r="K11">
-        <v>1.021250719059767</v>
+        <v>1.03583676597853</v>
       </c>
       <c r="L11">
-        <v>1.016517774841028</v>
+        <v>1.045443729301334</v>
       </c>
       <c r="M11">
-        <v>1.022580201561503</v>
+        <v>1.048848567456917</v>
       </c>
       <c r="N11">
-        <v>1.007278503399448</v>
+        <v>1.013391506896466</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9783496753583358</v>
+        <v>1.021125519419062</v>
       </c>
       <c r="D12">
-        <v>1.005615833902411</v>
+        <v>1.032095737042351</v>
       </c>
       <c r="E12">
-        <v>1.000588478410724</v>
+        <v>1.041681384667231</v>
       </c>
       <c r="F12">
-        <v>1.006769068136219</v>
+        <v>1.045104921992129</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041378585262381</v>
+        <v>1.031817507757005</v>
       </c>
       <c r="J12">
-        <v>1.009099444535639</v>
+        <v>1.027881692167234</v>
       </c>
       <c r="K12">
-        <v>1.020636228513081</v>
+        <v>1.035722544643271</v>
       </c>
       <c r="L12">
-        <v>1.015704412780827</v>
+        <v>1.045272246321278</v>
       </c>
       <c r="M12">
-        <v>1.021767722457342</v>
+        <v>1.048683122239674</v>
       </c>
       <c r="N12">
-        <v>1.007077430047796</v>
+        <v>1.013352447896208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9785868153519537</v>
+        <v>1.021169711279862</v>
       </c>
       <c r="D13">
-        <v>1.005795040025894</v>
+        <v>1.032130055504638</v>
       </c>
       <c r="E13">
-        <v>1.00081156678398</v>
+        <v>1.041727915962611</v>
       </c>
       <c r="F13">
-        <v>1.006991520322688</v>
+        <v>1.045150119606416</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041447036171482</v>
+        <v>1.031825228153575</v>
       </c>
       <c r="J13">
-        <v>1.009229853757132</v>
+        <v>1.027907004724619</v>
       </c>
       <c r="K13">
-        <v>1.020768388177455</v>
+        <v>1.035747051592034</v>
       </c>
       <c r="L13">
-        <v>1.015879253242375</v>
+        <v>1.045309025776726</v>
       </c>
       <c r="M13">
-        <v>1.02194240031661</v>
+        <v>1.048718610135537</v>
       </c>
       <c r="N13">
-        <v>1.007120668216356</v>
+        <v>1.013360827090607</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9793616914951878</v>
+        <v>1.021314520883276</v>
       </c>
       <c r="D14">
-        <v>1.006380689015033</v>
+        <v>1.032242501434807</v>
       </c>
       <c r="E14">
-        <v>1.001540861914809</v>
+        <v>1.041880415914032</v>
       </c>
       <c r="F14">
-        <v>1.007718633341081</v>
+        <v>1.045298236209414</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041670277787668</v>
+        <v>1.031850467591376</v>
       </c>
       <c r="J14">
-        <v>1.009655908232228</v>
+        <v>1.027989934139076</v>
       </c>
       <c r="K14">
-        <v>1.021200082130084</v>
+        <v>1.035827327152275</v>
       </c>
       <c r="L14">
-        <v>1.01645070902017</v>
+        <v>1.045429552561896</v>
       </c>
       <c r="M14">
-        <v>1.02251322079307</v>
+        <v>1.048834891406255</v>
       </c>
       <c r="N14">
-        <v>1.00726193081781</v>
+        <v>1.013388278676471</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9798374985591919</v>
+        <v>1.02140375178103</v>
       </c>
       <c r="D15">
-        <v>1.00674035999329</v>
+        <v>1.032311782240255</v>
       </c>
       <c r="E15">
-        <v>1.00198893470545</v>
+        <v>1.041974404231104</v>
       </c>
       <c r="F15">
-        <v>1.008165287103431</v>
+        <v>1.045389513510126</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041807029266067</v>
+        <v>1.031865974787315</v>
       </c>
       <c r="J15">
-        <v>1.009917470129049</v>
+        <v>1.028041022733128</v>
       </c>
       <c r="K15">
-        <v>1.021465045153815</v>
+        <v>1.035876769733575</v>
       </c>
       <c r="L15">
-        <v>1.016801720243617</v>
+        <v>1.045503825440472</v>
       </c>
       <c r="M15">
-        <v>1.022863762265818</v>
+        <v>1.048906538054458</v>
       </c>
       <c r="N15">
-        <v>1.00734865500183</v>
+        <v>1.013405189843615</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9825826191704401</v>
+        <v>1.021923249283271</v>
       </c>
       <c r="D16">
-        <v>1.008816261786299</v>
+        <v>1.03271501222901</v>
       </c>
       <c r="E16">
-        <v>1.004577867813722</v>
+        <v>1.042521884004689</v>
       </c>
       <c r="F16">
-        <v>1.010744828294848</v>
+        <v>1.045921056819015</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042590970384407</v>
+        <v>1.031955566160479</v>
       </c>
       <c r="J16">
-        <v>1.011425679166237</v>
+        <v>1.028338273330768</v>
       </c>
       <c r="K16">
-        <v>1.022991924142119</v>
+        <v>1.036164273478636</v>
       </c>
       <c r="L16">
-        <v>1.018828520157324</v>
+        <v>1.045936313088196</v>
       </c>
       <c r="M16">
-        <v>1.024886638202067</v>
+        <v>1.049323580616772</v>
       </c>
       <c r="N16">
-        <v>1.007848730769181</v>
+        <v>1.013503579198932</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9842836495080688</v>
+        <v>1.022249234140602</v>
       </c>
       <c r="D17">
-        <v>1.010103264742789</v>
+        <v>1.03296793372794</v>
       </c>
       <c r="E17">
-        <v>1.006185432347387</v>
+        <v>1.042865678346218</v>
       </c>
       <c r="F17">
-        <v>1.012345510138453</v>
+        <v>1.046254716148861</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043072272182493</v>
+        <v>1.032011176114363</v>
       </c>
       <c r="J17">
-        <v>1.01235947512555</v>
+        <v>1.028524635475119</v>
       </c>
       <c r="K17">
-        <v>1.023936436157996</v>
+        <v>1.036344375022071</v>
       </c>
       <c r="L17">
-        <v>1.020085870814706</v>
+        <v>1.046207764966995</v>
       </c>
       <c r="M17">
-        <v>1.026140485851342</v>
+        <v>1.049585203849358</v>
       </c>
       <c r="N17">
-        <v>1.008158356022515</v>
+        <v>1.013565259836014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9852684787754828</v>
+        <v>1.022439417570909</v>
       </c>
       <c r="D18">
-        <v>1.010848602662294</v>
+        <v>1.033115452922758</v>
       </c>
       <c r="E18">
-        <v>1.007117327710036</v>
+        <v>1.043066342241344</v>
       </c>
       <c r="F18">
-        <v>1.013273035989858</v>
+        <v>1.046449418532646</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04334929582524</v>
+        <v>1.032043400150718</v>
       </c>
       <c r="J18">
-        <v>1.012899814583637</v>
+        <v>1.028633302630409</v>
       </c>
       <c r="K18">
-        <v>1.024482666228296</v>
+        <v>1.036449337563179</v>
       </c>
       <c r="L18">
-        <v>1.020814327407973</v>
+        <v>1.046366156795873</v>
       </c>
       <c r="M18">
-        <v>1.026866526240602</v>
+        <v>1.049737812191542</v>
       </c>
       <c r="N18">
-        <v>1.008337522197742</v>
+        <v>1.013601223852451</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9856030498091483</v>
+        <v>1.022504272281149</v>
       </c>
       <c r="D19">
-        <v>1.011101846726355</v>
+        <v>1.033165752144592</v>
       </c>
       <c r="E19">
-        <v>1.007434114417548</v>
+        <v>1.043134786197868</v>
       </c>
       <c r="F19">
-        <v>1.013588272812241</v>
+        <v>1.046515821296759</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043443128999431</v>
+        <v>1.032054351676857</v>
       </c>
       <c r="J19">
-        <v>1.013083330747377</v>
+        <v>1.028670349394792</v>
       </c>
       <c r="K19">
-        <v>1.024668129781468</v>
+        <v>1.036485112169612</v>
       </c>
       <c r="L19">
-        <v>1.021061885718631</v>
+        <v>1.046420174199231</v>
       </c>
       <c r="M19">
-        <v>1.027113197648478</v>
+        <v>1.049789848989976</v>
       </c>
       <c r="N19">
-        <v>1.008398372924191</v>
+        <v>1.013613484391454</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9841019096467054</v>
+        <v>1.022214254697803</v>
       </c>
       <c r="D20">
-        <v>1.009965737281744</v>
+        <v>1.032940798214603</v>
       </c>
       <c r="E20">
-        <v>1.006013555832264</v>
+        <v>1.042828778544876</v>
       </c>
       <c r="F20">
-        <v>1.01217440883639</v>
+        <v>1.046218908902419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043021018111485</v>
+        <v>1.032005231646471</v>
       </c>
       <c r="J20">
-        <v>1.012259737341178</v>
+        <v>1.028504644164423</v>
       </c>
       <c r="K20">
-        <v>1.023835585839029</v>
+        <v>1.036325060886188</v>
       </c>
       <c r="L20">
-        <v>1.01995148191988</v>
+        <v>1.046178634683209</v>
       </c>
       <c r="M20">
-        <v>1.026006511426034</v>
+        <v>1.049557133319952</v>
       </c>
       <c r="N20">
-        <v>1.008125285043733</v>
+        <v>1.013558643455441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9791338482986482</v>
+        <v>1.021271876203085</v>
       </c>
       <c r="D21">
-        <v>1.006208473703816</v>
+        <v>1.03220938908344</v>
       </c>
       <c r="E21">
-        <v>1.001326368093469</v>
+        <v>1.041835502629692</v>
       </c>
       <c r="F21">
-        <v>1.007504797643733</v>
+        <v>1.045254615855618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041604704634721</v>
+        <v>1.03184304429878</v>
       </c>
       <c r="J21">
-        <v>1.009530643080291</v>
+        <v>1.027965514940266</v>
       </c>
       <c r="K21">
-        <v>1.021073171605186</v>
+        <v>1.035803691714786</v>
       </c>
       <c r="L21">
-        <v>1.016282655520443</v>
+        <v>1.045394057852514</v>
       </c>
       <c r="M21">
-        <v>1.02234537070458</v>
+        <v>1.048800649067503</v>
       </c>
       <c r="N21">
-        <v>1.007220397753635</v>
+        <v>1.013380195422225</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9759399774645394</v>
+        <v>1.020679753788637</v>
       </c>
       <c r="D22">
-        <v>1.003795479161921</v>
+        <v>1.031749484840475</v>
       </c>
       <c r="E22">
-        <v>0.9983242574952196</v>
+        <v>1.041212214511702</v>
       </c>
       <c r="F22">
-        <v>1.004510488755145</v>
+        <v>1.044649101046103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040679631424749</v>
+        <v>1.031739163909749</v>
       </c>
       <c r="J22">
-        <v>1.007773755263083</v>
+        <v>1.027626238347454</v>
       </c>
       <c r="K22">
-        <v>1.019292119986992</v>
+        <v>1.035475106135013</v>
       </c>
       <c r="L22">
-        <v>1.013928984426082</v>
+        <v>1.044901301177362</v>
       </c>
       <c r="M22">
-        <v>1.019993118430815</v>
+        <v>1.048325099907742</v>
       </c>
       <c r="N22">
-        <v>1.006637896480295</v>
+        <v>1.01326788153757</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9776399700466205</v>
+        <v>1.020993611780043</v>
       </c>
       <c r="D23">
-        <v>1.005079578433324</v>
+        <v>1.031993291807043</v>
       </c>
       <c r="E23">
-        <v>0.999921111181184</v>
+        <v>1.041542514725349</v>
       </c>
       <c r="F23">
-        <v>1.006103517257986</v>
+        <v>1.04497002186629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041173365660337</v>
+        <v>1.031794413322768</v>
       </c>
       <c r="J23">
-        <v>1.008709101893563</v>
+        <v>1.027806123767463</v>
       </c>
       <c r="K23">
-        <v>1.020240579532742</v>
+        <v>1.035649369052835</v>
       </c>
       <c r="L23">
-        <v>1.015181283301278</v>
+        <v>1.045162469315647</v>
       </c>
       <c r="M23">
-        <v>1.021244991456853</v>
+        <v>1.048577189160387</v>
       </c>
       <c r="N23">
-        <v>1.006948009870808</v>
+        <v>1.013327432157805</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.984184052748268</v>
+        <v>1.022230060272775</v>
       </c>
       <c r="D24">
-        <v>1.010027896526692</v>
+        <v>1.032953059602669</v>
       </c>
       <c r="E24">
-        <v>1.006091237229657</v>
+        <v>1.04284545156148</v>
       </c>
       <c r="F24">
-        <v>1.012251741044709</v>
+        <v>1.046235088394773</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043044189077848</v>
+        <v>1.032007918351718</v>
       </c>
       <c r="J24">
-        <v>1.012304817906581</v>
+        <v>1.028513677484651</v>
       </c>
       <c r="K24">
-        <v>1.023881170223381</v>
+        <v>1.036333788383774</v>
       </c>
       <c r="L24">
-        <v>1.020012221701174</v>
+        <v>1.046191797223845</v>
       </c>
       <c r="M24">
-        <v>1.026067065078354</v>
+        <v>1.049569817159562</v>
       </c>
       <c r="N24">
-        <v>1.008140232817161</v>
+        <v>1.013561633154027</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9914914039170588</v>
+        <v>1.023666531263994</v>
       </c>
       <c r="D25">
-        <v>1.015561392609065</v>
+        <v>1.034066588963819</v>
       </c>
       <c r="E25">
-        <v>1.013026358275096</v>
+        <v>1.044362705757357</v>
       </c>
       <c r="F25">
-        <v>1.019147541698986</v>
+        <v>1.04770643727764</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045070076423702</v>
+        <v>1.032247347427805</v>
       </c>
       <c r="J25">
-        <v>1.016308548839053</v>
+        <v>1.029333387404381</v>
       </c>
       <c r="K25">
-        <v>1.027922847091177</v>
+        <v>1.037124575848873</v>
       </c>
       <c r="L25">
-        <v>1.02542576715901</v>
+        <v>1.047388565829344</v>
       </c>
       <c r="M25">
-        <v>1.031455714327817</v>
+        <v>1.050722012213266</v>
       </c>
       <c r="N25">
-        <v>1.009467813126094</v>
+        <v>1.013832888843287</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024813526207424</v>
+        <v>0.9971078212063736</v>
       </c>
       <c r="D2">
-        <v>1.034954486447669</v>
+        <v>1.019818454575244</v>
       </c>
       <c r="E2">
-        <v>1.045577046498844</v>
+        <v>1.018391423306065</v>
       </c>
       <c r="F2">
-        <v>1.048882581683446</v>
+        <v>1.024470265346643</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032431564161194</v>
+        <v>1.046574395056996</v>
       </c>
       <c r="J2">
-        <v>1.029986039473223</v>
+        <v>1.019375382304139</v>
       </c>
       <c r="K2">
-        <v>1.037752478194803</v>
+        <v>1.031008422443538</v>
       </c>
       <c r="L2">
-        <v>1.048344896668772</v>
+        <v>1.029600347197635</v>
       </c>
       <c r="M2">
-        <v>1.051641187459325</v>
+        <v>1.035598900260562</v>
       </c>
       <c r="N2">
-        <v>1.014048805542006</v>
+        <v>1.010484729838822</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02564705675749</v>
+        <v>1.001071692350262</v>
       </c>
       <c r="D3">
-        <v>1.035599000728249</v>
+        <v>1.022824152339186</v>
       </c>
       <c r="E3">
-        <v>1.046461160054676</v>
+        <v>1.022197321209917</v>
       </c>
       <c r="F3">
-        <v>1.049738042079583</v>
+        <v>1.028239149442793</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032561389820101</v>
+        <v>1.047604462826102</v>
       </c>
       <c r="J3">
-        <v>1.030459236348806</v>
+        <v>1.021533184526054</v>
       </c>
       <c r="K3">
-        <v>1.038206725891144</v>
+        <v>1.03317309103495</v>
       </c>
       <c r="L3">
-        <v>1.049040289677001</v>
+        <v>1.032553847573553</v>
       </c>
       <c r="M3">
-        <v>1.052308670455548</v>
+        <v>1.038523018306701</v>
       </c>
       <c r="N3">
-        <v>1.014205319681051</v>
+        <v>1.011200195085783</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02618672696388</v>
+        <v>1.003586439382446</v>
       </c>
       <c r="D4">
-        <v>1.036015951258566</v>
+        <v>1.024731228464085</v>
       </c>
       <c r="E4">
-        <v>1.04703433821752</v>
+        <v>1.024620636648458</v>
       </c>
       <c r="F4">
-        <v>1.050292253851797</v>
+        <v>1.030635640502621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032643570670792</v>
+        <v>1.04824295707156</v>
       </c>
       <c r="J4">
-        <v>1.030765101555332</v>
+        <v>1.022898846482013</v>
       </c>
       <c r="K4">
-        <v>1.038499875618053</v>
+        <v>1.034540058132004</v>
       </c>
       <c r="L4">
-        <v>1.049490714784494</v>
+        <v>1.034430722929125</v>
       </c>
       <c r="M4">
-        <v>1.052740604221164</v>
+        <v>1.040377862707894</v>
       </c>
       <c r="N4">
-        <v>1.014306471700703</v>
+        <v>1.01165298594818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026413679451179</v>
+        <v>1.004632009846408</v>
       </c>
       <c r="D5">
-        <v>1.036191213091241</v>
+        <v>1.02552414426861</v>
       </c>
       <c r="E5">
-        <v>1.047275563276359</v>
+        <v>1.025630273763298</v>
       </c>
       <c r="F5">
-        <v>1.050525403403729</v>
+        <v>1.03163331617659</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032677681673764</v>
+        <v>1.048504774839467</v>
       </c>
       <c r="J5">
-        <v>1.030893608301211</v>
+        <v>1.023465837942199</v>
       </c>
       <c r="K5">
-        <v>1.038622927877364</v>
+        <v>1.035106844373566</v>
       </c>
       <c r="L5">
-        <v>1.049680181925941</v>
+        <v>1.035211800570845</v>
       </c>
       <c r="M5">
-        <v>1.052922194170008</v>
+        <v>1.041148959759346</v>
       </c>
       <c r="N5">
-        <v>1.014348966111216</v>
+        <v>1.011840967287525</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026451790133882</v>
+        <v>1.004806894374367</v>
       </c>
       <c r="D6">
-        <v>1.036220638853349</v>
+        <v>1.025656767756514</v>
       </c>
       <c r="E6">
-        <v>1.04731608127551</v>
+        <v>1.025799269602173</v>
       </c>
       <c r="F6">
-        <v>1.050564559503928</v>
+        <v>1.031800263594988</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032683383360328</v>
+        <v>1.04854835081166</v>
       </c>
       <c r="J6">
-        <v>1.03091518048175</v>
+        <v>1.02356062534221</v>
       </c>
       <c r="K6">
-        <v>1.038643577834213</v>
+        <v>1.035201553030025</v>
       </c>
       <c r="L6">
-        <v>1.049712000606064</v>
+        <v>1.035342486783086</v>
       </c>
       <c r="M6">
-        <v>1.052952684167054</v>
+        <v>1.041277928142681</v>
       </c>
       <c r="N6">
-        <v>1.014356099343942</v>
+        <v>1.011872392814222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026189759220818</v>
+        <v>1.003600455555979</v>
       </c>
       <c r="D7">
-        <v>1.036018293213043</v>
+        <v>1.024741857794364</v>
       </c>
       <c r="E7">
-        <v>1.04703756045544</v>
+        <v>1.024634162937895</v>
       </c>
       <c r="F7">
-        <v>1.050295368585435</v>
+        <v>1.030649009647697</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032644028185193</v>
+        <v>1.048246481311536</v>
       </c>
       <c r="J7">
-        <v>1.030766818980671</v>
+        <v>1.022906450433177</v>
       </c>
       <c r="K7">
-        <v>1.038501520588415</v>
+        <v>1.03454766230669</v>
       </c>
       <c r="L7">
-        <v>1.049493246029609</v>
+        <v>1.034441190701759</v>
       </c>
       <c r="M7">
-        <v>1.052743030617371</v>
+        <v>1.040388199938739</v>
       </c>
       <c r="N7">
-        <v>1.014307039631119</v>
+        <v>1.011655507005029</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025095154542803</v>
+        <v>0.9984580437428959</v>
       </c>
       <c r="D8">
-        <v>1.035172321286735</v>
+        <v>1.020842216985842</v>
       </c>
       <c r="E8">
-        <v>1.045875608471968</v>
+        <v>1.019685975908999</v>
       </c>
       <c r="F8">
-        <v>1.049171548321055</v>
+        <v>1.025752906310981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032475816689571</v>
+        <v>1.046928379620367</v>
       </c>
       <c r="J8">
-        <v>1.030146025091863</v>
+        <v>1.020111069620031</v>
       </c>
       <c r="K8">
-        <v>1.037906153760223</v>
+        <v>1.031747078359637</v>
       </c>
       <c r="L8">
-        <v>1.048579811959865</v>
+        <v>1.03060573060859</v>
       </c>
       <c r="M8">
-        <v>1.051866759767541</v>
+        <v>1.036594981269546</v>
       </c>
       <c r="N8">
-        <v>1.014101725457729</v>
+        <v>1.010728666682693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02316884084701</v>
+        <v>0.9889946764206362</v>
       </c>
       <c r="D9">
-        <v>1.033680976691155</v>
+        <v>1.013669951304229</v>
       </c>
       <c r="E9">
-        <v>1.04383658624417</v>
+        <v>1.010651232088191</v>
       </c>
       <c r="F9">
-        <v>1.047196460750341</v>
+        <v>1.016787746574452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032165468939527</v>
+        <v>1.044386059638551</v>
       </c>
       <c r="J9">
-        <v>1.029049673219147</v>
+        <v>1.014942137570283</v>
       </c>
       <c r="K9">
-        <v>1.036851138025292</v>
+        <v>1.026545069165069</v>
       </c>
       <c r="L9">
-        <v>1.046973810215493</v>
+        <v>1.023573832237073</v>
       </c>
       <c r="M9">
-        <v>1.050322941670483</v>
+        <v>1.02961420199787</v>
       </c>
       <c r="N9">
-        <v>1.013739011807179</v>
+        <v>1.009014726798238</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021886415571814</v>
+        <v>0.9823893783849913</v>
       </c>
       <c r="D10">
-        <v>1.032686428945423</v>
+        <v>1.008670086242927</v>
       </c>
       <c r="E10">
-        <v>1.042483050172753</v>
+        <v>1.004395406688618</v>
       </c>
       <c r="F10">
-        <v>1.045883361586555</v>
+        <v>1.010563096786982</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031949252993863</v>
+        <v>1.042536072721666</v>
       </c>
       <c r="J10">
-        <v>1.028317207943732</v>
+        <v>1.011319559084875</v>
       </c>
       <c r="K10">
-        <v>1.036143908444685</v>
+        <v>1.022884544438292</v>
       </c>
       <c r="L10">
-        <v>1.045905644370269</v>
+        <v>1.018685751628707</v>
       </c>
       <c r="M10">
-        <v>1.049294015785099</v>
+        <v>1.024744214911353</v>
       </c>
       <c r="N10">
-        <v>1.013496606909629</v>
+        <v>1.007813544110737</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021331553063862</v>
+        <v>0.9794526103853004</v>
       </c>
       <c r="D11">
-        <v>1.032255726048248</v>
+        <v>1.006449412864713</v>
       </c>
       <c r="E11">
-        <v>1.041898355078425</v>
+        <v>1.001626466246101</v>
       </c>
       <c r="F11">
-        <v>1.045315658492637</v>
+        <v>1.007803971196648</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031853430235042</v>
+        <v>1.04169642818284</v>
       </c>
       <c r="J11">
-        <v>1.027999686519722</v>
+        <v>1.009705891601801</v>
       </c>
       <c r="K11">
-        <v>1.03583676597853</v>
+        <v>1.021250719059767</v>
       </c>
       <c r="L11">
-        <v>1.045443729301334</v>
+        <v>1.016517774841028</v>
       </c>
       <c r="M11">
-        <v>1.048848567456917</v>
+        <v>1.022580201561502</v>
       </c>
       <c r="N11">
-        <v>1.013391506896466</v>
+        <v>1.007278503399448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021125519419062</v>
+        <v>0.9783496753583361</v>
       </c>
       <c r="D12">
-        <v>1.032095737042351</v>
+        <v>1.005615833902412</v>
       </c>
       <c r="E12">
-        <v>1.041681384667231</v>
+        <v>1.000588478410724</v>
       </c>
       <c r="F12">
-        <v>1.045104921992129</v>
+        <v>1.006769068136219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031817507757005</v>
+        <v>1.041378585262381</v>
       </c>
       <c r="J12">
-        <v>1.027881692167234</v>
+        <v>1.009099444535639</v>
       </c>
       <c r="K12">
-        <v>1.035722544643271</v>
+        <v>1.020636228513081</v>
       </c>
       <c r="L12">
-        <v>1.045272246321278</v>
+        <v>1.015704412780827</v>
       </c>
       <c r="M12">
-        <v>1.048683122239674</v>
+        <v>1.021767722457342</v>
       </c>
       <c r="N12">
-        <v>1.013352447896208</v>
+        <v>1.007077430047796</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021169711279862</v>
+        <v>0.9785868153519537</v>
       </c>
       <c r="D13">
-        <v>1.032130055504638</v>
+        <v>1.005795040025894</v>
       </c>
       <c r="E13">
-        <v>1.041727915962611</v>
+        <v>1.00081156678398</v>
       </c>
       <c r="F13">
-        <v>1.045150119606416</v>
+        <v>1.006991520322688</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031825228153575</v>
+        <v>1.041447036171482</v>
       </c>
       <c r="J13">
-        <v>1.027907004724619</v>
+        <v>1.009229853757132</v>
       </c>
       <c r="K13">
-        <v>1.035747051592034</v>
+        <v>1.020768388177455</v>
       </c>
       <c r="L13">
-        <v>1.045309025776726</v>
+        <v>1.015879253242375</v>
       </c>
       <c r="M13">
-        <v>1.048718610135537</v>
+        <v>1.02194240031661</v>
       </c>
       <c r="N13">
-        <v>1.013360827090607</v>
+        <v>1.007120668216356</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021314520883276</v>
+        <v>0.979361691495188</v>
       </c>
       <c r="D14">
-        <v>1.032242501434807</v>
+        <v>1.006380689015033</v>
       </c>
       <c r="E14">
-        <v>1.041880415914032</v>
+        <v>1.001540861914809</v>
       </c>
       <c r="F14">
-        <v>1.045298236209414</v>
+        <v>1.007718633341081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031850467591376</v>
+        <v>1.041670277787668</v>
       </c>
       <c r="J14">
-        <v>1.027989934139076</v>
+        <v>1.009655908232229</v>
       </c>
       <c r="K14">
-        <v>1.035827327152275</v>
+        <v>1.021200082130085</v>
       </c>
       <c r="L14">
-        <v>1.045429552561896</v>
+        <v>1.016450709020171</v>
       </c>
       <c r="M14">
-        <v>1.048834891406255</v>
+        <v>1.02251322079307</v>
       </c>
       <c r="N14">
-        <v>1.013388278676471</v>
+        <v>1.007261930817811</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02140375178103</v>
+        <v>0.979837498559192</v>
       </c>
       <c r="D15">
-        <v>1.032311782240255</v>
+        <v>1.006740359993291</v>
       </c>
       <c r="E15">
-        <v>1.041974404231104</v>
+        <v>1.00198893470545</v>
       </c>
       <c r="F15">
-        <v>1.045389513510126</v>
+        <v>1.008165287103431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031865974787315</v>
+        <v>1.041807029266068</v>
       </c>
       <c r="J15">
-        <v>1.028041022733128</v>
+        <v>1.00991747012905</v>
       </c>
       <c r="K15">
-        <v>1.035876769733575</v>
+        <v>1.021465045153815</v>
       </c>
       <c r="L15">
-        <v>1.045503825440472</v>
+        <v>1.016801720243616</v>
       </c>
       <c r="M15">
-        <v>1.048906538054458</v>
+        <v>1.022863762265819</v>
       </c>
       <c r="N15">
-        <v>1.013405189843615</v>
+        <v>1.00734865500183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021923249283271</v>
+        <v>0.9825826191704404</v>
       </c>
       <c r="D16">
-        <v>1.03271501222901</v>
+        <v>1.008816261786299</v>
       </c>
       <c r="E16">
-        <v>1.042521884004689</v>
+        <v>1.004577867813723</v>
       </c>
       <c r="F16">
-        <v>1.045921056819015</v>
+        <v>1.010744828294848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031955566160479</v>
+        <v>1.042590970384407</v>
       </c>
       <c r="J16">
-        <v>1.028338273330768</v>
+        <v>1.011425679166238</v>
       </c>
       <c r="K16">
-        <v>1.036164273478636</v>
+        <v>1.022991924142119</v>
       </c>
       <c r="L16">
-        <v>1.045936313088196</v>
+        <v>1.018828520157324</v>
       </c>
       <c r="M16">
-        <v>1.049323580616772</v>
+        <v>1.024886638202067</v>
       </c>
       <c r="N16">
-        <v>1.013503579198932</v>
+        <v>1.007848730769181</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022249234140602</v>
+        <v>0.984283649508069</v>
       </c>
       <c r="D17">
-        <v>1.03296793372794</v>
+        <v>1.010103264742789</v>
       </c>
       <c r="E17">
-        <v>1.042865678346218</v>
+        <v>1.006185432347387</v>
       </c>
       <c r="F17">
-        <v>1.046254716148861</v>
+        <v>1.012345510138453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032011176114363</v>
+        <v>1.043072272182493</v>
       </c>
       <c r="J17">
-        <v>1.028524635475119</v>
+        <v>1.01235947512555</v>
       </c>
       <c r="K17">
-        <v>1.036344375022071</v>
+        <v>1.023936436157997</v>
       </c>
       <c r="L17">
-        <v>1.046207764966995</v>
+        <v>1.020085870814706</v>
       </c>
       <c r="M17">
-        <v>1.049585203849358</v>
+        <v>1.026140485851342</v>
       </c>
       <c r="N17">
-        <v>1.013565259836014</v>
+        <v>1.008158356022515</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022439417570909</v>
+        <v>0.985268478775484</v>
       </c>
       <c r="D18">
-        <v>1.033115452922758</v>
+        <v>1.010848602662294</v>
       </c>
       <c r="E18">
-        <v>1.043066342241344</v>
+        <v>1.007117327710037</v>
       </c>
       <c r="F18">
-        <v>1.046449418532646</v>
+        <v>1.013273035989859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032043400150718</v>
+        <v>1.04334929582524</v>
       </c>
       <c r="J18">
-        <v>1.028633302630409</v>
+        <v>1.012899814583638</v>
       </c>
       <c r="K18">
-        <v>1.036449337563179</v>
+        <v>1.024482666228297</v>
       </c>
       <c r="L18">
-        <v>1.046366156795873</v>
+        <v>1.020814327407974</v>
       </c>
       <c r="M18">
-        <v>1.049737812191542</v>
+        <v>1.026866526240604</v>
       </c>
       <c r="N18">
-        <v>1.013601223852451</v>
+        <v>1.008337522197743</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022504272281149</v>
+        <v>0.9856030498091488</v>
       </c>
       <c r="D19">
-        <v>1.033165752144592</v>
+        <v>1.011101846726356</v>
       </c>
       <c r="E19">
-        <v>1.043134786197868</v>
+        <v>1.007434114417549</v>
       </c>
       <c r="F19">
-        <v>1.046515821296759</v>
+        <v>1.013588272812241</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032054351676857</v>
+        <v>1.043443128999431</v>
       </c>
       <c r="J19">
-        <v>1.028670349394792</v>
+        <v>1.013083330747377</v>
       </c>
       <c r="K19">
-        <v>1.036485112169612</v>
+        <v>1.024668129781469</v>
       </c>
       <c r="L19">
-        <v>1.046420174199231</v>
+        <v>1.021061885718631</v>
       </c>
       <c r="M19">
-        <v>1.049789848989976</v>
+        <v>1.027113197648478</v>
       </c>
       <c r="N19">
-        <v>1.013613484391454</v>
+        <v>1.008398372924191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022214254697803</v>
+        <v>0.9841019096467056</v>
       </c>
       <c r="D20">
-        <v>1.032940798214603</v>
+        <v>1.009965737281745</v>
       </c>
       <c r="E20">
-        <v>1.042828778544876</v>
+        <v>1.006013555832264</v>
       </c>
       <c r="F20">
-        <v>1.046218908902419</v>
+        <v>1.012174408836391</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032005231646471</v>
+        <v>1.043021018111486</v>
       </c>
       <c r="J20">
-        <v>1.028504644164423</v>
+        <v>1.012259737341178</v>
       </c>
       <c r="K20">
-        <v>1.036325060886188</v>
+        <v>1.02383558583903</v>
       </c>
       <c r="L20">
-        <v>1.046178634683209</v>
+        <v>1.01995148191988</v>
       </c>
       <c r="M20">
-        <v>1.049557133319952</v>
+        <v>1.026006511426035</v>
       </c>
       <c r="N20">
-        <v>1.013558643455441</v>
+        <v>1.008125285043734</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021271876203085</v>
+        <v>0.9791338482986482</v>
       </c>
       <c r="D21">
-        <v>1.03220938908344</v>
+        <v>1.006208473703817</v>
       </c>
       <c r="E21">
-        <v>1.041835502629692</v>
+        <v>1.001326368093469</v>
       </c>
       <c r="F21">
-        <v>1.045254615855618</v>
+        <v>1.007504797643733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03184304429878</v>
+        <v>1.041604704634721</v>
       </c>
       <c r="J21">
-        <v>1.027965514940266</v>
+        <v>1.009530643080291</v>
       </c>
       <c r="K21">
-        <v>1.035803691714786</v>
+        <v>1.021073171605186</v>
       </c>
       <c r="L21">
-        <v>1.045394057852514</v>
+        <v>1.016282655520444</v>
       </c>
       <c r="M21">
-        <v>1.048800649067503</v>
+        <v>1.022345370704581</v>
       </c>
       <c r="N21">
-        <v>1.013380195422225</v>
+        <v>1.007220397753635</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020679753788637</v>
+        <v>0.9759399774645389</v>
       </c>
       <c r="D22">
-        <v>1.031749484840475</v>
+        <v>1.00379547916192</v>
       </c>
       <c r="E22">
-        <v>1.041212214511702</v>
+        <v>0.9983242574952189</v>
       </c>
       <c r="F22">
-        <v>1.044649101046103</v>
+        <v>1.004510488755144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031739163909749</v>
+        <v>1.040679631424749</v>
       </c>
       <c r="J22">
-        <v>1.027626238347454</v>
+        <v>1.007773755263083</v>
       </c>
       <c r="K22">
-        <v>1.035475106135013</v>
+        <v>1.019292119986992</v>
       </c>
       <c r="L22">
-        <v>1.044901301177362</v>
+        <v>1.013928984426081</v>
       </c>
       <c r="M22">
-        <v>1.048325099907742</v>
+        <v>1.019993118430814</v>
       </c>
       <c r="N22">
-        <v>1.01326788153757</v>
+        <v>1.006637896480295</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020993611780043</v>
+        <v>0.9776399700466201</v>
       </c>
       <c r="D23">
-        <v>1.031993291807043</v>
+        <v>1.005079578433324</v>
       </c>
       <c r="E23">
-        <v>1.041542514725349</v>
+        <v>0.9999211111811839</v>
       </c>
       <c r="F23">
-        <v>1.04497002186629</v>
+        <v>1.006103517257986</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031794413322768</v>
+        <v>1.041173365660336</v>
       </c>
       <c r="J23">
-        <v>1.027806123767463</v>
+        <v>1.008709101893562</v>
       </c>
       <c r="K23">
-        <v>1.035649369052835</v>
+        <v>1.020240579532742</v>
       </c>
       <c r="L23">
-        <v>1.045162469315647</v>
+        <v>1.015181283301278</v>
       </c>
       <c r="M23">
-        <v>1.048577189160387</v>
+        <v>1.021244991456852</v>
       </c>
       <c r="N23">
-        <v>1.013327432157805</v>
+        <v>1.006948009870808</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022230060272775</v>
+        <v>0.9841840527482683</v>
       </c>
       <c r="D24">
-        <v>1.032953059602669</v>
+        <v>1.010027896526691</v>
       </c>
       <c r="E24">
-        <v>1.04284545156148</v>
+        <v>1.006091237229657</v>
       </c>
       <c r="F24">
-        <v>1.046235088394773</v>
+        <v>1.012251741044709</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032007918351718</v>
+        <v>1.043044189077848</v>
       </c>
       <c r="J24">
-        <v>1.028513677484651</v>
+        <v>1.012304817906581</v>
       </c>
       <c r="K24">
-        <v>1.036333788383774</v>
+        <v>1.023881170223381</v>
       </c>
       <c r="L24">
-        <v>1.046191797223845</v>
+        <v>1.020012221701175</v>
       </c>
       <c r="M24">
-        <v>1.049569817159562</v>
+        <v>1.026067065078354</v>
       </c>
       <c r="N24">
-        <v>1.013561633154027</v>
+        <v>1.008140232817161</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023666531263994</v>
+        <v>0.9914914039170585</v>
       </c>
       <c r="D25">
-        <v>1.034066588963819</v>
+        <v>1.015561392609064</v>
       </c>
       <c r="E25">
-        <v>1.044362705757357</v>
+        <v>1.013026358275095</v>
       </c>
       <c r="F25">
-        <v>1.04770643727764</v>
+        <v>1.019147541698985</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032247347427805</v>
+        <v>1.045070076423702</v>
       </c>
       <c r="J25">
-        <v>1.029333387404381</v>
+        <v>1.016308548839052</v>
       </c>
       <c r="K25">
-        <v>1.037124575848873</v>
+        <v>1.027922847091176</v>
       </c>
       <c r="L25">
-        <v>1.047388565829344</v>
+        <v>1.02542576715901</v>
       </c>
       <c r="M25">
-        <v>1.050722012213266</v>
+        <v>1.031455714327816</v>
       </c>
       <c r="N25">
-        <v>1.013832888843287</v>
+        <v>1.009467813126093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9971078212063736</v>
+        <v>1.000681274610136</v>
       </c>
       <c r="D2">
-        <v>1.019818454575244</v>
+        <v>1.024671374775867</v>
       </c>
       <c r="E2">
-        <v>1.018391423306065</v>
+        <v>1.02410072226992</v>
       </c>
       <c r="F2">
-        <v>1.024470265346643</v>
+        <v>1.031979515895586</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046574395056996</v>
+        <v>1.044905125646249</v>
       </c>
       <c r="J2">
-        <v>1.019375382304139</v>
+        <v>1.022841627947578</v>
       </c>
       <c r="K2">
-        <v>1.031008422443538</v>
+        <v>1.0357973738505</v>
       </c>
       <c r="L2">
-        <v>1.029600347197635</v>
+        <v>1.035234203980174</v>
       </c>
       <c r="M2">
-        <v>1.035598900260562</v>
+        <v>1.043010602654892</v>
       </c>
       <c r="N2">
-        <v>1.010484729838822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011533347434908</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042612394458854</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036382096372588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001071692350262</v>
+        <v>1.004064058534363</v>
       </c>
       <c r="D3">
-        <v>1.022824152339186</v>
+        <v>1.026899582485013</v>
       </c>
       <c r="E3">
-        <v>1.022197321209917</v>
+        <v>1.027019523192956</v>
       </c>
       <c r="F3">
-        <v>1.028239149442793</v>
+        <v>1.03459142788179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047604462826102</v>
+        <v>1.045391433869524</v>
       </c>
       <c r="J3">
-        <v>1.021533184526054</v>
+        <v>1.024444543025033</v>
       </c>
       <c r="K3">
-        <v>1.03317309103495</v>
+        <v>1.037199469137734</v>
       </c>
       <c r="L3">
-        <v>1.032553847573553</v>
+        <v>1.037317973549571</v>
       </c>
       <c r="M3">
-        <v>1.038523018306701</v>
+        <v>1.044800038925609</v>
       </c>
       <c r="N3">
-        <v>1.011200195085783</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012077129952025</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04402860777616</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037370831802495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003586439382446</v>
+        <v>1.006217724849284</v>
       </c>
       <c r="D4">
-        <v>1.024731228464085</v>
+        <v>1.02832156066019</v>
       </c>
       <c r="E4">
-        <v>1.024620636648458</v>
+        <v>1.028886668399626</v>
       </c>
       <c r="F4">
-        <v>1.030635640502621</v>
+        <v>1.036261364273232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04824295707156</v>
+        <v>1.045691425810565</v>
       </c>
       <c r="J4">
-        <v>1.022898846482013</v>
+        <v>1.025463706871085</v>
       </c>
       <c r="K4">
-        <v>1.034540058132004</v>
+        <v>1.03808977563653</v>
       </c>
       <c r="L4">
-        <v>1.034430722929125</v>
+        <v>1.038648522545444</v>
       </c>
       <c r="M4">
-        <v>1.040377862707894</v>
+        <v>1.045940991144058</v>
       </c>
       <c r="N4">
-        <v>1.01165298594818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01242279441983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044931590008441</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038001256035597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004632009846408</v>
+        <v>1.007117576862945</v>
       </c>
       <c r="D5">
-        <v>1.02552414426861</v>
+        <v>1.028918238894225</v>
       </c>
       <c r="E5">
-        <v>1.025630273763298</v>
+        <v>1.029668654188502</v>
       </c>
       <c r="F5">
-        <v>1.03163331617659</v>
+        <v>1.03696099646687</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048504774839467</v>
+        <v>1.045815658495594</v>
       </c>
       <c r="J5">
-        <v>1.023465837942199</v>
+        <v>1.025890528434027</v>
       </c>
       <c r="K5">
-        <v>1.035106844373566</v>
+        <v>1.038463563422384</v>
       </c>
       <c r="L5">
-        <v>1.035211800570845</v>
+        <v>1.039205756033259</v>
       </c>
       <c r="M5">
-        <v>1.041148959759346</v>
+        <v>1.046418952147127</v>
       </c>
       <c r="N5">
-        <v>1.011840967287525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012567746746452</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045309861691357</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038272743758597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004806894374367</v>
+        <v>1.007271423915919</v>
       </c>
       <c r="D6">
-        <v>1.025656767756514</v>
+        <v>1.029022444671683</v>
       </c>
       <c r="E6">
-        <v>1.025799269602173</v>
+        <v>1.029802166792503</v>
       </c>
       <c r="F6">
-        <v>1.031800263594988</v>
+        <v>1.037080992049232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04854835081166</v>
+        <v>1.045838262753788</v>
       </c>
       <c r="J6">
-        <v>1.02356062534221</v>
+        <v>1.02596510293487</v>
       </c>
       <c r="K6">
-        <v>1.035201553030025</v>
+        <v>1.038530336405554</v>
       </c>
       <c r="L6">
-        <v>1.035342486783086</v>
+        <v>1.039301553677248</v>
       </c>
       <c r="M6">
-        <v>1.041277928142681</v>
+        <v>1.046501740763539</v>
       </c>
       <c r="N6">
-        <v>1.011872392814222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012593328555626</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045375382894086</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038328722656727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003600455555979</v>
+        <v>1.006238472927537</v>
       </c>
       <c r="D7">
-        <v>1.024741857794364</v>
+        <v>1.028341058521124</v>
       </c>
       <c r="E7">
-        <v>1.024634162937895</v>
+        <v>1.028903881288988</v>
       </c>
       <c r="F7">
-        <v>1.030649009647697</v>
+        <v>1.036278239500716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048246481311536</v>
+        <v>1.045698330966206</v>
       </c>
       <c r="J7">
-        <v>1.022906450433177</v>
+        <v>1.025477900242552</v>
       </c>
       <c r="K7">
-        <v>1.03454766230669</v>
+        <v>1.038106163078564</v>
       </c>
       <c r="L7">
-        <v>1.034441190701759</v>
+        <v>1.038662653126982</v>
       </c>
       <c r="M7">
-        <v>1.040388199938739</v>
+        <v>1.045954818564855</v>
       </c>
       <c r="N7">
-        <v>1.011655507005029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012428314779698</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044942533418075</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03803300231773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984580437428959</v>
+        <v>1.00184279274742</v>
       </c>
       <c r="D8">
-        <v>1.020842216985842</v>
+        <v>1.025442815230069</v>
       </c>
       <c r="E8">
-        <v>1.019685975908999</v>
+        <v>1.025100149826704</v>
       </c>
       <c r="F8">
-        <v>1.025752906310981</v>
+        <v>1.032875789254774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046928379620367</v>
+        <v>1.045079033682564</v>
       </c>
       <c r="J8">
-        <v>1.020111069620031</v>
+        <v>1.023397674219455</v>
       </c>
       <c r="K8">
-        <v>1.031747078359637</v>
+        <v>1.036288832692493</v>
       </c>
       <c r="L8">
-        <v>1.03060573060859</v>
+        <v>1.035950527408538</v>
       </c>
       <c r="M8">
-        <v>1.036594981269546</v>
+        <v>1.043628116138983</v>
       </c>
       <c r="N8">
-        <v>1.010728666682693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01172291850778</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043101113387343</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036752569233959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9889946764206362</v>
+        <v>0.9938026877782581</v>
       </c>
       <c r="D9">
-        <v>1.013669951304229</v>
+        <v>1.020161053374568</v>
       </c>
       <c r="E9">
-        <v>1.010651232088191</v>
+        <v>1.018215684302846</v>
       </c>
       <c r="F9">
-        <v>1.016787746574452</v>
+        <v>1.026708596023972</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044386059638551</v>
+        <v>1.04386552434382</v>
       </c>
       <c r="J9">
-        <v>1.014942137570283</v>
+        <v>1.019576203298093</v>
       </c>
       <c r="K9">
-        <v>1.026545069165069</v>
+        <v>1.032935286064567</v>
       </c>
       <c r="L9">
-        <v>1.023573832237073</v>
+        <v>1.031019979629436</v>
       </c>
       <c r="M9">
-        <v>1.02961420199787</v>
+        <v>1.039382713327698</v>
       </c>
       <c r="N9">
-        <v>1.009014726798238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01042530747153</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039741165986881</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034378193776895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9823893783849913</v>
+        <v>0.9882858431859198</v>
       </c>
       <c r="D10">
-        <v>1.008670086242927</v>
+        <v>1.016581112113625</v>
       </c>
       <c r="E10">
-        <v>1.004395406688618</v>
+        <v>1.013595614386202</v>
       </c>
       <c r="F10">
-        <v>1.010563096786982</v>
+        <v>1.022588167352424</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042536072721666</v>
+        <v>1.043001550477659</v>
       </c>
       <c r="J10">
-        <v>1.011319559084875</v>
+        <v>1.016972060551961</v>
       </c>
       <c r="K10">
-        <v>1.022884544438292</v>
+        <v>1.030657306878279</v>
       </c>
       <c r="L10">
-        <v>1.018685751628707</v>
+        <v>1.027723659288733</v>
       </c>
       <c r="M10">
-        <v>1.024744214911353</v>
+        <v>1.036561220444622</v>
       </c>
       <c r="N10">
-        <v>1.007813544110737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009543894213966</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037559633500448</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032784379730814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9794526103853004</v>
+        <v>0.9862191795130144</v>
       </c>
       <c r="D11">
-        <v>1.006449412864713</v>
+        <v>1.015420002278197</v>
       </c>
       <c r="E11">
-        <v>1.001626466246101</v>
+        <v>1.01230799266359</v>
       </c>
       <c r="F11">
-        <v>1.007803971196648</v>
+        <v>1.021618030723991</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04169642818284</v>
+        <v>1.042794603107513</v>
       </c>
       <c r="J11">
-        <v>1.009705891601801</v>
+        <v>1.016176710878007</v>
       </c>
       <c r="K11">
-        <v>1.021250719059767</v>
+        <v>1.030056863245072</v>
       </c>
       <c r="L11">
-        <v>1.016517774841028</v>
+        <v>1.027001471936123</v>
       </c>
       <c r="M11">
-        <v>1.022580201561502</v>
+        <v>1.036143462050695</v>
       </c>
       <c r="N11">
-        <v>1.007278503399448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009300164679345</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037665642237786</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03239279713224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9783496753583361</v>
+        <v>0.9855819363440271</v>
       </c>
       <c r="D12">
-        <v>1.005615833902412</v>
+        <v>1.015136013606854</v>
       </c>
       <c r="E12">
-        <v>1.000588478410724</v>
+        <v>1.012104096356178</v>
       </c>
       <c r="F12">
-        <v>1.006769068136219</v>
+        <v>1.021566342825656</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041378585262381</v>
+        <v>1.042782814942924</v>
       </c>
       <c r="J12">
-        <v>1.009099444535639</v>
+        <v>1.016009282211689</v>
       </c>
       <c r="K12">
-        <v>1.020636228513081</v>
+        <v>1.029978865245047</v>
       </c>
       <c r="L12">
-        <v>1.015704412780827</v>
+        <v>1.027003017833122</v>
       </c>
       <c r="M12">
-        <v>1.021767722457342</v>
+        <v>1.036291709692476</v>
       </c>
       <c r="N12">
-        <v>1.007077430047796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009263967310223</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038109520380892</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032337649667535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9785868153519537</v>
+        <v>0.9860129455834613</v>
       </c>
       <c r="D13">
-        <v>1.005795040025894</v>
+        <v>1.015522204893994</v>
       </c>
       <c r="E13">
-        <v>1.00081156678398</v>
+        <v>1.012732069418093</v>
       </c>
       <c r="F13">
-        <v>1.006991520322688</v>
+        <v>1.0222357914778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041447036171482</v>
+        <v>1.042931394538217</v>
       </c>
       <c r="J13">
-        <v>1.009229853757132</v>
+        <v>1.016326455295816</v>
       </c>
       <c r="K13">
-        <v>1.020768388177455</v>
+        <v>1.030314889446074</v>
       </c>
       <c r="L13">
-        <v>1.015879253242375</v>
+        <v>1.027576112740211</v>
       </c>
       <c r="M13">
-        <v>1.02194240031661</v>
+        <v>1.036906390651513</v>
       </c>
       <c r="N13">
-        <v>1.007120668216356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009390240152132</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038872333395807</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032572730248143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.979361691495188</v>
+        <v>0.9867998820412546</v>
       </c>
       <c r="D14">
-        <v>1.006380689015033</v>
+        <v>1.016097622642175</v>
       </c>
       <c r="E14">
-        <v>1.001540861914809</v>
+        <v>1.013548037820921</v>
       </c>
       <c r="F14">
-        <v>1.007718633341081</v>
+        <v>1.023031285629234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041670277787668</v>
+        <v>1.043108386214673</v>
       </c>
       <c r="J14">
-        <v>1.009655908232229</v>
+        <v>1.016768757383975</v>
       </c>
       <c r="K14">
-        <v>1.021200082130085</v>
+        <v>1.030738794580136</v>
       </c>
       <c r="L14">
-        <v>1.016450709020171</v>
+        <v>1.02823554206196</v>
       </c>
       <c r="M14">
-        <v>1.02251322079307</v>
+        <v>1.037547971619756</v>
       </c>
       <c r="N14">
-        <v>1.007261930817811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009552612352493</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03955285226533</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032873876211591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.979837498559192</v>
+        <v>0.9872273520100773</v>
       </c>
       <c r="D15">
-        <v>1.006740359993291</v>
+        <v>1.016389870939816</v>
       </c>
       <c r="E15">
-        <v>1.00198893470545</v>
+        <v>1.013937423807856</v>
       </c>
       <c r="F15">
-        <v>1.008165287103431</v>
+        <v>1.023394395451065</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041807029266068</v>
+        <v>1.043189246239092</v>
       </c>
       <c r="J15">
-        <v>1.00991747012905</v>
+        <v>1.016986943322521</v>
       </c>
       <c r="K15">
-        <v>1.021465045153815</v>
+        <v>1.030938930026444</v>
       </c>
       <c r="L15">
-        <v>1.016801720243616</v>
+        <v>1.028530706705555</v>
       </c>
       <c r="M15">
-        <v>1.022863762265819</v>
+        <v>1.037818658860634</v>
       </c>
       <c r="N15">
-        <v>1.00734865500183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009629425994583</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039804344058657</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033021268982441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9825826191704404</v>
+        <v>0.9894756847908099</v>
       </c>
       <c r="D16">
-        <v>1.008816261786299</v>
+        <v>1.017832482030318</v>
       </c>
       <c r="E16">
-        <v>1.004577867813723</v>
+        <v>1.015777576816169</v>
       </c>
       <c r="F16">
-        <v>1.010744828294848</v>
+        <v>1.025031806739939</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042590970384407</v>
+        <v>1.043541224195843</v>
       </c>
       <c r="J16">
-        <v>1.011425679166238</v>
+        <v>1.018035028989014</v>
       </c>
       <c r="K16">
-        <v>1.022991924142119</v>
+        <v>1.03185130596415</v>
       </c>
       <c r="L16">
-        <v>1.018828520157324</v>
+        <v>1.029831829222697</v>
       </c>
       <c r="M16">
-        <v>1.024886638202067</v>
+        <v>1.038927953398995</v>
       </c>
       <c r="N16">
-        <v>1.007848730769181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009980714704179</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040642407977625</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033669532813822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.984283649508069</v>
+        <v>0.9907904879874573</v>
       </c>
       <c r="D17">
-        <v>1.010103264742789</v>
+        <v>1.018639288953701</v>
       </c>
       <c r="E17">
-        <v>1.006185432347387</v>
+        <v>1.01676227399784</v>
       </c>
       <c r="F17">
-        <v>1.012345510138453</v>
+        <v>1.025868297835111</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043072272182493</v>
+        <v>1.043716060577481</v>
       </c>
       <c r="J17">
-        <v>1.01235947512555</v>
+        <v>1.018607233097928</v>
       </c>
       <c r="K17">
-        <v>1.023936436157997</v>
+        <v>1.032328210566265</v>
       </c>
       <c r="L17">
-        <v>1.020085870814706</v>
+        <v>1.030482647336244</v>
       </c>
       <c r="M17">
-        <v>1.026140485851342</v>
+        <v>1.039437471100066</v>
       </c>
       <c r="N17">
-        <v>1.008158356022515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010165017923736</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040916100750806</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034009321316048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.985268478775484</v>
+        <v>0.9914183006178684</v>
       </c>
       <c r="D18">
-        <v>1.010848602662294</v>
+        <v>1.018956544424856</v>
       </c>
       <c r="E18">
-        <v>1.007117327710037</v>
+        <v>1.017070914351736</v>
       </c>
       <c r="F18">
-        <v>1.013273035989859</v>
+        <v>1.026053994654097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04334929582524</v>
+        <v>1.043748590286613</v>
       </c>
       <c r="J18">
-        <v>1.012899814583638</v>
+        <v>1.018809480996929</v>
       </c>
       <c r="K18">
-        <v>1.024482666228297</v>
+        <v>1.032455893652263</v>
       </c>
       <c r="L18">
-        <v>1.020814327407974</v>
+        <v>1.030601346860791</v>
       </c>
       <c r="M18">
-        <v>1.026866526240604</v>
+        <v>1.039437662255971</v>
       </c>
       <c r="N18">
-        <v>1.008337522197743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010217346079128</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040678542078601</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034087926939743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9856030498091488</v>
+        <v>0.9914376264544434</v>
       </c>
       <c r="D19">
-        <v>1.011101846726356</v>
+        <v>1.018848825484504</v>
       </c>
       <c r="E19">
-        <v>1.007434114417549</v>
+        <v>1.016775207265106</v>
       </c>
       <c r="F19">
-        <v>1.013588272812241</v>
+        <v>1.025659532581463</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043443128999431</v>
+        <v>1.043663043275778</v>
       </c>
       <c r="J19">
-        <v>1.013083330747377</v>
+        <v>1.018691514371185</v>
       </c>
       <c r="K19">
-        <v>1.024668129781469</v>
+        <v>1.032287103678041</v>
       </c>
       <c r="L19">
-        <v>1.021061885718631</v>
+        <v>1.030247502361328</v>
       </c>
       <c r="M19">
-        <v>1.027113197648478</v>
+        <v>1.03898732543589</v>
       </c>
       <c r="N19">
-        <v>1.008398372924191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010158009900887</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039996895615362</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033975001150754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9841019096467056</v>
+        <v>0.9897369203269036</v>
       </c>
       <c r="D20">
-        <v>1.009965737281745</v>
+        <v>1.017536161664183</v>
       </c>
       <c r="E20">
-        <v>1.006013555832264</v>
+        <v>1.014808421153609</v>
       </c>
       <c r="F20">
-        <v>1.012174408836391</v>
+        <v>1.023674479588217</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043021018111486</v>
+        <v>1.043242598003661</v>
       </c>
       <c r="J20">
-        <v>1.012259737341178</v>
+        <v>1.017669280669075</v>
       </c>
       <c r="K20">
-        <v>1.02383558583903</v>
+        <v>1.031277511549469</v>
       </c>
       <c r="L20">
-        <v>1.01995148191988</v>
+        <v>1.028595785962432</v>
       </c>
       <c r="M20">
-        <v>1.026006511426035</v>
+        <v>1.037313435106195</v>
       </c>
       <c r="N20">
-        <v>1.008125285043734</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009782118731711</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038144372007145</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03326510957885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9791338482986482</v>
+        <v>0.9855313398432453</v>
       </c>
       <c r="D21">
-        <v>1.006208473703817</v>
+        <v>1.014779866299584</v>
       </c>
       <c r="E21">
-        <v>1.001326368093469</v>
+        <v>1.011222372894707</v>
       </c>
       <c r="F21">
-        <v>1.007504797643733</v>
+        <v>1.020439091645158</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041604704634721</v>
+        <v>1.042542376573863</v>
       </c>
       <c r="J21">
-        <v>1.009530643080291</v>
+        <v>1.01564669749316</v>
       </c>
       <c r="K21">
-        <v>1.021073171605186</v>
+        <v>1.029486537308301</v>
       </c>
       <c r="L21">
-        <v>1.016282655520444</v>
+        <v>1.025994208095411</v>
       </c>
       <c r="M21">
-        <v>1.022345370704581</v>
+        <v>1.035043316692481</v>
       </c>
       <c r="N21">
-        <v>1.007220397753635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009092699388234</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036306812638853</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0320020518252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9759399774645389</v>
+        <v>0.9828526506780381</v>
       </c>
       <c r="D22">
-        <v>1.00379547916192</v>
+        <v>1.013034590640021</v>
       </c>
       <c r="E22">
-        <v>0.9983242574952189</v>
+        <v>1.008977074039651</v>
       </c>
       <c r="F22">
-        <v>1.004510488755144</v>
+        <v>1.018422408150689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040679631424749</v>
+        <v>1.042090779987662</v>
       </c>
       <c r="J22">
-        <v>1.007773755263083</v>
+        <v>1.014364353635476</v>
       </c>
       <c r="K22">
-        <v>1.019292119986992</v>
+        <v>1.02835217794294</v>
       </c>
       <c r="L22">
-        <v>1.013928984426081</v>
+        <v>1.024372766628682</v>
       </c>
       <c r="M22">
-        <v>1.019993118430814</v>
+        <v>1.033637539419005</v>
       </c>
       <c r="N22">
-        <v>1.006637896480295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008656094806394</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035194226786283</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031186446291511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9776399700466201</v>
+        <v>0.9842691574481818</v>
       </c>
       <c r="D23">
-        <v>1.005079578433324</v>
+        <v>1.013951953693511</v>
       </c>
       <c r="E23">
-        <v>0.9999211111811839</v>
+        <v>1.010163673841435</v>
       </c>
       <c r="F23">
-        <v>1.006103517257986</v>
+        <v>1.019487228142302</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041173365660336</v>
+        <v>1.042327051217186</v>
       </c>
       <c r="J23">
-        <v>1.008709101893562</v>
+        <v>1.015038620580925</v>
       </c>
       <c r="K23">
-        <v>1.020240579532742</v>
+        <v>1.028945464317966</v>
       </c>
       <c r="L23">
-        <v>1.015181283301278</v>
+        <v>1.025228228430815</v>
       </c>
       <c r="M23">
-        <v>1.021244991456852</v>
+        <v>1.034378169186567</v>
       </c>
       <c r="N23">
-        <v>1.006948009870808</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008884888405505</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035780389703474</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031596255900754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9841840527482683</v>
+        <v>0.9897581705854259</v>
       </c>
       <c r="D24">
-        <v>1.010027896526691</v>
+        <v>1.017525712588676</v>
       </c>
       <c r="E24">
-        <v>1.006091237229657</v>
+        <v>1.01478491226985</v>
       </c>
       <c r="F24">
-        <v>1.012251741044709</v>
+        <v>1.023634046476168</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043044189077848</v>
+        <v>1.043228754708172</v>
       </c>
       <c r="J24">
-        <v>1.012304817906581</v>
+        <v>1.017656252361467</v>
       </c>
       <c r="K24">
-        <v>1.023881170223381</v>
+        <v>1.031251891917489</v>
       </c>
       <c r="L24">
-        <v>1.020012221701175</v>
+        <v>1.028557269487189</v>
       </c>
       <c r="M24">
-        <v>1.026067065078354</v>
+        <v>1.037258455683349</v>
       </c>
       <c r="N24">
-        <v>1.008140232817161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009774316825811</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038059954746247</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03321949388197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9914914039170585</v>
+        <v>0.9959299405142847</v>
       </c>
       <c r="D25">
-        <v>1.015561392609064</v>
+        <v>1.021563738173316</v>
       </c>
       <c r="E25">
-        <v>1.013026358275095</v>
+        <v>1.020027552414046</v>
       </c>
       <c r="F25">
-        <v>1.019147541698985</v>
+        <v>1.028334512618639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045070076423702</v>
+        <v>1.044201212613174</v>
       </c>
       <c r="J25">
-        <v>1.016308548839052</v>
+        <v>1.020595059067048</v>
       </c>
       <c r="K25">
-        <v>1.027922847091176</v>
+        <v>1.03383627957607</v>
       </c>
       <c r="L25">
-        <v>1.02542576715901</v>
+        <v>1.032322722851799</v>
       </c>
       <c r="M25">
-        <v>1.031455714327816</v>
+        <v>1.040508337205899</v>
       </c>
       <c r="N25">
-        <v>1.009467813126093</v>
+        <v>1.010772555972379</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040632022203302</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035043929303252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000681274610136</v>
+        <v>1.000673010804187</v>
       </c>
       <c r="D2">
-        <v>1.024671374775867</v>
+        <v>1.024243722802324</v>
       </c>
       <c r="E2">
-        <v>1.02410072226992</v>
+        <v>1.023940380892528</v>
       </c>
       <c r="F2">
-        <v>1.031979515895586</v>
+        <v>1.031752250962549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044905125646249</v>
+        <v>1.04473747317528</v>
       </c>
       <c r="J2">
-        <v>1.022841627947578</v>
+        <v>1.022833610851014</v>
       </c>
       <c r="K2">
-        <v>1.0357973738505</v>
+        <v>1.035375328448265</v>
       </c>
       <c r="L2">
-        <v>1.035234203980174</v>
+        <v>1.035075966947627</v>
       </c>
       <c r="M2">
-        <v>1.043010602654892</v>
+        <v>1.042786263921651</v>
       </c>
       <c r="N2">
-        <v>1.011533347434908</v>
+        <v>1.013265066263994</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042612394458854</v>
+        <v>1.042434845889602</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036382096372588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036092471384515</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021488454323359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004064058534363</v>
+        <v>1.003940314234925</v>
       </c>
       <c r="D3">
-        <v>1.026899582485013</v>
+        <v>1.02633146391277</v>
       </c>
       <c r="E3">
-        <v>1.027019523192956</v>
+        <v>1.026784600455555</v>
       </c>
       <c r="F3">
-        <v>1.03459142788179</v>
+        <v>1.034271700512035</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045391433869524</v>
+        <v>1.045164288452346</v>
       </c>
       <c r="J3">
-        <v>1.024444543025033</v>
+        <v>1.024324135644439</v>
       </c>
       <c r="K3">
-        <v>1.037199469137734</v>
+        <v>1.036638159472714</v>
       </c>
       <c r="L3">
-        <v>1.037317973549571</v>
+        <v>1.037085864414737</v>
       </c>
       <c r="M3">
-        <v>1.044800038925609</v>
+        <v>1.044484072132805</v>
       </c>
       <c r="N3">
-        <v>1.012077129952025</v>
+        <v>1.013666973874788</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04402860777616</v>
+        <v>1.043778542418124</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037370831802495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036982458560347</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021727874719622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006217724849284</v>
+        <v>1.006021233336267</v>
       </c>
       <c r="D4">
-        <v>1.02832156066019</v>
+        <v>1.027664495786426</v>
       </c>
       <c r="E4">
-        <v>1.028886668399626</v>
+        <v>1.028604812461819</v>
       </c>
       <c r="F4">
-        <v>1.036261364273232</v>
+        <v>1.035883221680218</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045691425810565</v>
+        <v>1.045426566108533</v>
       </c>
       <c r="J4">
-        <v>1.025463706871085</v>
+        <v>1.025272159453415</v>
       </c>
       <c r="K4">
-        <v>1.03808977563653</v>
+        <v>1.03744011749613</v>
       </c>
       <c r="L4">
-        <v>1.038648522545444</v>
+        <v>1.038369838090859</v>
       </c>
       <c r="M4">
-        <v>1.045940991144058</v>
+        <v>1.04556702979747</v>
       </c>
       <c r="N4">
-        <v>1.01242279441983</v>
+        <v>1.013922576873244</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044931590008441</v>
+        <v>1.044635626421228</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038001256035597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037550494630187</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021877570193504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007117576862945</v>
+        <v>1.006890882817387</v>
       </c>
       <c r="D5">
-        <v>1.028918238894225</v>
+        <v>1.0282241890026</v>
       </c>
       <c r="E5">
-        <v>1.029668654188502</v>
+        <v>1.029367339846407</v>
       </c>
       <c r="F5">
-        <v>1.03696099646687</v>
+        <v>1.036558582971042</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045815658495594</v>
+        <v>1.045535102354908</v>
       </c>
       <c r="J5">
-        <v>1.025890528434027</v>
+        <v>1.025669369823604</v>
       </c>
       <c r="K5">
-        <v>1.038463563422384</v>
+        <v>1.037777131713589</v>
       </c>
       <c r="L5">
-        <v>1.039205756033259</v>
+        <v>1.0389077415772</v>
       </c>
       <c r="M5">
-        <v>1.046418952147127</v>
+        <v>1.046020870588676</v>
       </c>
       <c r="N5">
-        <v>1.012567746746452</v>
+        <v>1.014029832655835</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045309861691357</v>
+        <v>1.044994808844802</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038272743758597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037796689985773</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021940308788302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007271423915919</v>
+        <v>1.007039594448404</v>
       </c>
       <c r="D6">
-        <v>1.029022444671683</v>
+        <v>1.028322157363792</v>
       </c>
       <c r="E6">
-        <v>1.029802166792503</v>
+        <v>1.029497561130963</v>
       </c>
       <c r="F6">
-        <v>1.037080992049232</v>
+        <v>1.036674473066016</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045838262753788</v>
+        <v>1.045555052874295</v>
       </c>
       <c r="J6">
-        <v>1.02596510293487</v>
+        <v>1.025738905499878</v>
       </c>
       <c r="K6">
-        <v>1.038530336405554</v>
+        <v>1.037837701006213</v>
       </c>
       <c r="L6">
-        <v>1.039301553677248</v>
+        <v>1.039000268631625</v>
       </c>
       <c r="M6">
-        <v>1.046501740763539</v>
+        <v>1.046099578012984</v>
       </c>
       <c r="N6">
-        <v>1.012593328555626</v>
+        <v>1.01404881278752</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045375382894086</v>
+        <v>1.045057100106033</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038328722656727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03784914958199</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021952039862949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006238472927537</v>
+        <v>1.006048772382319</v>
       </c>
       <c r="D7">
-        <v>1.028341058521124</v>
+        <v>1.027688209207507</v>
       </c>
       <c r="E7">
-        <v>1.028903881288988</v>
+        <v>1.028624993135553</v>
       </c>
       <c r="F7">
-        <v>1.036278239500716</v>
+        <v>1.035903450355484</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045698330966206</v>
+        <v>1.045435355733279</v>
       </c>
       <c r="J7">
-        <v>1.025477900242552</v>
+        <v>1.02529297086546</v>
       </c>
       <c r="K7">
-        <v>1.038106163078564</v>
+        <v>1.03746067014251</v>
       </c>
       <c r="L7">
-        <v>1.038662653126982</v>
+        <v>1.038386901875697</v>
       </c>
       <c r="M7">
-        <v>1.045954818564855</v>
+        <v>1.045584172023934</v>
       </c>
       <c r="N7">
-        <v>1.012428314779698</v>
+        <v>1.013954593400635</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044942533418075</v>
+        <v>1.044649193266737</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03803300231773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037587181379673</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021883248966559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00184279274742</v>
+        <v>1.001817629456108</v>
       </c>
       <c r="D8">
-        <v>1.025442815230069</v>
+        <v>1.024982093694577</v>
       </c>
       <c r="E8">
-        <v>1.025100149826704</v>
+        <v>1.024924599900326</v>
       </c>
       <c r="F8">
-        <v>1.032875789254774</v>
+        <v>1.032628573728138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045079033682564</v>
+        <v>1.044897733951882</v>
       </c>
       <c r="J8">
-        <v>1.023397674219455</v>
+        <v>1.023373237212261</v>
       </c>
       <c r="K8">
-        <v>1.036288832692493</v>
+        <v>1.035833974281452</v>
       </c>
       <c r="L8">
-        <v>1.035950527408538</v>
+        <v>1.035777212613084</v>
       </c>
       <c r="M8">
-        <v>1.043628116138983</v>
+        <v>1.043383989665806</v>
       </c>
       <c r="N8">
-        <v>1.01172291850778</v>
+        <v>1.013489862535157</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043101113387343</v>
+        <v>1.042907904320305</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036752569233959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036442005739539</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021579124077403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9938026877782581</v>
+        <v>0.9940600952359568</v>
       </c>
       <c r="D9">
-        <v>1.020161053374568</v>
+        <v>1.020039180530044</v>
       </c>
       <c r="E9">
-        <v>1.018215684302846</v>
+        <v>1.018222460272756</v>
       </c>
       <c r="F9">
-        <v>1.026708596023972</v>
+        <v>1.026685619424031</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04386552434382</v>
+        <v>1.043827571918749</v>
       </c>
       <c r="J9">
-        <v>1.019576203298093</v>
+        <v>1.019824364703879</v>
       </c>
       <c r="K9">
-        <v>1.032935286064567</v>
+        <v>1.032815292275694</v>
       </c>
       <c r="L9">
-        <v>1.031019979629436</v>
+        <v>1.031026650632668</v>
       </c>
       <c r="M9">
-        <v>1.039382713327698</v>
+        <v>1.039360085206917</v>
       </c>
       <c r="N9">
-        <v>1.01042530747153</v>
+        <v>1.012541718921647</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039741165986881</v>
+        <v>1.039723257327352</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034378193776895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034304124839683</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020992488115008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9882858431859198</v>
+        <v>0.9887726776842113</v>
       </c>
       <c r="D10">
-        <v>1.016581112113625</v>
+        <v>1.016713859518712</v>
       </c>
       <c r="E10">
-        <v>1.013595614386202</v>
+        <v>1.013744397517764</v>
       </c>
       <c r="F10">
-        <v>1.022588167352424</v>
+        <v>1.022737098737225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043001550477659</v>
+        <v>1.043071409469851</v>
       </c>
       <c r="J10">
-        <v>1.016972060551961</v>
+        <v>1.017438937137538</v>
       </c>
       <c r="K10">
-        <v>1.030657306878279</v>
+        <v>1.030787757962173</v>
       </c>
       <c r="L10">
-        <v>1.027723659288733</v>
+        <v>1.027869849091707</v>
       </c>
       <c r="M10">
-        <v>1.036561220444622</v>
+        <v>1.036707614541758</v>
       </c>
       <c r="N10">
-        <v>1.009543894213966</v>
+        <v>1.012017278890956</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037559633500448</v>
+        <v>1.037675487840747</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032784379730814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032889069109032</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020593628025816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9862191795130144</v>
+        <v>0.9868249783396946</v>
       </c>
       <c r="D11">
-        <v>1.015420002278197</v>
+        <v>1.015660549956084</v>
       </c>
       <c r="E11">
-        <v>1.01230799266359</v>
+        <v>1.012516655701249</v>
       </c>
       <c r="F11">
-        <v>1.021618030723991</v>
+        <v>1.021842340606619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042794603107513</v>
+        <v>1.042908910989335</v>
       </c>
       <c r="J11">
-        <v>1.016176710878007</v>
+        <v>1.016756314009805</v>
       </c>
       <c r="K11">
-        <v>1.030056863245072</v>
+        <v>1.030293053309171</v>
       </c>
       <c r="L11">
-        <v>1.027001471936123</v>
+        <v>1.027206324495254</v>
       </c>
       <c r="M11">
-        <v>1.036143462050695</v>
+        <v>1.036363772139647</v>
       </c>
       <c r="N11">
-        <v>1.009300164679345</v>
+        <v>1.0120804855612</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037665642237786</v>
+        <v>1.037839904883793</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03239279713224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032575458717175</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020533804558786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9855819363440271</v>
+        <v>0.9862227065885085</v>
       </c>
       <c r="D12">
-        <v>1.015136013606854</v>
+        <v>1.015404035270699</v>
       </c>
       <c r="E12">
-        <v>1.012104096356178</v>
+        <v>1.012325297538306</v>
       </c>
       <c r="F12">
-        <v>1.021566342825656</v>
+        <v>1.02180986941462</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042782814942924</v>
+        <v>1.042907354977016</v>
       </c>
       <c r="J12">
-        <v>1.016009282211689</v>
+        <v>1.016621812081575</v>
       </c>
       <c r="K12">
-        <v>1.029978865245047</v>
+        <v>1.030241951320251</v>
       </c>
       <c r="L12">
-        <v>1.027003017833122</v>
+        <v>1.027220113486131</v>
       </c>
       <c r="M12">
-        <v>1.036291709692476</v>
+        <v>1.036530824743521</v>
       </c>
       <c r="N12">
-        <v>1.009263967310223</v>
+        <v>1.012160518768058</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038109520380892</v>
+        <v>1.038298593424974</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032337649667535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032539328502619</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020550839024691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9860129455834613</v>
+        <v>0.9866151075760331</v>
       </c>
       <c r="D13">
-        <v>1.015522204893994</v>
+        <v>1.015749968009365</v>
       </c>
       <c r="E13">
-        <v>1.012732069418093</v>
+        <v>1.012925489879319</v>
       </c>
       <c r="F13">
-        <v>1.0222357914778</v>
+        <v>1.022450836104393</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042931394538217</v>
+        <v>1.043037213519833</v>
       </c>
       <c r="J13">
-        <v>1.016326455295816</v>
+        <v>1.016902207478113</v>
       </c>
       <c r="K13">
-        <v>1.030314889446074</v>
+        <v>1.030538476287094</v>
       </c>
       <c r="L13">
-        <v>1.027576112740211</v>
+        <v>1.027765960962658</v>
       </c>
       <c r="M13">
-        <v>1.036906390651513</v>
+        <v>1.037117559173577</v>
       </c>
       <c r="N13">
-        <v>1.009390240152132</v>
+        <v>1.012226514626263</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038872333395807</v>
+        <v>1.039039266562828</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032572730248143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032746235112548</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020632111412855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9867998820412546</v>
+        <v>0.9873421459752403</v>
       </c>
       <c r="D14">
-        <v>1.016097622642175</v>
+        <v>1.016266951989183</v>
       </c>
       <c r="E14">
-        <v>1.013548037820921</v>
+        <v>1.013704563843967</v>
       </c>
       <c r="F14">
-        <v>1.023031285629234</v>
+        <v>1.023205232507361</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043108386214673</v>
+        <v>1.043188288830007</v>
       </c>
       <c r="J14">
-        <v>1.016768757383975</v>
+        <v>1.017287576605358</v>
       </c>
       <c r="K14">
-        <v>1.030738794580136</v>
+        <v>1.030905057497691</v>
       </c>
       <c r="L14">
-        <v>1.02823554206196</v>
+        <v>1.028389214878204</v>
       </c>
       <c r="M14">
-        <v>1.037547971619756</v>
+        <v>1.037718823636966</v>
       </c>
       <c r="N14">
-        <v>1.009552612352493</v>
+        <v>1.012267817742297</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03955285226533</v>
+        <v>1.039687896145944</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032873876211591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0330069837593</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020718582847867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9872273520100773</v>
+        <v>0.9877395545003539</v>
       </c>
       <c r="D15">
-        <v>1.016389870939816</v>
+        <v>1.016530507574534</v>
       </c>
       <c r="E15">
-        <v>1.013937423807856</v>
+        <v>1.014076640319328</v>
       </c>
       <c r="F15">
-        <v>1.023394395451065</v>
+        <v>1.023548228189342</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043189246239092</v>
+        <v>1.043256707336593</v>
       </c>
       <c r="J15">
-        <v>1.016986943322521</v>
+        <v>1.017477193027526</v>
       </c>
       <c r="K15">
-        <v>1.030938930026444</v>
+        <v>1.031077039033575</v>
       </c>
       <c r="L15">
-        <v>1.028530706705555</v>
+        <v>1.028667405345701</v>
       </c>
       <c r="M15">
-        <v>1.037818658860634</v>
+        <v>1.037969775702634</v>
       </c>
       <c r="N15">
-        <v>1.009629425994583</v>
+        <v>1.01227917086848</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039804344058657</v>
+        <v>1.039923785830187</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033021268982441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03313503827576</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020755755253772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9894756847908099</v>
+        <v>0.9898480865060839</v>
       </c>
       <c r="D16">
-        <v>1.017832482030318</v>
+        <v>1.017839740527416</v>
       </c>
       <c r="E16">
-        <v>1.015777576816169</v>
+        <v>1.015840343476683</v>
       </c>
       <c r="F16">
-        <v>1.025031806739939</v>
+        <v>1.025092846226977</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043541224195843</v>
+        <v>1.04355222875071</v>
       </c>
       <c r="J16">
-        <v>1.018035028989014</v>
+        <v>1.018392262434423</v>
       </c>
       <c r="K16">
-        <v>1.03185130596415</v>
+        <v>1.031858439645807</v>
       </c>
       <c r="L16">
-        <v>1.029831829222697</v>
+        <v>1.029893510982546</v>
       </c>
       <c r="M16">
-        <v>1.038927953398995</v>
+        <v>1.038987962270541</v>
       </c>
       <c r="N16">
-        <v>1.009980714704179</v>
+        <v>1.012316071515584</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040642407977625</v>
+        <v>1.040689839953017</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033669532813822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033690995099001</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020905995899085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9907904879874573</v>
+        <v>0.9910956043533694</v>
       </c>
       <c r="D17">
-        <v>1.018639288953701</v>
+        <v>1.018580525908815</v>
       </c>
       <c r="E17">
-        <v>1.01676227399784</v>
+        <v>1.016789075310261</v>
       </c>
       <c r="F17">
-        <v>1.025868297835111</v>
+        <v>1.025883942293635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I17">
-        <v>1.043716060577481</v>
+        <v>1.043699693068599</v>
       </c>
       <c r="J17">
-        <v>1.018607233097928</v>
+        <v>1.018900318861454</v>
       </c>
       <c r="K17">
-        <v>1.032328210566265</v>
+        <v>1.032270429904423</v>
       </c>
       <c r="L17">
-        <v>1.030482647336244</v>
+        <v>1.030508998505643</v>
       </c>
       <c r="M17">
-        <v>1.039437471100066</v>
+        <v>1.039452858761937</v>
       </c>
       <c r="N17">
-        <v>1.010165017923736</v>
+        <v>1.012351861762216</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040916100750806</v>
+        <v>1.040928264617412</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034009321316048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033985133261915</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020976572938498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9914183006178684</v>
+        <v>0.9917021775678113</v>
       </c>
       <c r="D18">
-        <v>1.018956544424856</v>
+        <v>1.018877227503688</v>
       </c>
       <c r="E18">
-        <v>1.017070914351736</v>
+        <v>1.017088728499776</v>
       </c>
       <c r="F18">
-        <v>1.026053994654097</v>
+        <v>1.026055819461309</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043748590286613</v>
+        <v>1.043724561506845</v>
       </c>
       <c r="J18">
-        <v>1.018809480996929</v>
+        <v>1.01908237386794</v>
       </c>
       <c r="K18">
-        <v>1.032455893652263</v>
+        <v>1.032377881233128</v>
       </c>
       <c r="L18">
-        <v>1.030601346860791</v>
+        <v>1.030618866661175</v>
       </c>
       <c r="M18">
-        <v>1.039437662255971</v>
+        <v>1.039439457584729</v>
       </c>
       <c r="N18">
-        <v>1.010217346079128</v>
+        <v>1.012348260543066</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040678542078601</v>
+        <v>1.040679961572549</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034087926939743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034048301220448</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020978034127927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9914376264544434</v>
+        <v>0.9917351123224015</v>
       </c>
       <c r="D19">
-        <v>1.018848825484504</v>
+        <v>1.018785486541538</v>
       </c>
       <c r="E19">
-        <v>1.016775207265106</v>
+        <v>1.01680530909255</v>
       </c>
       <c r="F19">
-        <v>1.025659532581463</v>
+        <v>1.025672577486058</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043663043275778</v>
+        <v>1.043647095765606</v>
       </c>
       <c r="J19">
-        <v>1.018691514371185</v>
+        <v>1.018977557916771</v>
       </c>
       <c r="K19">
-        <v>1.032287103678041</v>
+        <v>1.032224801150284</v>
       </c>
       <c r="L19">
-        <v>1.030247502361328</v>
+        <v>1.030277109103499</v>
       </c>
       <c r="M19">
-        <v>1.03898732543589</v>
+        <v>1.039000160528374</v>
       </c>
       <c r="N19">
-        <v>1.010158009900887</v>
+        <v>1.012294606543381</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039996895615362</v>
+        <v>1.040007047122765</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033975001150754</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033947107437591</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020922277743717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9897369203269036</v>
+        <v>0.9901423420638629</v>
       </c>
       <c r="D20">
-        <v>1.017536161664183</v>
+        <v>1.017588258042405</v>
       </c>
       <c r="E20">
-        <v>1.014808421153609</v>
+        <v>1.014909739395652</v>
       </c>
       <c r="F20">
-        <v>1.023674479588217</v>
+        <v>1.023767250097563</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043242598003661</v>
+        <v>1.04327784129624</v>
       </c>
       <c r="J20">
-        <v>1.017669280669075</v>
+        <v>1.018058620784737</v>
       </c>
       <c r="K20">
-        <v>1.031277511549469</v>
+        <v>1.031328732196781</v>
       </c>
       <c r="L20">
-        <v>1.028595785962432</v>
+        <v>1.028695389334536</v>
       </c>
       <c r="M20">
-        <v>1.037313435106195</v>
+        <v>1.037404670217805</v>
       </c>
       <c r="N20">
-        <v>1.009782118731711</v>
+        <v>1.012087316379606</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038144372007145</v>
+        <v>1.038216575130087</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03326510957885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033317873231018</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020702791256012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9855313398432453</v>
+        <v>0.9862176361179811</v>
       </c>
       <c r="D21">
-        <v>1.014779866299584</v>
+        <v>1.01509877896281</v>
       </c>
       <c r="E21">
-        <v>1.011222372894707</v>
+        <v>1.011485411204491</v>
       </c>
       <c r="F21">
-        <v>1.020439091645158</v>
+        <v>1.020719855001678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042542376573863</v>
+        <v>1.042692858337826</v>
       </c>
       <c r="J21">
-        <v>1.01564669749316</v>
+        <v>1.016303112002126</v>
       </c>
       <c r="K21">
-        <v>1.029486537308301</v>
+        <v>1.029799637337925</v>
       </c>
       <c r="L21">
-        <v>1.025994208095411</v>
+        <v>1.02625240777014</v>
       </c>
       <c r="M21">
-        <v>1.035043316692481</v>
+        <v>1.035319035967491</v>
       </c>
       <c r="N21">
-        <v>1.009092699388234</v>
+        <v>1.012029136538984</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036306812638853</v>
+        <v>1.036525027204256</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0320020518252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032240305410857</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02039777428055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9828526506780381</v>
+        <v>0.9837161468093956</v>
       </c>
       <c r="D22">
-        <v>1.013034590640021</v>
+        <v>1.013522289326973</v>
       </c>
       <c r="E22">
-        <v>1.008977074039651</v>
+        <v>1.00934361173647</v>
       </c>
       <c r="F22">
-        <v>1.018422408150689</v>
+        <v>1.018822254199323</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042090779987662</v>
+        <v>1.042314276215533</v>
       </c>
       <c r="J22">
-        <v>1.014364353635476</v>
+        <v>1.015188074241433</v>
       </c>
       <c r="K22">
-        <v>1.02835217794294</v>
+        <v>1.028830543754975</v>
       </c>
       <c r="L22">
-        <v>1.024372766628682</v>
+        <v>1.024732214839737</v>
       </c>
       <c r="M22">
-        <v>1.033637539419005</v>
+        <v>1.034029838336379</v>
       </c>
       <c r="N22">
-        <v>1.008656094806394</v>
+        <v>1.011985315903706</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035194226786283</v>
+        <v>1.035504707316067</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031186446291511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031540254197595</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020203170015265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9842691574481818</v>
+        <v>0.9850268059660785</v>
       </c>
       <c r="D23">
-        <v>1.013951953693511</v>
+        <v>1.014341965124826</v>
       </c>
       <c r="E23">
-        <v>1.010163673841435</v>
+        <v>1.010469280571152</v>
       </c>
       <c r="F23">
-        <v>1.019487228142302</v>
+        <v>1.019817579172607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042327051217186</v>
+        <v>1.042508128124906</v>
       </c>
       <c r="J23">
-        <v>1.015038620580925</v>
+        <v>1.015762387646006</v>
       </c>
       <c r="K23">
-        <v>1.028945464317966</v>
+        <v>1.029328200935702</v>
       </c>
       <c r="L23">
-        <v>1.025228228430815</v>
+        <v>1.025528078122875</v>
       </c>
       <c r="M23">
-        <v>1.034378169186567</v>
+        <v>1.034702444623738</v>
       </c>
       <c r="N23">
-        <v>1.008884888405505</v>
+        <v>1.011963880886786</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035780389703474</v>
+        <v>1.036037033618485</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031596255900754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031881507509475</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020301352042644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9897581705854259</v>
+        <v>0.9901639796638034</v>
       </c>
       <c r="D24">
-        <v>1.017525712588676</v>
+        <v>1.01757839290676</v>
       </c>
       <c r="E24">
-        <v>1.01478491226985</v>
+        <v>1.014887053433964</v>
       </c>
       <c r="F24">
-        <v>1.023634046476168</v>
+        <v>1.023727335905606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043228754708172</v>
+        <v>1.043264457294605</v>
       </c>
       <c r="J24">
-        <v>1.017656252361467</v>
+        <v>1.018045988112262</v>
       </c>
       <c r="K24">
-        <v>1.031251891917489</v>
+        <v>1.031303687801975</v>
       </c>
       <c r="L24">
-        <v>1.028557269487189</v>
+        <v>1.028657683971016</v>
       </c>
       <c r="M24">
-        <v>1.037258455683349</v>
+        <v>1.037350202948032</v>
       </c>
       <c r="N24">
-        <v>1.009774316825811</v>
+        <v>1.012077437566006</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038059954746247</v>
+        <v>1.038132566797981</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03321949388197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033269995918656</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020692723505811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9959299405142847</v>
+        <v>0.9961027130600408</v>
       </c>
       <c r="D25">
-        <v>1.021563738173316</v>
+        <v>1.021345999531168</v>
       </c>
       <c r="E25">
-        <v>1.020027552414046</v>
+        <v>1.019981351314366</v>
       </c>
       <c r="F25">
-        <v>1.028334512618639</v>
+        <v>1.02824713076328</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044201212613174</v>
+        <v>1.044122540638453</v>
       </c>
       <c r="J25">
-        <v>1.020595059067048</v>
+        <v>1.020761952087066</v>
       </c>
       <c r="K25">
-        <v>1.03383627957607</v>
+        <v>1.033621743110773</v>
       </c>
       <c r="L25">
-        <v>1.032322722851799</v>
+        <v>1.032277203666202</v>
       </c>
       <c r="M25">
-        <v>1.040508337205899</v>
+        <v>1.040422218868864</v>
       </c>
       <c r="N25">
-        <v>1.010772555972379</v>
+        <v>1.012762800647814</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040632022203302</v>
+        <v>1.040563865322865</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035043929303252</v>
+        <v>1.034905811308145</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021152661875423</v>
       </c>
     </row>
   </sheetData>
